--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1516309.718636879</v>
+        <v>1501076.152844</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2410308.36887893</v>
+        <v>2410308.368878925</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663198</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663198</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>39.70122005611967</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166639</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>68.11693918766092</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.53696330591193</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409151</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265844</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846323</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.1396914264613</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402857</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709392</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>20.00402729331168</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>20.00402729331152</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663197</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.09783323005805</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>74.99298492937244</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>77.08171901666384</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>158.9209832102728</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -980,10 +980,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>25.52097501220041</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -995,10 +995,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409151</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265844</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>98.68226064008894</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>20.00402729331168</v>
       </c>
       <c r="K7" t="n">
         <v>14.10430989402857</v>
@@ -1098,7 +1098,7 @@
         <v>18.10760906709392</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.00402729331169</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>88.09081815943053</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663198</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663198</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>68.11693918766106</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265844</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.43289562846323</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>115.1157629903427</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>187.5255871663198</v>
@@ -1277,7 +1277,7 @@
         <v>187.5255871663198</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>186.1649406925467</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>52.21594625443417</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402857</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709392</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.00402729331168</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>85.17289288835305</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>320.169642633447</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492377</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>391.6047407685666</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>201.6622187863209</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>105.7015762176807</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983806</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>150.206247434698</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>129.9950902990176</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>150.9837267223824</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.6898441249717</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744764</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>122.063823392386</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>96.42217904608488</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6911677128812</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.0955237083909</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>325.3908643743045</v>
       </c>
       <c r="D23" t="n">
-        <v>302.2677229713034</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H23" t="n">
-        <v>286.5492287008803</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>11.24111167928655</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>91.25695432280244</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>200.4734453045276</v>
@@ -2417,7 +2417,7 @@
         <v>85.5307787037285</v>
       </c>
       <c r="I24" t="n">
-        <v>4.321823945400325</v>
+        <v>4.321823945400311</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>120.3233806718341</v>
       </c>
       <c r="T24" t="n">
-        <v>189.01959353378</v>
+        <v>189.0195935337799</v>
       </c>
       <c r="U24" t="n">
         <v>225.7594701904246</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.20040458826995</v>
       </c>
       <c r="G25" t="n">
         <v>165.6728453215022</v>
@@ -2496,7 +2496,7 @@
         <v>141.616853524317</v>
       </c>
       <c r="I25" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.06165549728794</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>218.04083490674</v>
       </c>
       <c r="U25" t="n">
-        <v>59.10645052143335</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>303.2355298012971</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>286.5492287008803</v>
       </c>
       <c r="I26" t="n">
-        <v>11.24111167928655</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>91.25695432280244</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T26" t="n">
         <v>200.4734453045276</v>
@@ -2614,16 +2614,16 @@
         <v>250.9322223331321</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>338.2808289141354</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>85.5307787037285</v>
       </c>
       <c r="I27" t="n">
-        <v>4.321823945400325</v>
+        <v>4.321823945400311</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>120.3233806718341</v>
       </c>
       <c r="T27" t="n">
-        <v>189.01959353378</v>
+        <v>189.0195935337799</v>
       </c>
       <c r="U27" t="n">
         <v>225.7594701904246</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.6728453215022</v>
       </c>
       <c r="H28" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.04083490674</v>
       </c>
       <c r="U28" t="n">
-        <v>21.59413115639054</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>280.2471290528094</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H29" t="n">
-        <v>250.7913883527544</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I29" t="n">
-        <v>11.24111167928655</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>91.25695432280244</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>200.4734453045276</v>
@@ -2851,7 +2851,7 @@
         <v>250.9322223331321</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>1.321002372550502</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>85.5307787037285</v>
       </c>
       <c r="I30" t="n">
-        <v>4.321823945400325</v>
+        <v>4.321823945400311</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>120.3233806718341</v>
       </c>
       <c r="T30" t="n">
-        <v>189.01959353378</v>
+        <v>189.0195935337799</v>
       </c>
       <c r="U30" t="n">
         <v>225.7594701904246</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6728453215022</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>73.06165549728794</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>128.4291065727008</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V31" t="n">
-        <v>200.6701189829306</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>286.5492287008803</v>
       </c>
       <c r="I32" t="n">
-        <v>11.24111167928655</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>91.25695432280244</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U32" t="n">
-        <v>33.71745721727202</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>172.2373820621666</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>85.5307787037285</v>
       </c>
       <c r="I33" t="n">
-        <v>4.321823945400325</v>
+        <v>4.321823945400311</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>120.3233806718341</v>
       </c>
       <c r="T33" t="n">
-        <v>189.01959353378</v>
+        <v>189.0195935337799</v>
       </c>
       <c r="U33" t="n">
         <v>225.7594701904246</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>4.538038607542599</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6728453215022</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>141.616853524317</v>
       </c>
       <c r="I34" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>218.04083490674</v>
       </c>
       <c r="U34" t="n">
-        <v>21.59413115639099</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>278.995873611824</v>
+        <v>410.1348553313306</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I35" t="n">
-        <v>11.24111167928655</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>91.25695432280244</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>200.4734453045276</v>
@@ -3325,7 +3325,7 @@
         <v>250.9322223331321</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>1.321002372551402</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>85.5307787037285</v>
       </c>
       <c r="I36" t="n">
-        <v>4.321823945400325</v>
+        <v>4.321823945400311</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>120.3233806718341</v>
       </c>
       <c r="T36" t="n">
-        <v>189.01959353378</v>
+        <v>189.0195935337799</v>
       </c>
       <c r="U36" t="n">
         <v>225.7594701904246</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.6728453215022</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>73.06165549728794</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>183.6178439565572</v>
       </c>
       <c r="T37" t="n">
-        <v>218.04083490674</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1925856817478</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>215.0294089149166</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>35.93819730435672</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H38" t="n">
-        <v>249.8332306382478</v>
+        <v>160.5914179078233</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>91.25695432280244</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.9322223331321</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>85.5307787037285</v>
       </c>
       <c r="I39" t="n">
-        <v>4.321823945400325</v>
+        <v>4.321823945400311</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>120.3233806718341</v>
       </c>
       <c r="T39" t="n">
-        <v>189.01959353378</v>
+        <v>189.0195935337799</v>
       </c>
       <c r="U39" t="n">
         <v>225.7594701904246</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>113.4482162202281</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H40" t="n">
-        <v>78.41057398147184</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I40" t="n">
         <v>85.7378622522384</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.06165549728794</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>183.6178439565572</v>
@@ -3717,7 +3717,7 @@
         <v>218.04083490674</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>275.3369398207553</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,10 +3757,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H41" t="n">
-        <v>286.5492287008803</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.24111167928655</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>91.25695432280244</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T41" t="n">
         <v>200.4734453045276</v>
@@ -3799,7 +3799,7 @@
         <v>250.9322223331321</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>196.6132767506294</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>85.5307787037285</v>
       </c>
       <c r="I42" t="n">
-        <v>4.321823945400325</v>
+        <v>4.321823945400311</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>120.3233806718341</v>
       </c>
       <c r="T42" t="n">
-        <v>189.01959353378</v>
+        <v>189.0195935337799</v>
       </c>
       <c r="U42" t="n">
         <v>225.7594701904246</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.56806607561335</v>
+        <v>48.02179426221839</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.6728453215022</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.7378622522384</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>275.9882013497155</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>286.5492287008803</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>91.25695432280246</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T44" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.9322223331321</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>169.0231735401938</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H45" t="n">
-        <v>85.53077870372852</v>
+        <v>85.5307787037285</v>
       </c>
       <c r="I45" t="n">
-        <v>4.32182394540034</v>
+        <v>4.321823945400311</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>120.3233806718341</v>
       </c>
       <c r="T45" t="n">
-        <v>189.01959353378</v>
+        <v>189.0195935337799</v>
       </c>
       <c r="U45" t="n">
         <v>225.7594701904246</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I46" t="n">
-        <v>85.73786225223841</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>73.06165549728797</v>
+        <v>69.12313868382702</v>
       </c>
       <c r="S46" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>218.04083490674</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>180.7598511249736</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487945</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487945</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="D2" t="n">
-        <v>560.6825636487945</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
-        <v>560.6825636487945</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>371.2627786323098</v>
+        <v>28.23218154912179</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8429936158252</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
         <v>191.874309407919</v>
@@ -4342,40 +4342,40 @@
         <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123831</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020261</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652791</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652791</v>
+        <v>603.4370373477791</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652791</v>
+        <v>603.4370373477791</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652791</v>
+        <v>414.0172523312945</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652791</v>
+        <v>414.0172523312945</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652791</v>
+        <v>414.0172523312945</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652791</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487945</v>
+        <v>224.5974673148098</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.896529081881</v>
+        <v>392.4672266287262</v>
       </c>
       <c r="C3" t="n">
-        <v>191.896529081881</v>
+        <v>218.0141973475992</v>
       </c>
       <c r="D3" t="n">
-        <v>191.896529081881</v>
+        <v>69.07978768634794</v>
       </c>
       <c r="E3" t="n">
-        <v>191.896529081881</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F3" t="n">
-        <v>191.896529081881</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>191.896529081881</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>90.03616812153786</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296057</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017057</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264273</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264273</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T3" t="n">
-        <v>676.9378076264273</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U3" t="n">
-        <v>676.9378076264273</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099427</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="W3" t="n">
-        <v>487.5180226099427</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="X3" t="n">
-        <v>298.0982375934581</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Y3" t="n">
-        <v>191.896529081881</v>
+        <v>560.6825636487943</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404153</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404153</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404153</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404153</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404153</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404153</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404153</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404153</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404153</v>
       </c>
       <c r="K4" t="n">
         <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230169</v>
+        <v>27.03967056230163</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170704</v>
+        <v>42.98993985170695</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396313</v>
+        <v>66.41847329396302</v>
       </c>
       <c r="O4" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828946</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910367</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910367</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910367</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910367</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910382</v>
+        <v>49.45491281910367</v>
       </c>
       <c r="U4" t="n">
-        <v>29.24882464404152</v>
+        <v>49.45491281910367</v>
       </c>
       <c r="V4" t="n">
-        <v>29.24882464404152</v>
+        <v>49.45491281910367</v>
       </c>
       <c r="W4" t="n">
-        <v>29.24882464404152</v>
+        <v>49.45491281910367</v>
       </c>
       <c r="X4" t="n">
-        <v>29.24882464404152</v>
+        <v>49.45491281910367</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404153</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>672.2420264262245</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="C5" t="n">
-        <v>672.2420264262245</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="D5" t="n">
-        <v>482.8222414097399</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="E5" t="n">
-        <v>293.4024563932553</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F5" t="n">
-        <v>103.9826713767707</v>
+        <v>154.9708857107125</v>
       </c>
       <c r="G5" t="n">
-        <v>90.75253680095452</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H5" t="n">
-        <v>90.75253680095452</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I5" t="n">
         <v>15.00204697330558</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079188</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123831</v>
       </c>
       <c r="O5" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020258</v>
+        <v>734.4611726020261</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262245</v>
+        <v>672.2420264262247</v>
       </c>
       <c r="S5" t="n">
-        <v>672.2420264262245</v>
+        <v>511.8624171433428</v>
       </c>
       <c r="T5" t="n">
-        <v>672.2420264262245</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="U5" t="n">
-        <v>672.2420264262245</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="V5" t="n">
-        <v>672.2420264262245</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="W5" t="n">
-        <v>672.2420264262245</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="X5" t="n">
-        <v>672.2420264262245</v>
+        <v>351.3361714764005</v>
       </c>
       <c r="Y5" t="n">
-        <v>672.2420264262245</v>
+        <v>351.3361714764005</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.4232975136739</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="C6" t="n">
-        <v>475.9702682325469</v>
+        <v>575.6493193841521</v>
       </c>
       <c r="D6" t="n">
-        <v>475.9702682325469</v>
+        <v>426.7149097229009</v>
       </c>
       <c r="E6" t="n">
-        <v>475.9702682325469</v>
+        <v>400.9361470843146</v>
       </c>
       <c r="F6" t="n">
-        <v>329.4357102594319</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G6" t="n">
-        <v>191.896529081881</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H6" t="n">
-        <v>90.03616812153786</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296056</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J6" t="n">
         <v>15.00204697330558</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546597</v>
+        <v>512.5000587546599</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017055</v>
+        <v>739.5989987017057</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="S6" t="n">
-        <v>650.4232975136739</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="T6" t="n">
-        <v>650.4232975136739</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="U6" t="n">
-        <v>650.4232975136739</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="V6" t="n">
-        <v>650.4232975136739</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="W6" t="n">
-        <v>650.4232975136739</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="X6" t="n">
-        <v>650.4232975136739</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="Y6" t="n">
-        <v>650.4232975136739</v>
+        <v>750.1023486652791</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="C7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="D7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="E7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="F7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="G7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="H7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="I7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="J7" t="n">
-        <v>29.24882464404151</v>
+        <v>29.24882464404152</v>
       </c>
       <c r="K7" t="n">
         <v>15.00204697330558</v>
@@ -4746,31 +4746,31 @@
         <v>49.45491281910382</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="R7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="S7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="T7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="U7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="V7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="W7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="X7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.24882464404151</v>
+        <v>49.45491281910382</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>672.2420264262247</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="C8" t="n">
-        <v>482.8222414097401</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="D8" t="n">
-        <v>482.8222414097401</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E8" t="n">
-        <v>393.8416170062749</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897902</v>
+        <v>28.23218154912179</v>
       </c>
       <c r="G8" t="n">
         <v>15.00204697330558</v>
@@ -4804,22 +4804,22 @@
         <v>15.00204697330558</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079188</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123831</v>
       </c>
       <c r="O8" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
         <v>734.4611726020261</v>
@@ -4837,19 +4837,19 @@
         <v>672.2420264262247</v>
       </c>
       <c r="U8" t="n">
-        <v>672.2420264262247</v>
+        <v>482.8222414097401</v>
       </c>
       <c r="V8" t="n">
-        <v>672.2420264262247</v>
+        <v>293.4024563932554</v>
       </c>
       <c r="W8" t="n">
-        <v>672.2420264262247</v>
+        <v>224.5974673148099</v>
       </c>
       <c r="X8" t="n">
-        <v>672.2420264262247</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="Y8" t="n">
-        <v>672.2420264262247</v>
+        <v>35.17768229832527</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.53661367296057</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C9" t="n">
-        <v>30.53661367296057</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D9" t="n">
-        <v>30.53661367296057</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E9" t="n">
-        <v>30.53661367296057</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F9" t="n">
-        <v>30.53661367296057</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G9" t="n">
-        <v>30.53661367296057</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H9" t="n">
-        <v>30.53661367296057</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I9" t="n">
-        <v>30.53661367296057</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J9" t="n">
         <v>15.00204697330558</v>
@@ -4907,28 +4907,28 @@
         <v>750.102348665279</v>
       </c>
       <c r="R9" t="n">
-        <v>676.9378076264272</v>
+        <v>750.102348665279</v>
       </c>
       <c r="S9" t="n">
-        <v>525.6547321810235</v>
+        <v>750.102348665279</v>
       </c>
       <c r="T9" t="n">
-        <v>525.6547321810235</v>
+        <v>750.102348665279</v>
       </c>
       <c r="U9" t="n">
-        <v>409.3761837059299</v>
+        <v>750.102348665279</v>
       </c>
       <c r="V9" t="n">
-        <v>219.9563986894452</v>
+        <v>560.6825636487944</v>
       </c>
       <c r="W9" t="n">
-        <v>30.53661367296057</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="X9" t="n">
-        <v>30.53661367296057</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y9" t="n">
-        <v>30.53661367296057</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.24882464404152</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="C10" t="n">
-        <v>29.24882464404152</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D10" t="n">
-        <v>29.24882464404152</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E10" t="n">
-        <v>29.24882464404152</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F10" t="n">
-        <v>29.24882464404152</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G10" t="n">
-        <v>29.24882464404152</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H10" t="n">
-        <v>29.24882464404152</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I10" t="n">
-        <v>29.24882464404152</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J10" t="n">
-        <v>29.24882464404152</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K10" t="n">
         <v>15.00204697330558</v>
@@ -4980,34 +4980,34 @@
         <v>67.7454270282896</v>
       </c>
       <c r="P10" t="n">
-        <v>49.45491281910382</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.24882464404152</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="R10" t="n">
-        <v>29.24882464404152</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="S10" t="n">
-        <v>29.24882464404152</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="T10" t="n">
-        <v>29.24882464404152</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="U10" t="n">
-        <v>29.24882464404152</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="V10" t="n">
-        <v>29.24882464404152</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="W10" t="n">
-        <v>29.24882464404152</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="X10" t="n">
-        <v>29.24882464404152</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.24882464404152</v>
+        <v>67.7454270282896</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796274</v>
+        <v>1944.904841306683</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392158</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324653</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218345</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794326</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450755</v>
+        <v>2994.542934265602</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180641</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919561</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943749</v>
+        <v>1944.904841306683</v>
       </c>
     </row>
     <row r="12">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218345</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1914.669427940027</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1545.706910999616</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1187.441212392865</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>801.6529597946208</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="G14" t="n">
         <v>406.0926155839474</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609172</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609172</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>2304.808759915839</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>1914.669427940027</v>
       </c>
     </row>
     <row r="15">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>567.6136494308324</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>567.6136494308324</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>417.4970100184967</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>417.4970100184967</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>270.6070625205863</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>270.6070625205863</v>
       </c>
       <c r="H16" t="n">
         <v>163.8377936138381</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>1645.778206672848</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U16" t="n">
-        <v>1645.778206672848</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1645.778206672848</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W16" t="n">
-        <v>1645.778206672848</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>749.2621142610722</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2107.513093752763</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218345</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136267</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136267</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V17" t="n">
-        <v>2884.252265792697</v>
+        <v>2788.565186649824</v>
       </c>
       <c r="W17" t="n">
-        <v>2884.252265792697</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X17" t="n">
-        <v>2884.252265792697</v>
+        <v>2062.33077311863</v>
       </c>
       <c r="Y17" t="n">
-        <v>2494.112933816885</v>
+        <v>1909.821958247536</v>
       </c>
     </row>
     <row r="18">
@@ -5606,13 +5606,13 @@
         <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.60866391532</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484846</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046023</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676417</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696244</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.8553933260943</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1601.11348746897</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218345</v>
@@ -5770,7 +5770,7 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.58875505237</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794326</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450755</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180641</v>
+        <v>2411.73791861822</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.509627919561</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y20" t="n">
-        <v>1601.11348746897</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="21">
@@ -5843,13 +5843,13 @@
         <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1633.75957288077</v>
+        <v>363.7915515140961</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.823389952863</v>
+        <v>363.7915515140961</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.823389952863</v>
+        <v>213.6749121017604</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.823389952863</v>
+        <v>213.6749121017604</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.823389952863</v>
+        <v>213.6749121017604</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952863</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952863</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952863</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348675</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797171</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.65004939672</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102585</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022998</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456658</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609172</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3235.7753643667</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>3044.089480193526</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T22" t="n">
-        <v>2822.322864763053</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U22" t="n">
-        <v>2533.219997888696</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V22" t="n">
-        <v>2278.535509682809</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W22" t="n">
-        <v>1989.118339645849</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="X22" t="n">
-        <v>1761.128788747831</v>
+        <v>584.5841306576262</v>
       </c>
       <c r="Y22" t="n">
-        <v>1633.75957288077</v>
+        <v>363.7915515140961</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1902.872097608426</v>
+        <v>1995.050839348631</v>
       </c>
       <c r="C23" t="n">
-        <v>1902.872097608426</v>
+        <v>1666.373198566506</v>
       </c>
       <c r="D23" t="n">
-        <v>1597.55116531418</v>
+        <v>1308.107499959755</v>
       </c>
       <c r="E23" t="n">
-        <v>1211.762912715935</v>
+        <v>922.3192473615109</v>
       </c>
       <c r="F23" t="n">
-        <v>800.777007926328</v>
+        <v>511.3333425719033</v>
       </c>
       <c r="G23" t="n">
-        <v>386.4993762785192</v>
+        <v>97.05571092409458</v>
       </c>
       <c r="H23" t="n">
-        <v>97.0557109240946</v>
+        <v>97.05571092409458</v>
       </c>
       <c r="I23" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J23" t="n">
         <v>340.696972273463</v>
@@ -6001,40 +6001,40 @@
         <v>2017.892557053756</v>
       </c>
       <c r="N23" t="n">
-        <v>2703.670580477193</v>
+        <v>2703.670580477194</v>
       </c>
       <c r="O23" t="n">
-        <v>3337.896060373233</v>
+        <v>3337.896060373234</v>
       </c>
       <c r="P23" t="n">
-        <v>3844.691833280481</v>
+        <v>3844.691833280482</v>
       </c>
       <c r="Q23" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109322</v>
       </c>
       <c r="R23" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="S23" t="n">
-        <v>4192.873891369245</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="T23" t="n">
-        <v>3990.375461768712</v>
+        <v>4082.554203508918</v>
       </c>
       <c r="U23" t="n">
-        <v>3736.908570523124</v>
+        <v>3829.08731226333</v>
       </c>
       <c r="V23" t="n">
-        <v>3405.845683179553</v>
+        <v>3498.024424919759</v>
       </c>
       <c r="W23" t="n">
-        <v>3053.077027909439</v>
+        <v>3145.255769649645</v>
       </c>
       <c r="X23" t="n">
-        <v>2679.611269648359</v>
+        <v>2771.790011388565</v>
       </c>
       <c r="Y23" t="n">
-        <v>2289.471937672547</v>
+        <v>2381.650679412753</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>90.06653139491659</v>
       </c>
       <c r="I24" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J24" t="n">
         <v>218.7570285287381</v>
       </c>
       <c r="K24" t="n">
-        <v>405.0929887427641</v>
+        <v>218.7570285287381</v>
       </c>
       <c r="L24" t="n">
-        <v>862.2903301120424</v>
+        <v>675.9543698980165</v>
       </c>
       <c r="M24" t="n">
-        <v>862.2903301120424</v>
+        <v>1228.838970842795</v>
       </c>
       <c r="N24" t="n">
-        <v>1444.216786200102</v>
+        <v>1810.765426930855</v>
       </c>
       <c r="O24" t="n">
-        <v>1954.346009760729</v>
+        <v>2320.894650491482</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.436619211639</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.282664596279</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1096.55445254542</v>
+        <v>609.040018775625</v>
       </c>
       <c r="C25" t="n">
-        <v>927.6182696175127</v>
+        <v>609.040018775625</v>
       </c>
       <c r="D25" t="n">
-        <v>777.501630205177</v>
+        <v>458.9233793632892</v>
       </c>
       <c r="E25" t="n">
-        <v>629.5885366227839</v>
+        <v>458.9233793632892</v>
       </c>
       <c r="F25" t="n">
-        <v>482.6985891248735</v>
+        <v>396.0946878599862</v>
       </c>
       <c r="G25" t="n">
-        <v>315.3522807193157</v>
+        <v>228.7483794544284</v>
       </c>
       <c r="H25" t="n">
-        <v>172.3049539270763</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="I25" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J25" t="n">
         <v>155.528619995381</v>
       </c>
       <c r="K25" t="n">
-        <v>400.1136000184964</v>
+        <v>400.1136000184965</v>
       </c>
       <c r="L25" t="n">
-        <v>768.6246013896925</v>
+        <v>768.6246013896928</v>
       </c>
       <c r="M25" t="n">
         <v>1167.556906375087</v>
       </c>
       <c r="N25" t="n">
-        <v>1562.438109227326</v>
+        <v>1562.438109227327</v>
       </c>
       <c r="O25" t="n">
         <v>1911.158517921626</v>
@@ -6168,31 +6168,31 @@
         <v>2186.028388642897</v>
       </c>
       <c r="Q25" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="R25" t="n">
-        <v>2219.099307335915</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="S25" t="n">
-        <v>2033.626737682827</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="T25" t="n">
-        <v>1813.383470100262</v>
+        <v>2072.655691770813</v>
       </c>
       <c r="U25" t="n">
-        <v>1753.679984725076</v>
+        <v>1783.57227189026</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.995496519189</v>
+        <v>1528.887783684373</v>
       </c>
       <c r="W25" t="n">
-        <v>1498.995496519189</v>
+        <v>1239.470613647412</v>
       </c>
       <c r="X25" t="n">
-        <v>1498.995496519189</v>
+        <v>1011.481062749395</v>
       </c>
       <c r="Y25" t="n">
-        <v>1278.202917375659</v>
+        <v>790.6884836058647</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2324.779380861342</v>
+        <v>2233.934984951997</v>
       </c>
       <c r="C26" t="n">
-        <v>1955.81686392093</v>
+        <v>1864.972468011586</v>
       </c>
       <c r="D26" t="n">
-        <v>1597.55116531418</v>
+        <v>1506.706769404835</v>
       </c>
       <c r="E26" t="n">
-        <v>1211.762912715935</v>
+        <v>1200.40825445403</v>
       </c>
       <c r="F26" t="n">
-        <v>800.777007926328</v>
+        <v>789.4223496644223</v>
       </c>
       <c r="G26" t="n">
-        <v>386.4993762785192</v>
+        <v>375.1447180166136</v>
       </c>
       <c r="H26" t="n">
-        <v>97.0557109240946</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="I26" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J26" t="n">
         <v>340.6969722734621</v>
@@ -6235,43 +6235,43 @@
         <v>1347.574784366879</v>
       </c>
       <c r="M26" t="n">
-        <v>2017.892557053754</v>
+        <v>2017.892557053755</v>
       </c>
       <c r="N26" t="n">
-        <v>2703.670580477192</v>
+        <v>2703.670580477193</v>
       </c>
       <c r="O26" t="n">
-        <v>3337.896060373232</v>
+        <v>3337.896060373233</v>
       </c>
       <c r="P26" t="n">
-        <v>3844.69183328048</v>
+        <v>3844.691833280481</v>
       </c>
       <c r="Q26" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109322</v>
       </c>
       <c r="R26" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="S26" t="n">
-        <v>4192.873891369245</v>
+        <v>4192.873891369246</v>
       </c>
       <c r="T26" t="n">
-        <v>3990.375461768712</v>
+        <v>3990.375461768713</v>
       </c>
       <c r="U26" t="n">
-        <v>3736.908570523124</v>
+        <v>3736.908570523125</v>
       </c>
       <c r="V26" t="n">
-        <v>3405.845683179553</v>
+        <v>3736.908570523125</v>
       </c>
       <c r="W26" t="n">
-        <v>3053.077027909439</v>
+        <v>3384.139915253011</v>
       </c>
       <c r="X26" t="n">
-        <v>2711.379220925464</v>
+        <v>3010.674156991931</v>
       </c>
       <c r="Y26" t="n">
-        <v>2711.379220925464</v>
+        <v>2620.534825016119</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>90.06653139491659</v>
       </c>
       <c r="I27" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J27" t="n">
         <v>218.7570285287381</v>
       </c>
       <c r="K27" t="n">
-        <v>524.3257088536226</v>
+        <v>453.1450426335339</v>
       </c>
       <c r="L27" t="n">
-        <v>981.5230502229009</v>
+        <v>910.3423840028123</v>
       </c>
       <c r="M27" t="n">
-        <v>1534.40765116768</v>
+        <v>1463.226984947591</v>
       </c>
       <c r="N27" t="n">
-        <v>1534.40765116768</v>
+        <v>2045.153441035651</v>
       </c>
       <c r="O27" t="n">
-        <v>2044.536874728308</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="P27" t="n">
-        <v>2434.627484179217</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="Q27" t="n">
         <v>2555.282664596279</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1096.55445254542</v>
+        <v>718.9901309058998</v>
       </c>
       <c r="C28" t="n">
-        <v>927.6182696175127</v>
+        <v>550.0539479779929</v>
       </c>
       <c r="D28" t="n">
-        <v>777.501630205177</v>
+        <v>399.9373085656572</v>
       </c>
       <c r="E28" t="n">
-        <v>629.5885366227839</v>
+        <v>399.9373085656572</v>
       </c>
       <c r="F28" t="n">
-        <v>482.6985891248735</v>
+        <v>253.0473610677468</v>
       </c>
       <c r="G28" t="n">
-        <v>315.3522807193157</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="H28" t="n">
-        <v>172.3049539270763</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="I28" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J28" t="n">
         <v>155.528619995381</v>
       </c>
       <c r="K28" t="n">
-        <v>400.1136000184964</v>
+        <v>400.1136000184965</v>
       </c>
       <c r="L28" t="n">
-        <v>768.6246013896925</v>
+        <v>768.6246013896928</v>
       </c>
       <c r="M28" t="n">
         <v>1167.556906375087</v>
       </c>
       <c r="N28" t="n">
-        <v>1562.438109227326</v>
+        <v>1562.438109227327</v>
       </c>
       <c r="O28" t="n">
         <v>1911.158517921626</v>
@@ -6405,31 +6405,31 @@
         <v>2186.028388642897</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="R28" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="S28" t="n">
-        <v>2292.898959353378</v>
+        <v>2107.426389700291</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.898959353378</v>
+        <v>1887.183122117725</v>
       </c>
       <c r="U28" t="n">
-        <v>2271.086705660054</v>
+        <v>1887.183122117725</v>
       </c>
       <c r="V28" t="n">
-        <v>2016.402217454167</v>
+        <v>1632.498633911838</v>
       </c>
       <c r="W28" t="n">
-        <v>1726.985047417207</v>
+        <v>1349.420725777687</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.995496519189</v>
+        <v>1121.43117487967</v>
       </c>
       <c r="Y28" t="n">
-        <v>1278.202917375659</v>
+        <v>900.6385957361396</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1902.872097608425</v>
+        <v>2324.779380861342</v>
       </c>
       <c r="C29" t="n">
-        <v>1533.909580668013</v>
+        <v>1955.81686392093</v>
       </c>
       <c r="D29" t="n">
-        <v>1175.643882061263</v>
+        <v>1597.55116531418</v>
       </c>
       <c r="E29" t="n">
-        <v>1175.643882061263</v>
+        <v>1211.762912715935</v>
       </c>
       <c r="F29" t="n">
-        <v>764.6579772716552</v>
+        <v>800.7770079263279</v>
       </c>
       <c r="G29" t="n">
-        <v>350.3803456238465</v>
+        <v>386.4993762785192</v>
       </c>
       <c r="H29" t="n">
-        <v>97.05571092409458</v>
+        <v>97.05571092409457</v>
       </c>
       <c r="I29" t="n">
-        <v>85.70105266218899</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J29" t="n">
-        <v>340.6969722734622</v>
+        <v>340.6969722734623</v>
       </c>
       <c r="K29" t="n">
-        <v>773.6082731436599</v>
+        <v>773.6082731436601</v>
       </c>
       <c r="L29" t="n">
-        <v>1347.574784366878</v>
+        <v>1347.574784366879</v>
       </c>
       <c r="M29" t="n">
         <v>2017.892557053754</v>
@@ -6478,37 +6478,37 @@
         <v>2703.670580477192</v>
       </c>
       <c r="O29" t="n">
-        <v>3337.896060373232</v>
+        <v>3337.896060373233</v>
       </c>
       <c r="P29" t="n">
-        <v>3844.69183328048</v>
+        <v>3844.691833280481</v>
       </c>
       <c r="Q29" t="n">
         <v>4177.101606109321</v>
       </c>
       <c r="R29" t="n">
-        <v>4285.052633109449</v>
+        <v>4285.05263310945</v>
       </c>
       <c r="S29" t="n">
-        <v>4192.873891369244</v>
+        <v>4285.05263310945</v>
       </c>
       <c r="T29" t="n">
-        <v>3990.375461768711</v>
+        <v>4082.554203508917</v>
       </c>
       <c r="U29" t="n">
-        <v>3736.908570523123</v>
+        <v>3829.087312263329</v>
       </c>
       <c r="V29" t="n">
-        <v>3405.845683179552</v>
+        <v>3827.75296643247</v>
       </c>
       <c r="W29" t="n">
-        <v>3053.077027909438</v>
+        <v>3474.984311162355</v>
       </c>
       <c r="X29" t="n">
-        <v>2679.611269648358</v>
+        <v>3101.518552901276</v>
       </c>
       <c r="Y29" t="n">
-        <v>2289.471937672547</v>
+        <v>2711.379220925464</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>90.06653139491658</v>
       </c>
       <c r="I30" t="n">
-        <v>85.70105266218899</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J30" t="n">
         <v>218.7570285287381</v>
       </c>
       <c r="K30" t="n">
-        <v>218.7570285287381</v>
+        <v>524.3257088536227</v>
       </c>
       <c r="L30" t="n">
-        <v>675.9543698980165</v>
+        <v>981.5230502229011</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.838970842795</v>
+        <v>1463.226984947591</v>
       </c>
       <c r="N30" t="n">
-        <v>1810.765426930855</v>
+        <v>2045.153441035651</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.894650491482</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="P30" t="n">
         <v>2555.282664596279</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3088.70812630149</v>
+        <v>699.5569160827351</v>
       </c>
       <c r="C31" t="n">
-        <v>2919.771943373583</v>
+        <v>530.6207331548283</v>
       </c>
       <c r="D31" t="n">
-        <v>2769.655303961248</v>
+        <v>380.5040937424925</v>
       </c>
       <c r="E31" t="n">
-        <v>2621.742210378854</v>
+        <v>232.5910001600994</v>
       </c>
       <c r="F31" t="n">
-        <v>2474.852262880944</v>
+        <v>85.701052662189</v>
       </c>
       <c r="G31" t="n">
-        <v>2307.505954475386</v>
+        <v>85.701052662189</v>
       </c>
       <c r="H31" t="n">
-        <v>2164.458627683147</v>
+        <v>85.701052662189</v>
       </c>
       <c r="I31" t="n">
-        <v>2077.85472641826</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J31" t="n">
-        <v>2147.682293751452</v>
+        <v>155.528619995381</v>
       </c>
       <c r="K31" t="n">
-        <v>2392.267273774567</v>
+        <v>400.1136000184965</v>
       </c>
       <c r="L31" t="n">
-        <v>2760.778275145763</v>
+        <v>768.6246013896927</v>
       </c>
       <c r="M31" t="n">
-        <v>3159.710580131157</v>
+        <v>1167.556906375087</v>
       </c>
       <c r="N31" t="n">
-        <v>3554.591782983397</v>
+        <v>1562.438109227326</v>
       </c>
       <c r="O31" t="n">
-        <v>3903.312191677696</v>
+        <v>1911.158517921626</v>
       </c>
       <c r="P31" t="n">
-        <v>4178.182062398967</v>
+        <v>2186.028388642897</v>
       </c>
       <c r="Q31" t="n">
-        <v>4285.052633109449</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="R31" t="n">
-        <v>4211.252981091986</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="S31" t="n">
-        <v>4211.252981091986</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="T31" t="n">
-        <v>4211.252981091986</v>
+        <v>2163.172589077923</v>
       </c>
       <c r="U31" t="n">
-        <v>4211.252981091986</v>
+        <v>1874.08916919737</v>
       </c>
       <c r="V31" t="n">
-        <v>4008.555891210238</v>
+        <v>1619.404680991483</v>
       </c>
       <c r="W31" t="n">
-        <v>3719.138721173277</v>
+        <v>1329.987510954522</v>
       </c>
       <c r="X31" t="n">
-        <v>3491.14917027526</v>
+        <v>1101.997960056505</v>
       </c>
       <c r="Y31" t="n">
-        <v>3270.35659113173</v>
+        <v>881.2053809129749</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2324.779380861342</v>
+        <v>2313.424722599436</v>
       </c>
       <c r="C32" t="n">
-        <v>1955.81686392093</v>
+        <v>1944.462205659025</v>
       </c>
       <c r="D32" t="n">
-        <v>1597.55116531418</v>
+        <v>1586.196507052274</v>
       </c>
       <c r="E32" t="n">
-        <v>1211.762912715935</v>
+        <v>1200.40825445403</v>
       </c>
       <c r="F32" t="n">
-        <v>800.7770079263279</v>
+        <v>789.4223496644223</v>
       </c>
       <c r="G32" t="n">
-        <v>386.4993762785192</v>
+        <v>375.1447180166136</v>
       </c>
       <c r="H32" t="n">
-        <v>97.05571092409458</v>
+        <v>85.701052662189</v>
       </c>
       <c r="I32" t="n">
-        <v>85.70105266218899</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J32" t="n">
-        <v>340.6969722734622</v>
+        <v>340.6969722734623</v>
       </c>
       <c r="K32" t="n">
-        <v>773.6082731436599</v>
+        <v>773.6082731436601</v>
       </c>
       <c r="L32" t="n">
-        <v>1347.574784366878</v>
+        <v>1347.574784366879</v>
       </c>
       <c r="M32" t="n">
         <v>2017.892557053754</v>
@@ -6715,37 +6715,37 @@
         <v>2703.670580477192</v>
       </c>
       <c r="O32" t="n">
-        <v>3337.896060373232</v>
+        <v>3337.896060373233</v>
       </c>
       <c r="P32" t="n">
-        <v>3844.69183328048</v>
+        <v>3844.691833280481</v>
       </c>
       <c r="Q32" t="n">
         <v>4177.101606109321</v>
       </c>
       <c r="R32" t="n">
-        <v>4285.052633109449</v>
+        <v>4285.05263310945</v>
       </c>
       <c r="S32" t="n">
-        <v>4192.873891369244</v>
+        <v>4192.873891369245</v>
       </c>
       <c r="T32" t="n">
-        <v>4192.873891369244</v>
+        <v>3990.375461768712</v>
       </c>
       <c r="U32" t="n">
-        <v>4158.81585377604</v>
+        <v>3990.375461768712</v>
       </c>
       <c r="V32" t="n">
-        <v>3827.75296643247</v>
+        <v>3816.398308170564</v>
       </c>
       <c r="W32" t="n">
-        <v>3474.984311162355</v>
+        <v>3463.62965290045</v>
       </c>
       <c r="X32" t="n">
-        <v>3101.518552901276</v>
+        <v>3090.16389463937</v>
       </c>
       <c r="Y32" t="n">
-        <v>2711.379220925464</v>
+        <v>2700.024562663558</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>90.06653139491658</v>
       </c>
       <c r="I33" t="n">
-        <v>85.70105266218899</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J33" t="n">
         <v>218.7570285287381</v>
       </c>
       <c r="K33" t="n">
-        <v>218.7570285287381</v>
+        <v>524.3257088536227</v>
       </c>
       <c r="L33" t="n">
-        <v>675.9543698980165</v>
+        <v>981.5230502229011</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.838970842795</v>
+        <v>1534.40765116768</v>
       </c>
       <c r="N33" t="n">
-        <v>1810.765426930855</v>
+        <v>2045.153441035651</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.894650491482</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="P33" t="n">
         <v>2555.282664596279</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3088.70812630149</v>
+        <v>678.2519373284238</v>
       </c>
       <c r="C34" t="n">
-        <v>2919.771943373583</v>
+        <v>673.6680599470676</v>
       </c>
       <c r="D34" t="n">
-        <v>2769.655303961248</v>
+        <v>523.5514205347318</v>
       </c>
       <c r="E34" t="n">
-        <v>2621.742210378854</v>
+        <v>375.6383269523387</v>
       </c>
       <c r="F34" t="n">
-        <v>2474.852262880944</v>
+        <v>228.7483794544284</v>
       </c>
       <c r="G34" t="n">
-        <v>2307.505954475386</v>
+        <v>228.7483794544284</v>
       </c>
       <c r="H34" t="n">
-        <v>2164.458627683147</v>
+        <v>85.701052662189</v>
       </c>
       <c r="I34" t="n">
-        <v>2077.85472641826</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J34" t="n">
-        <v>2147.682293751452</v>
+        <v>155.528619995381</v>
       </c>
       <c r="K34" t="n">
-        <v>2392.267273774567</v>
+        <v>400.1136000184965</v>
       </c>
       <c r="L34" t="n">
-        <v>2760.778275145763</v>
+        <v>768.6246013896927</v>
       </c>
       <c r="M34" t="n">
-        <v>3159.710580131157</v>
+        <v>1167.556906375087</v>
       </c>
       <c r="N34" t="n">
-        <v>3554.591782983397</v>
+        <v>1562.438109227326</v>
       </c>
       <c r="O34" t="n">
-        <v>3903.312191677696</v>
+        <v>1911.158517921626</v>
       </c>
       <c r="P34" t="n">
-        <v>4178.182062398967</v>
+        <v>2186.028388642897</v>
       </c>
       <c r="Q34" t="n">
-        <v>4285.052633109449</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="R34" t="n">
-        <v>4285.052633109449</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="S34" t="n">
-        <v>4285.052633109449</v>
+        <v>2107.426389700291</v>
       </c>
       <c r="T34" t="n">
-        <v>4285.052633109449</v>
+        <v>1887.183122117725</v>
       </c>
       <c r="U34" t="n">
-        <v>4263.240379416125</v>
+        <v>1598.099702237172</v>
       </c>
       <c r="V34" t="n">
-        <v>4008.555891210238</v>
+        <v>1598.099702237172</v>
       </c>
       <c r="W34" t="n">
-        <v>3719.138721173277</v>
+        <v>1308.682532200211</v>
       </c>
       <c r="X34" t="n">
-        <v>3491.14917027526</v>
+        <v>1080.692981302194</v>
       </c>
       <c r="Y34" t="n">
-        <v>3270.35659113173</v>
+        <v>859.9004021586635</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1902.872097608426</v>
+        <v>2324.779380861342</v>
       </c>
       <c r="C35" t="n">
-        <v>1533.909580668014</v>
+        <v>1955.81686392093</v>
       </c>
       <c r="D35" t="n">
-        <v>1175.643882061264</v>
+        <v>1597.55116531418</v>
       </c>
       <c r="E35" t="n">
-        <v>789.8556294630193</v>
+        <v>1211.762912715935</v>
       </c>
       <c r="F35" t="n">
-        <v>378.8697246734118</v>
+        <v>800.7770079263279</v>
       </c>
       <c r="G35" t="n">
-        <v>97.0557109240946</v>
+        <v>386.4993762785192</v>
       </c>
       <c r="H35" t="n">
-        <v>97.0557109240946</v>
+        <v>97.05571092409458</v>
       </c>
       <c r="I35" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J35" t="n">
         <v>340.6969722734621</v>
@@ -6946,43 +6946,43 @@
         <v>1347.574784366879</v>
       </c>
       <c r="M35" t="n">
-        <v>2017.892557053754</v>
+        <v>2017.892557053755</v>
       </c>
       <c r="N35" t="n">
-        <v>2703.670580477192</v>
+        <v>2703.670580477193</v>
       </c>
       <c r="O35" t="n">
-        <v>3337.896060373232</v>
+        <v>3337.896060373233</v>
       </c>
       <c r="P35" t="n">
-        <v>3844.69183328048</v>
+        <v>3844.691833280481</v>
       </c>
       <c r="Q35" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109322</v>
       </c>
       <c r="R35" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="S35" t="n">
-        <v>4192.873891369245</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="T35" t="n">
-        <v>3990.375461768712</v>
+        <v>4082.554203508918</v>
       </c>
       <c r="U35" t="n">
-        <v>3736.908570523124</v>
+        <v>3829.08731226333</v>
       </c>
       <c r="V35" t="n">
-        <v>3405.845683179553</v>
+        <v>3827.75296643247</v>
       </c>
       <c r="W35" t="n">
-        <v>3053.077027909439</v>
+        <v>3474.984311162355</v>
       </c>
       <c r="X35" t="n">
-        <v>2679.611269648359</v>
+        <v>3101.518552901276</v>
       </c>
       <c r="Y35" t="n">
-        <v>2289.471937672547</v>
+        <v>2711.379220925464</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>90.06653139491659</v>
       </c>
       <c r="I36" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J36" t="n">
         <v>218.7570285287381</v>
       </c>
       <c r="K36" t="n">
-        <v>218.7570285287381</v>
+        <v>524.3257088536227</v>
       </c>
       <c r="L36" t="n">
-        <v>520.2517745519032</v>
+        <v>981.5230502229011</v>
       </c>
       <c r="M36" t="n">
-        <v>1073.136375496682</v>
+        <v>1534.40765116768</v>
       </c>
       <c r="N36" t="n">
-        <v>1655.062831584741</v>
+        <v>2045.153441035651</v>
       </c>
       <c r="O36" t="n">
-        <v>2165.192055145369</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="P36" t="n">
         <v>2555.282664596279</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>421.9835439956537</v>
+        <v>1009.950551280532</v>
       </c>
       <c r="C37" t="n">
-        <v>253.0473610677468</v>
+        <v>841.0143683526254</v>
       </c>
       <c r="D37" t="n">
-        <v>253.0473610677468</v>
+        <v>690.8977289402897</v>
       </c>
       <c r="E37" t="n">
-        <v>253.0473610677468</v>
+        <v>542.9846353578965</v>
       </c>
       <c r="F37" t="n">
-        <v>253.0473610677468</v>
+        <v>396.0946878599862</v>
       </c>
       <c r="G37" t="n">
-        <v>85.701052662189</v>
+        <v>228.7483794544284</v>
       </c>
       <c r="H37" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="I37" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J37" t="n">
         <v>155.528619995381</v>
       </c>
       <c r="K37" t="n">
-        <v>400.1136000184964</v>
+        <v>400.1136000184965</v>
       </c>
       <c r="L37" t="n">
-        <v>768.6246013896925</v>
+        <v>768.6246013896928</v>
       </c>
       <c r="M37" t="n">
         <v>1167.556906375087</v>
       </c>
       <c r="N37" t="n">
-        <v>1562.438109227326</v>
+        <v>1562.438109227327</v>
       </c>
       <c r="O37" t="n">
         <v>1911.158517921626</v>
@@ -7116,31 +7116,31 @@
         <v>2186.028388642897</v>
       </c>
       <c r="Q37" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="R37" t="n">
-        <v>2219.099307335915</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="S37" t="n">
-        <v>2033.626737682827</v>
+        <v>2107.426389700291</v>
       </c>
       <c r="T37" t="n">
-        <v>1813.383470100262</v>
+        <v>2107.426389700291</v>
       </c>
       <c r="U37" t="n">
-        <v>1524.300050219708</v>
+        <v>1818.342969819737</v>
       </c>
       <c r="V37" t="n">
-        <v>1269.615562013821</v>
+        <v>1563.65848161385</v>
       </c>
       <c r="W37" t="n">
-        <v>1052.414138867441</v>
+        <v>1274.24131157689</v>
       </c>
       <c r="X37" t="n">
-        <v>824.4245879694236</v>
+        <v>1046.251760678872</v>
       </c>
       <c r="Y37" t="n">
-        <v>603.6320088258934</v>
+        <v>1009.950551280532</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2276.337855869504</v>
+        <v>2197.549268949163</v>
       </c>
       <c r="C38" t="n">
-        <v>1907.375338929093</v>
+        <v>1828.586752008751</v>
       </c>
       <c r="D38" t="n">
-        <v>1549.109640322342</v>
+        <v>1470.321053402001</v>
       </c>
       <c r="E38" t="n">
-        <v>1163.321387724098</v>
+        <v>1084.532800803757</v>
       </c>
       <c r="F38" t="n">
-        <v>752.3354829344905</v>
+        <v>673.5468960141491</v>
       </c>
       <c r="G38" t="n">
-        <v>338.0578512866818</v>
+        <v>259.2692643663403</v>
       </c>
       <c r="H38" t="n">
-        <v>85.70105266218899</v>
+        <v>97.05571092409457</v>
       </c>
       <c r="I38" t="n">
-        <v>85.70105266218899</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J38" t="n">
-        <v>340.6969722734622</v>
+        <v>340.6969722734623</v>
       </c>
       <c r="K38" t="n">
-        <v>773.6082731436599</v>
+        <v>773.6082731436601</v>
       </c>
       <c r="L38" t="n">
-        <v>1347.574784366878</v>
+        <v>1347.574784366879</v>
       </c>
       <c r="M38" t="n">
         <v>2017.892557053754</v>
@@ -7189,37 +7189,37 @@
         <v>2703.670580477192</v>
       </c>
       <c r="O38" t="n">
-        <v>3337.896060373232</v>
+        <v>3337.896060373233</v>
       </c>
       <c r="P38" t="n">
-        <v>3844.69183328048</v>
+        <v>3844.691833280481</v>
       </c>
       <c r="Q38" t="n">
         <v>4177.101606109321</v>
       </c>
       <c r="R38" t="n">
-        <v>4285.052633109449</v>
+        <v>4285.05263310945</v>
       </c>
       <c r="S38" t="n">
-        <v>4192.873891369244</v>
+        <v>4285.05263310945</v>
       </c>
       <c r="T38" t="n">
-        <v>3990.375461768711</v>
+        <v>4285.05263310945</v>
       </c>
       <c r="U38" t="n">
-        <v>3736.908570523123</v>
+        <v>4031.585741863862</v>
       </c>
       <c r="V38" t="n">
-        <v>3405.845683179552</v>
+        <v>3700.522854520291</v>
       </c>
       <c r="W38" t="n">
-        <v>3053.077027909438</v>
+        <v>3347.754199250176</v>
       </c>
       <c r="X38" t="n">
-        <v>3053.077027909438</v>
+        <v>2974.288440989097</v>
       </c>
       <c r="Y38" t="n">
-        <v>2662.937695933626</v>
+        <v>2584.149109013285</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>90.06653139491658</v>
       </c>
       <c r="I39" t="n">
-        <v>85.70105266218899</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J39" t="n">
-        <v>218.7570285287381</v>
+        <v>85.701052662189</v>
       </c>
       <c r="K39" t="n">
-        <v>218.7570285287381</v>
+        <v>85.701052662189</v>
       </c>
       <c r="L39" t="n">
-        <v>675.9543698980165</v>
+        <v>542.8983940314674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.838970842795</v>
+        <v>1095.782994976246</v>
       </c>
       <c r="N39" t="n">
-        <v>1810.765426930855</v>
+        <v>1677.709451064306</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.894650491482</v>
+        <v>2187.838674624933</v>
       </c>
       <c r="P39" t="n">
-        <v>2555.282664596279</v>
+        <v>2529.545821827122</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.282664596279</v>
+        <v>2529.545821827122</v>
       </c>
       <c r="R39" t="n">
         <v>2555.282664596279</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>570.5603762486036</v>
+        <v>779.7051760351196</v>
       </c>
       <c r="C40" t="n">
-        <v>401.6241933206967</v>
+        <v>779.7051760351196</v>
       </c>
       <c r="D40" t="n">
-        <v>251.507553908361</v>
+        <v>629.5885366227839</v>
       </c>
       <c r="E40" t="n">
-        <v>251.507553908361</v>
+        <v>629.5885366227839</v>
       </c>
       <c r="F40" t="n">
-        <v>251.507553908361</v>
+        <v>482.6985891248735</v>
       </c>
       <c r="G40" t="n">
-        <v>251.507553908361</v>
+        <v>315.3522807193157</v>
       </c>
       <c r="H40" t="n">
         <v>172.3049539270763</v>
       </c>
       <c r="I40" t="n">
-        <v>85.70105266218899</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J40" t="n">
         <v>155.528619995381</v>
       </c>
       <c r="K40" t="n">
-        <v>400.1136000184964</v>
+        <v>400.1136000184965</v>
       </c>
       <c r="L40" t="n">
-        <v>768.6246013896925</v>
+        <v>768.6246013896927</v>
       </c>
       <c r="M40" t="n">
         <v>1167.556906375087</v>
@@ -7353,31 +7353,31 @@
         <v>2186.028388642897</v>
       </c>
       <c r="Q40" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="R40" t="n">
-        <v>2219.099307335915</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="S40" t="n">
-        <v>2033.626737682827</v>
+        <v>2107.426389700291</v>
       </c>
       <c r="T40" t="n">
-        <v>1813.383470100262</v>
+        <v>1887.183122117725</v>
       </c>
       <c r="U40" t="n">
-        <v>1524.300050219708</v>
+        <v>1887.183122117725</v>
       </c>
       <c r="V40" t="n">
-        <v>1269.615562013821</v>
+        <v>1632.498633911838</v>
       </c>
       <c r="W40" t="n">
-        <v>980.1983919768606</v>
+        <v>1343.081463874877</v>
       </c>
       <c r="X40" t="n">
-        <v>752.2088410788433</v>
+        <v>1115.09191297686</v>
       </c>
       <c r="Y40" t="n">
-        <v>752.2088410788433</v>
+        <v>894.2993338333298</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2233.934984951996</v>
+        <v>2035.335715506917</v>
       </c>
       <c r="C41" t="n">
-        <v>1955.81686392093</v>
+        <v>1666.373198566506</v>
       </c>
       <c r="D41" t="n">
-        <v>1597.55116531418</v>
+        <v>1308.107499959755</v>
       </c>
       <c r="E41" t="n">
-        <v>1211.762912715935</v>
+        <v>922.3192473615109</v>
       </c>
       <c r="F41" t="n">
-        <v>800.777007926328</v>
+        <v>511.3333425719033</v>
       </c>
       <c r="G41" t="n">
-        <v>386.4993762785192</v>
+        <v>97.05571092409458</v>
       </c>
       <c r="H41" t="n">
-        <v>97.0557109240946</v>
+        <v>97.05571092409458</v>
       </c>
       <c r="I41" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J41" t="n">
         <v>340.6969722734621</v>
@@ -7420,43 +7420,43 @@
         <v>1347.574784366879</v>
       </c>
       <c r="M41" t="n">
-        <v>2017.892557053754</v>
+        <v>2017.892557053755</v>
       </c>
       <c r="N41" t="n">
-        <v>2703.670580477192</v>
+        <v>2703.670580477193</v>
       </c>
       <c r="O41" t="n">
-        <v>3337.896060373232</v>
+        <v>3337.896060373233</v>
       </c>
       <c r="P41" t="n">
-        <v>3844.69183328048</v>
+        <v>3844.691833280481</v>
       </c>
       <c r="Q41" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109322</v>
       </c>
       <c r="R41" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="S41" t="n">
-        <v>4192.873891369245</v>
+        <v>4192.873891369246</v>
       </c>
       <c r="T41" t="n">
-        <v>3990.375461768712</v>
+        <v>3990.375461768713</v>
       </c>
       <c r="U41" t="n">
-        <v>3736.908570523124</v>
+        <v>3736.908570523125</v>
       </c>
       <c r="V41" t="n">
-        <v>3736.908570523124</v>
+        <v>3538.309301078045</v>
       </c>
       <c r="W41" t="n">
-        <v>3384.13991525301</v>
+        <v>3185.540645807931</v>
       </c>
       <c r="X41" t="n">
-        <v>3010.67415699193</v>
+        <v>2812.074887546851</v>
       </c>
       <c r="Y41" t="n">
-        <v>2620.534825016118</v>
+        <v>2421.935555571039</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>90.06653139491659</v>
       </c>
       <c r="I42" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J42" t="n">
         <v>218.7570285287381</v>
       </c>
       <c r="K42" t="n">
-        <v>524.3257088536226</v>
+        <v>524.3257088536227</v>
       </c>
       <c r="L42" t="n">
-        <v>981.5230502229009</v>
+        <v>981.5230502229011</v>
       </c>
       <c r="M42" t="n">
-        <v>1073.136375496682</v>
+        <v>981.5230502229011</v>
       </c>
       <c r="N42" t="n">
-        <v>1655.062831584741</v>
+        <v>1418.479943430944</v>
       </c>
       <c r="O42" t="n">
-        <v>2165.192055145369</v>
+        <v>1928.609166991572</v>
       </c>
       <c r="P42" t="n">
-        <v>2555.282664596279</v>
+        <v>2318.699776442482</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.282664596279</v>
+        <v>2529.545821827122</v>
       </c>
       <c r="R42" t="n">
         <v>2555.282664596279</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>423.5674491225359</v>
+        <v>826.0084930963067</v>
       </c>
       <c r="C43" t="n">
-        <v>254.631266194629</v>
+        <v>826.0084930963067</v>
       </c>
       <c r="D43" t="n">
-        <v>253.0473610677468</v>
+        <v>777.501630205177</v>
       </c>
       <c r="E43" t="n">
-        <v>253.0473610677468</v>
+        <v>629.5885366227839</v>
       </c>
       <c r="F43" t="n">
-        <v>253.0473610677468</v>
+        <v>482.6985891248735</v>
       </c>
       <c r="G43" t="n">
-        <v>85.701052662189</v>
+        <v>315.3522807193157</v>
       </c>
       <c r="H43" t="n">
-        <v>85.701052662189</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="I43" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J43" t="n">
         <v>155.528619995381</v>
       </c>
       <c r="K43" t="n">
-        <v>400.1136000184964</v>
+        <v>400.1136000184965</v>
       </c>
       <c r="L43" t="n">
-        <v>768.6246013896925</v>
+        <v>768.6246013896928</v>
       </c>
       <c r="M43" t="n">
         <v>1167.556906375087</v>
       </c>
       <c r="N43" t="n">
-        <v>1562.438109227326</v>
+        <v>1562.438109227327</v>
       </c>
       <c r="O43" t="n">
         <v>1911.158517921626</v>
@@ -7590,31 +7590,31 @@
         <v>2186.028388642897</v>
       </c>
       <c r="Q43" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="R43" t="n">
-        <v>2292.898959353378</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="S43" t="n">
-        <v>2107.42638970029</v>
+        <v>2107.426389700291</v>
       </c>
       <c r="T43" t="n">
-        <v>1887.183122117724</v>
+        <v>1887.183122117725</v>
       </c>
       <c r="U43" t="n">
-        <v>1598.099702237171</v>
+        <v>1598.099702237172</v>
       </c>
       <c r="V43" t="n">
-        <v>1343.415214031284</v>
+        <v>1343.415214031285</v>
       </c>
       <c r="W43" t="n">
-        <v>1053.998043994323</v>
+        <v>1053.998043994324</v>
       </c>
       <c r="X43" t="n">
-        <v>826.0084930963058</v>
+        <v>826.0084930963067</v>
       </c>
       <c r="Y43" t="n">
-        <v>605.2159139527756</v>
+        <v>826.0084930963067</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2233.934984951994</v>
+        <v>2324.779380861342</v>
       </c>
       <c r="C44" t="n">
-        <v>1864.972468011583</v>
+        <v>1955.81686392093</v>
       </c>
       <c r="D44" t="n">
-        <v>1586.196507052274</v>
+        <v>1597.55116531418</v>
       </c>
       <c r="E44" t="n">
-        <v>1200.40825445403</v>
+        <v>1211.762912715935</v>
       </c>
       <c r="F44" t="n">
-        <v>789.4223496644223</v>
+        <v>800.7770079263279</v>
       </c>
       <c r="G44" t="n">
-        <v>375.1447180166136</v>
+        <v>386.4993762785192</v>
       </c>
       <c r="H44" t="n">
-        <v>85.70105266218896</v>
+        <v>97.05571092409457</v>
       </c>
       <c r="I44" t="n">
-        <v>85.70105266218896</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J44" t="n">
-        <v>340.6969722734619</v>
+        <v>340.6969722734623</v>
       </c>
       <c r="K44" t="n">
-        <v>773.6082731436595</v>
+        <v>773.6082731436601</v>
       </c>
       <c r="L44" t="n">
-        <v>1347.574784366878</v>
+        <v>1347.574784366879</v>
       </c>
       <c r="M44" t="n">
-        <v>2017.892557053753</v>
+        <v>2017.892557053754</v>
       </c>
       <c r="N44" t="n">
-        <v>2703.670580477191</v>
+        <v>2703.670580477192</v>
       </c>
       <c r="O44" t="n">
-        <v>3337.896060373232</v>
+        <v>3337.896060373233</v>
       </c>
       <c r="P44" t="n">
-        <v>3844.691833280479</v>
+        <v>3844.691833280481</v>
       </c>
       <c r="Q44" t="n">
-        <v>4177.10160610932</v>
+        <v>4177.101606109321</v>
       </c>
       <c r="R44" t="n">
-        <v>4285.052633109448</v>
+        <v>4285.05263310945</v>
       </c>
       <c r="S44" t="n">
-        <v>4192.873891369243</v>
+        <v>4192.873891369245</v>
       </c>
       <c r="T44" t="n">
-        <v>3990.37546176871</v>
+        <v>4192.873891369245</v>
       </c>
       <c r="U44" t="n">
-        <v>3736.908570523122</v>
+        <v>3939.407000123657</v>
       </c>
       <c r="V44" t="n">
-        <v>3736.908570523122</v>
+        <v>3608.344112780086</v>
       </c>
       <c r="W44" t="n">
-        <v>3384.139915253008</v>
+        <v>3255.575457509972</v>
       </c>
       <c r="X44" t="n">
-        <v>3010.674156991928</v>
+        <v>2882.109699248892</v>
       </c>
       <c r="Y44" t="n">
-        <v>2620.534825016116</v>
+        <v>2711.379220925464</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H45" t="n">
-        <v>90.06653139491657</v>
+        <v>90.06653139491658</v>
       </c>
       <c r="I45" t="n">
-        <v>85.70105266218896</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J45" t="n">
-        <v>218.757028528738</v>
+        <v>218.7570285287381</v>
       </c>
       <c r="K45" t="n">
-        <v>524.3257088536224</v>
+        <v>524.3257088536227</v>
       </c>
       <c r="L45" t="n">
-        <v>981.5230502229006</v>
+        <v>981.5230502229011</v>
       </c>
       <c r="M45" t="n">
-        <v>1534.407651167679</v>
+        <v>1463.226984947591</v>
       </c>
       <c r="N45" t="n">
-        <v>2116.334107255739</v>
+        <v>2045.153441035651</v>
       </c>
       <c r="O45" t="n">
         <v>2555.282664596279</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>638.2477237652292</v>
+        <v>1009.950551280532</v>
       </c>
       <c r="C46" t="n">
-        <v>469.3115408373224</v>
+        <v>841.0143683526254</v>
       </c>
       <c r="D46" t="n">
-        <v>319.1949014249866</v>
+        <v>690.8977289402897</v>
       </c>
       <c r="E46" t="n">
-        <v>319.1949014249866</v>
+        <v>542.9846353578965</v>
       </c>
       <c r="F46" t="n">
-        <v>172.3049539270763</v>
+        <v>396.0946878599862</v>
       </c>
       <c r="G46" t="n">
-        <v>172.3049539270763</v>
+        <v>228.7483794544284</v>
       </c>
       <c r="H46" t="n">
-        <v>172.3049539270763</v>
+        <v>85.701052662189</v>
       </c>
       <c r="I46" t="n">
-        <v>85.70105266218896</v>
+        <v>85.701052662189</v>
       </c>
       <c r="J46" t="n">
-        <v>155.5286199953809</v>
+        <v>155.528619995381</v>
       </c>
       <c r="K46" t="n">
-        <v>400.1136000184963</v>
+        <v>400.1136000184965</v>
       </c>
       <c r="L46" t="n">
-        <v>768.6246013896923</v>
+        <v>768.6246013896927</v>
       </c>
       <c r="M46" t="n">
         <v>1167.556906375087</v>
@@ -7821,37 +7821,37 @@
         <v>1562.438109227326</v>
       </c>
       <c r="O46" t="n">
-        <v>1911.158517921625</v>
+        <v>1911.158517921626</v>
       </c>
       <c r="P46" t="n">
-        <v>2186.028388642896</v>
+        <v>2186.028388642897</v>
       </c>
       <c r="Q46" t="n">
-        <v>2292.898959353377</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="R46" t="n">
-        <v>2219.099307335915</v>
+        <v>2223.077607147493</v>
       </c>
       <c r="S46" t="n">
-        <v>2033.626737682827</v>
+        <v>2223.077607147493</v>
       </c>
       <c r="T46" t="n">
-        <v>1813.383470100261</v>
+        <v>2002.834339564927</v>
       </c>
       <c r="U46" t="n">
-        <v>1524.300050219708</v>
+        <v>2002.834339564927</v>
       </c>
       <c r="V46" t="n">
-        <v>1269.615562013821</v>
+        <v>1748.14985135904</v>
       </c>
       <c r="W46" t="n">
-        <v>1087.029853806777</v>
+        <v>1458.73268132208</v>
       </c>
       <c r="X46" t="n">
-        <v>859.0403029087594</v>
+        <v>1230.743130424062</v>
       </c>
       <c r="Y46" t="n">
-        <v>638.2477237652292</v>
+        <v>1009.950551280532</v>
       </c>
     </row>
   </sheetData>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>296.7574771839087</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>66.0682960226066</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>15.27130497314482</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>168.0688818921482</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>39.05343869664006</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>75.50340795433917</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>235.27780147199</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>235.2542119336712</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14213605696557</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696548</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>227.1771453250271</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>289.8157596099687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>20.33464054614706</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>92.48912964370393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>39.88202739670305</v>
       </c>
       <c r="D23" t="n">
-        <v>52.41531864937951</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.2206434346613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.7378622522384</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>227.0861351603145</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>78.69484027096468</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>31.45027176433365</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.7378622522384</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.06165549728794</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S28" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>218.04083490674</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>264.5984545253573</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>6.275869283781617</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>35.75784034812591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>326.4312560975844</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.7378622522384</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S31" t="n">
         <v>183.6178439565572</v>
       </c>
       <c r="T31" t="n">
-        <v>218.04083490674</v>
+        <v>89.61172833403919</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>51.46752434089743</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>11.24111167928652</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>200.4734453045276</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>217.2147651158601</v>
+        <v>250.9322223331321</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>155.5148764079683</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>162.7087824910852</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.7378622522384</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>73.06165549728794</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S34" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>218.04083490674</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>264.5984545253568</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>131.1389817195067</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>286.5492287008803</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>326.4312560975835</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>85.7378622522384</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.04083490674</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>71.49358942167439</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>182.6464560477381</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>36.71599806263245</v>
+        <v>125.957810793057</v>
       </c>
       <c r="I38" t="n">
-        <v>11.24111167928655</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>91.25695432280241</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>66.38376396170923</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.6728453215022</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>63.20627954284517</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>89.93595195025222</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>131.1389817195056</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>147.047406942599</v>
+        <v>100.593678755994</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>73.06165549728794</v>
+        <v>73.06165549728793</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>78.69484027096746</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>11.24111167928658</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>200.4734453045276</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>217.2147651158598</v>
       </c>
     </row>
     <row r="45">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.6728453215022</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.7378622522384</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.938516813460907</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>105.7631472116174</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>765442.2168613337</v>
+        <v>765442.2168613336</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>765442.2168613337</v>
+        <v>765442.2168613335</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>765442.2168613336</v>
+        <v>765442.2168613335</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>765442.2168613336</v>
+        <v>765442.2168613337</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862303.7502450218</v>
+        <v>862303.7502450219</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862303.7502450217</v>
+        <v>862303.750245022</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862303.7502450218</v>
+        <v>862303.750245022</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862303.7502450217</v>
+        <v>862303.750245022</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862303.7502450215</v>
+        <v>862303.750245022</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862303.7502450218</v>
+        <v>862303.750245022</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862303.7502450215</v>
+        <v>862303.7502450218</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117838</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>443296.2286621969</v>
+        <v>443296.228662197</v>
       </c>
       <c r="F2" t="n">
-        <v>443296.2286621968</v>
+        <v>443296.228662197</v>
       </c>
       <c r="G2" t="n">
-        <v>443296.2286621971</v>
+        <v>443296.2286621972</v>
       </c>
       <c r="H2" t="n">
-        <v>443296.2286621971</v>
+        <v>443296.2286621972</v>
       </c>
       <c r="I2" t="n">
+        <v>500532.5892980128</v>
+      </c>
+      <c r="J2" t="n">
         <v>500532.5892980129</v>
-      </c>
-      <c r="J2" t="n">
-        <v>500532.5892980128</v>
       </c>
       <c r="K2" t="n">
         <v>500532.5892980128</v>
       </c>
       <c r="L2" t="n">
+        <v>500532.589298013</v>
+      </c>
+      <c r="M2" t="n">
+        <v>500532.589298013</v>
+      </c>
+      <c r="N2" t="n">
         <v>500532.5892980129</v>
-      </c>
-      <c r="M2" t="n">
-        <v>500532.5892980129</v>
-      </c>
-      <c r="N2" t="n">
-        <v>500532.5892980128</v>
       </c>
       <c r="O2" t="n">
         <v>500532.589298013</v>
       </c>
       <c r="P2" t="n">
-        <v>500532.5892980128</v>
+        <v>500532.5892980127</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208452</v>
+        <v>591356.9025208451</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>211122.8311070112</v>
+        <v>211122.8311070115</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854457</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.56483413</v>
       </c>
       <c r="C4" t="n">
         <v>278536.5648341299</v>
       </c>
       <c r="D4" t="n">
-        <v>278536.56483413</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="E4" t="n">
         <v>15869.84275221455</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="C5" t="n">
         <v>56985.80041161356</v>
@@ -26490,28 +26490,28 @@
         <v>74306.34056139333</v>
       </c>
       <c r="I5" t="n">
+        <v>93156.93313548899</v>
+      </c>
+      <c r="J5" t="n">
+        <v>93156.93313548899</v>
+      </c>
+      <c r="K5" t="n">
         <v>93156.93313548897</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>93156.93313548897</v>
       </c>
-      <c r="K5" t="n">
-        <v>93156.93313548896</v>
-      </c>
-      <c r="L5" t="n">
-        <v>93156.93313548896</v>
-      </c>
       <c r="M5" t="n">
+        <v>93156.93313548899</v>
+      </c>
+      <c r="N5" t="n">
         <v>93156.93313548897</v>
       </c>
-      <c r="N5" t="n">
-        <v>93156.93313548896</v>
-      </c>
       <c r="O5" t="n">
+        <v>93156.93313548899</v>
+      </c>
+      <c r="P5" t="n">
         <v>93156.93313548897</v>
-      </c>
-      <c r="P5" t="n">
-        <v>93156.93313548894</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393202.1173548046</v>
+        <v>-393202.1173548045</v>
       </c>
       <c r="C6" t="n">
-        <v>198154.7851660405</v>
+        <v>198154.7851660404</v>
       </c>
       <c r="D6" t="n">
         <v>198154.7851660406</v>
       </c>
       <c r="E6" t="n">
-        <v>-274014.5982850789</v>
+        <v>-277490.78758314</v>
       </c>
       <c r="F6" t="n">
-        <v>353120.0453485886</v>
+        <v>349643.8560505277</v>
       </c>
       <c r="G6" t="n">
-        <v>353120.0453485893</v>
+        <v>349643.8560505285</v>
       </c>
       <c r="H6" t="n">
-        <v>353120.0453485892</v>
+        <v>349643.8560505282</v>
       </c>
       <c r="I6" t="n">
-        <v>180258.8450273108</v>
+        <v>178984.0542152423</v>
       </c>
       <c r="J6" t="n">
-        <v>342316.7314057774</v>
+        <v>341041.9405937093</v>
       </c>
       <c r="K6" t="n">
-        <v>391381.676134322</v>
+        <v>390106.8853222537</v>
       </c>
       <c r="L6" t="n">
-        <v>391381.676134322</v>
+        <v>390106.8853222539</v>
       </c>
       <c r="M6" t="n">
-        <v>230925.2342664444</v>
+        <v>229650.4434543763</v>
       </c>
       <c r="N6" t="n">
-        <v>391381.676134322</v>
+        <v>390106.8853222538</v>
       </c>
       <c r="O6" t="n">
-        <v>391381.6761343221</v>
+        <v>390106.8853222539</v>
       </c>
       <c r="P6" t="n">
-        <v>391381.6761343221</v>
+        <v>390106.8853222537</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
         <v>548.4699409129043</v>
@@ -26779,7 +26779,7 @@
         <v>1285.510693221346</v>
       </c>
       <c r="P3" t="n">
-        <v>1285.510693221345</v>
+        <v>1285.510693221346</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663197</v>
+      </c>
+      <c r="C4" t="n">
         <v>187.5255871663198</v>
-      </c>
-      <c r="C4" t="n">
-        <v>187.5255871663197</v>
       </c>
       <c r="D4" t="n">
         <v>187.5255871663198</v>
@@ -26810,10 +26810,10 @@
         <v>831.4014554022931</v>
       </c>
       <c r="I4" t="n">
-        <v>1071.263158277362</v>
+        <v>1071.263158277363</v>
       </c>
       <c r="J4" t="n">
-        <v>1071.263158277362</v>
+        <v>1071.263158277363</v>
       </c>
       <c r="K4" t="n">
         <v>1071.263158277362</v>
@@ -26822,13 +26822,13 @@
         <v>1071.263158277362</v>
       </c>
       <c r="M4" t="n">
-        <v>1071.263158277362</v>
+        <v>1071.263158277363</v>
       </c>
       <c r="N4" t="n">
         <v>1071.263158277362</v>
       </c>
       <c r="O4" t="n">
-        <v>1071.263158277362</v>
+        <v>1071.263158277363</v>
       </c>
       <c r="P4" t="n">
         <v>1071.263158277362</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>195.7339926280472</v>
+        <v>195.7339926280474</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>239.8617028750693</v>
+        <v>239.8617028750696</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046878</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753917</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>277.1926060501027</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666384</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>90.65887400239224</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871061</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121493</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897338</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.108117149489</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,13 +27475,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409152</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846324</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27517,16 +27517,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310549</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715769</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>100.5430043508431</v>
+        <v>18.15710861098464</v>
       </c>
     </row>
     <row r="4">
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825421</v>
+        <v>57.06999962825422</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159729</v>
+        <v>68.6860405515973</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27593,7 +27593,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>266.2610542001386</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>198.5806260587833</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>167.1574544543632</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>194.4047829059421</v>
+        <v>194.404782905942</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753917</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>50.47833219060232</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>54.52289784593395</v>
       </c>
       <c r="U5" t="n">
         <v>251.1692605650303</v>
@@ -27700,10 +27700,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>132.1241054432005</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27715,10 +27715,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409151</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>72.43289562846323</v>
       </c>
       <c r="S6" t="n">
-        <v>51.08798405086068</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
         <v>195.4095977920013</v>
@@ -27797,7 +27797,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825421</v>
+        <v>37.06597233494253</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.6820132582856</v>
+        <v>68.68604055159729</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -27855,19 +27855,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046878</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>293.8395519128313</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753917</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637383</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -27909,16 +27909,16 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871055</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>281.124029529752</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121493</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27955,7 +27955,7 @@
         <v>58.90455890409151</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>72.43289562846323</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>110.7480054197482</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
         <v>45.27499998310549</v>
@@ -27997,7 +27997,7 @@
         <v>64.16939599459982</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>19.60804451093074</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>115.0308748441937</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28037,7 +28037,7 @@
         <v>57.06999962825421</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709392</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.68201325828561</v>
+        <v>68.68604055159729</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043116</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
         <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622678</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244293</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924575</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
         <v>0.17639234280616</v>
@@ -31126,43 +31126,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590849</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
         <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292672</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628871</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550072</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820367</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620012</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
         <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.9254218111419</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784856</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647908</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181393</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970251</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905542</v>
@@ -32563,7 +32563,7 @@
         <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837917</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
         <v>557.7086478970251</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905542</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.167882183804401</v>
+        <v>5.167882183804402</v>
       </c>
       <c r="H23" t="n">
-        <v>52.92557341488683</v>
+        <v>52.92557341488684</v>
       </c>
       <c r="I23" t="n">
         <v>199.2347778911194</v>
       </c>
       <c r="J23" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976693</v>
       </c>
       <c r="K23" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381097</v>
       </c>
       <c r="L23" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207139</v>
       </c>
       <c r="M23" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069453</v>
       </c>
       <c r="N23" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616797</v>
       </c>
       <c r="O23" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964746</v>
       </c>
       <c r="P23" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838033</v>
       </c>
       <c r="Q23" t="n">
-        <v>558.0731371763079</v>
+        <v>558.073137176308</v>
       </c>
       <c r="R23" t="n">
-        <v>324.6269792284035</v>
+        <v>324.6269792284036</v>
       </c>
       <c r="S23" t="n">
         <v>117.7631152634429</v>
@@ -32742,7 +32742,7 @@
         <v>22.62240425960378</v>
       </c>
       <c r="U23" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043521</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>2.765060736362895</v>
       </c>
       <c r="H24" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276797</v>
       </c>
       <c r="I24" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459969</v>
       </c>
       <c r="J24" t="n">
         <v>261.2376022894435</v>
       </c>
       <c r="K24" t="n">
-        <v>326.0595806046883</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>600.3698761124786</v>
+        <v>600.3698761124787</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>700.6033278056334</v>
       </c>
       <c r="N24" t="n">
-        <v>719.1462131823829</v>
+        <v>719.146213182383</v>
       </c>
       <c r="O24" t="n">
-        <v>657.8782884450787</v>
+        <v>657.8782884450789</v>
       </c>
       <c r="P24" t="n">
-        <v>528.0053260516128</v>
+        <v>370.7299772171547</v>
       </c>
       <c r="Q24" t="n">
-        <v>352.9575775048496</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200374</v>
       </c>
       <c r="T24" t="n">
-        <v>11.14513516104166</v>
+        <v>11.14513516104167</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1819118905501905</v>
+        <v>0.1819118905501906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32870,19 +32870,19 @@
         <v>163.8920764128263</v>
       </c>
       <c r="K25" t="n">
-        <v>269.3250272027671</v>
+        <v>269.3250272027672</v>
       </c>
       <c r="L25" t="n">
         <v>344.6433094580638</v>
       </c>
       <c r="M25" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658306</v>
       </c>
       <c r="N25" t="n">
         <v>354.7377294917201</v>
       </c>
       <c r="O25" t="n">
-        <v>327.6577091509096</v>
+        <v>327.6577091509097</v>
       </c>
       <c r="P25" t="n">
         <v>280.3677747969963</v>
@@ -32891,16 +32891,16 @@
         <v>194.1121146764232</v>
       </c>
       <c r="R25" t="n">
-        <v>104.2317358798815</v>
+        <v>104.2317358798816</v>
       </c>
       <c r="S25" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041507</v>
       </c>
       <c r="T25" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541514</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1264436747430833</v>
+        <v>0.1264436747430834</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.167882183804401</v>
+        <v>5.167882183804402</v>
       </c>
       <c r="H26" t="n">
-        <v>52.92557341488683</v>
+        <v>52.92557341488684</v>
       </c>
       <c r="I26" t="n">
         <v>199.2347778911194</v>
       </c>
       <c r="J26" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976693</v>
       </c>
       <c r="K26" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381097</v>
       </c>
       <c r="L26" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207139</v>
       </c>
       <c r="M26" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069453</v>
       </c>
       <c r="N26" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616797</v>
       </c>
       <c r="O26" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964746</v>
       </c>
       <c r="P26" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838033</v>
       </c>
       <c r="Q26" t="n">
-        <v>558.0731371763079</v>
+        <v>558.073137176308</v>
       </c>
       <c r="R26" t="n">
-        <v>324.6269792284035</v>
+        <v>324.6269792284036</v>
       </c>
       <c r="S26" t="n">
         <v>117.7631152634429</v>
@@ -32979,7 +32979,7 @@
         <v>22.62240425960378</v>
       </c>
       <c r="U26" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043521</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>2.765060736362895</v>
       </c>
       <c r="H27" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276797</v>
       </c>
       <c r="I27" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459969</v>
       </c>
       <c r="J27" t="n">
         <v>261.2376022894435</v>
       </c>
       <c r="K27" t="n">
-        <v>446.4966716257575</v>
+        <v>374.597008777183</v>
       </c>
       <c r="L27" t="n">
-        <v>600.3698761124786</v>
+        <v>600.3698761124787</v>
       </c>
       <c r="M27" t="n">
-        <v>700.6033278056333</v>
+        <v>700.6033278056334</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>719.146213182383</v>
       </c>
       <c r="O27" t="n">
-        <v>657.8782884450787</v>
+        <v>657.8782884450789</v>
       </c>
       <c r="P27" t="n">
-        <v>528.0053260516128</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>261.8556936992147</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200374</v>
       </c>
       <c r="T27" t="n">
-        <v>11.14513516104166</v>
+        <v>11.14513516104167</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1819118905501905</v>
+        <v>0.1819118905501906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33107,19 +33107,19 @@
         <v>163.8920764128263</v>
       </c>
       <c r="K28" t="n">
-        <v>269.3250272027671</v>
+        <v>269.3250272027672</v>
       </c>
       <c r="L28" t="n">
         <v>344.6433094580638</v>
       </c>
       <c r="M28" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658306</v>
       </c>
       <c r="N28" t="n">
         <v>354.7377294917201</v>
       </c>
       <c r="O28" t="n">
-        <v>327.6577091509096</v>
+        <v>327.6577091509097</v>
       </c>
       <c r="P28" t="n">
         <v>280.3677747969963</v>
@@ -33128,16 +33128,16 @@
         <v>194.1121146764232</v>
       </c>
       <c r="R28" t="n">
-        <v>104.2317358798815</v>
+        <v>104.2317358798816</v>
       </c>
       <c r="S28" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041507</v>
       </c>
       <c r="T28" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541514</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1264436747430833</v>
+        <v>0.1264436747430834</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.167882183804401</v>
+        <v>5.167882183804402</v>
       </c>
       <c r="H29" t="n">
-        <v>52.92557341488683</v>
+        <v>52.92557341488684</v>
       </c>
       <c r="I29" t="n">
         <v>199.2347778911194</v>
       </c>
       <c r="J29" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976693</v>
       </c>
       <c r="K29" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381097</v>
       </c>
       <c r="L29" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207139</v>
       </c>
       <c r="M29" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069453</v>
       </c>
       <c r="N29" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616797</v>
       </c>
       <c r="O29" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964746</v>
       </c>
       <c r="P29" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838033</v>
       </c>
       <c r="Q29" t="n">
-        <v>558.0731371763079</v>
+        <v>558.073137176308</v>
       </c>
       <c r="R29" t="n">
-        <v>324.6269792284035</v>
+        <v>324.6269792284036</v>
       </c>
       <c r="S29" t="n">
         <v>117.7631152634429</v>
@@ -33216,7 +33216,7 @@
         <v>22.62240425960378</v>
       </c>
       <c r="U29" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043521</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,31 +33256,31 @@
         <v>2.765060736362895</v>
       </c>
       <c r="H30" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276797</v>
       </c>
       <c r="I30" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459969</v>
       </c>
       <c r="J30" t="n">
         <v>261.2376022894435</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>446.4966716257575</v>
       </c>
       <c r="L30" t="n">
-        <v>600.3698761124786</v>
+        <v>600.3698761124787</v>
       </c>
       <c r="M30" t="n">
-        <v>700.6033278056333</v>
+        <v>628.7036649570589</v>
       </c>
       <c r="N30" t="n">
-        <v>719.1462131823829</v>
+        <v>719.146213182383</v>
       </c>
       <c r="O30" t="n">
-        <v>657.8782884450787</v>
+        <v>657.8782884450789</v>
       </c>
       <c r="P30" t="n">
-        <v>370.7299772171547</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200374</v>
       </c>
       <c r="T30" t="n">
-        <v>11.14513516104166</v>
+        <v>11.14513516104167</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1819118905501905</v>
+        <v>0.1819118905501906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33344,19 +33344,19 @@
         <v>163.8920764128263</v>
       </c>
       <c r="K31" t="n">
-        <v>269.3250272027671</v>
+        <v>269.3250272027672</v>
       </c>
       <c r="L31" t="n">
         <v>344.6433094580638</v>
       </c>
       <c r="M31" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658306</v>
       </c>
       <c r="N31" t="n">
         <v>354.7377294917201</v>
       </c>
       <c r="O31" t="n">
-        <v>327.6577091509096</v>
+        <v>327.6577091509097</v>
       </c>
       <c r="P31" t="n">
         <v>280.3677747969963</v>
@@ -33365,16 +33365,16 @@
         <v>194.1121146764232</v>
       </c>
       <c r="R31" t="n">
-        <v>104.2317358798815</v>
+        <v>104.2317358798816</v>
       </c>
       <c r="S31" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041507</v>
       </c>
       <c r="T31" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541514</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1264436747430833</v>
+        <v>0.1264436747430834</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.167882183804401</v>
+        <v>5.167882183804402</v>
       </c>
       <c r="H32" t="n">
-        <v>52.92557341488683</v>
+        <v>52.92557341488684</v>
       </c>
       <c r="I32" t="n">
         <v>199.2347778911194</v>
       </c>
       <c r="J32" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976693</v>
       </c>
       <c r="K32" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381097</v>
       </c>
       <c r="L32" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207139</v>
       </c>
       <c r="M32" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069453</v>
       </c>
       <c r="N32" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616797</v>
       </c>
       <c r="O32" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964746</v>
       </c>
       <c r="P32" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838033</v>
       </c>
       <c r="Q32" t="n">
-        <v>558.0731371763079</v>
+        <v>558.073137176308</v>
       </c>
       <c r="R32" t="n">
-        <v>324.6269792284035</v>
+        <v>324.6269792284036</v>
       </c>
       <c r="S32" t="n">
         <v>117.7631152634429</v>
@@ -33453,7 +33453,7 @@
         <v>22.62240425960378</v>
       </c>
       <c r="U32" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043521</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,31 +33493,31 @@
         <v>2.765060736362895</v>
       </c>
       <c r="H33" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276797</v>
       </c>
       <c r="I33" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459969</v>
       </c>
       <c r="J33" t="n">
         <v>261.2376022894435</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>446.4966716257575</v>
       </c>
       <c r="L33" t="n">
-        <v>600.3698761124786</v>
+        <v>600.3698761124787</v>
       </c>
       <c r="M33" t="n">
-        <v>700.6033278056333</v>
+        <v>700.6033278056334</v>
       </c>
       <c r="N33" t="n">
-        <v>719.1462131823829</v>
+        <v>647.2465503338085</v>
       </c>
       <c r="O33" t="n">
-        <v>657.8782884450787</v>
+        <v>657.8782884450789</v>
       </c>
       <c r="P33" t="n">
-        <v>370.7299772171547</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200374</v>
       </c>
       <c r="T33" t="n">
-        <v>11.14513516104166</v>
+        <v>11.14513516104167</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1819118905501905</v>
+        <v>0.1819118905501906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33581,19 +33581,19 @@
         <v>163.8920764128263</v>
       </c>
       <c r="K34" t="n">
-        <v>269.3250272027671</v>
+        <v>269.3250272027672</v>
       </c>
       <c r="L34" t="n">
         <v>344.6433094580638</v>
       </c>
       <c r="M34" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658306</v>
       </c>
       <c r="N34" t="n">
         <v>354.7377294917201</v>
       </c>
       <c r="O34" t="n">
-        <v>327.6577091509096</v>
+        <v>327.6577091509097</v>
       </c>
       <c r="P34" t="n">
         <v>280.3677747969963</v>
@@ -33602,16 +33602,16 @@
         <v>194.1121146764232</v>
       </c>
       <c r="R34" t="n">
-        <v>104.2317358798815</v>
+        <v>104.2317358798816</v>
       </c>
       <c r="S34" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041507</v>
       </c>
       <c r="T34" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541514</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1264436747430833</v>
+        <v>0.1264436747430834</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.167882183804401</v>
+        <v>5.167882183804402</v>
       </c>
       <c r="H35" t="n">
-        <v>52.92557341488683</v>
+        <v>52.92557341488684</v>
       </c>
       <c r="I35" t="n">
         <v>199.2347778911194</v>
       </c>
       <c r="J35" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976693</v>
       </c>
       <c r="K35" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381097</v>
       </c>
       <c r="L35" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207139</v>
       </c>
       <c r="M35" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069453</v>
       </c>
       <c r="N35" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616797</v>
       </c>
       <c r="O35" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964746</v>
       </c>
       <c r="P35" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838033</v>
       </c>
       <c r="Q35" t="n">
-        <v>558.0731371763079</v>
+        <v>558.073137176308</v>
       </c>
       <c r="R35" t="n">
-        <v>324.6269792284035</v>
+        <v>324.6269792284036</v>
       </c>
       <c r="S35" t="n">
         <v>117.7631152634429</v>
@@ -33690,7 +33690,7 @@
         <v>22.62240425960378</v>
       </c>
       <c r="U35" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043521</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,31 +33730,31 @@
         <v>2.765060736362895</v>
       </c>
       <c r="H36" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276797</v>
       </c>
       <c r="I36" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459969</v>
       </c>
       <c r="J36" t="n">
         <v>261.2376022894435</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>446.4966716257575</v>
       </c>
       <c r="L36" t="n">
-        <v>443.0945272780207</v>
+        <v>600.3698761124787</v>
       </c>
       <c r="M36" t="n">
-        <v>700.6033278056333</v>
+        <v>700.6033278056334</v>
       </c>
       <c r="N36" t="n">
-        <v>719.1462131823829</v>
+        <v>647.2465503338085</v>
       </c>
       <c r="O36" t="n">
-        <v>657.8782884450787</v>
+        <v>657.8782884450789</v>
       </c>
       <c r="P36" t="n">
-        <v>528.0053260516128</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200374</v>
       </c>
       <c r="T36" t="n">
-        <v>11.14513516104166</v>
+        <v>11.14513516104167</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1819118905501905</v>
+        <v>0.1819118905501906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33818,19 +33818,19 @@
         <v>163.8920764128263</v>
       </c>
       <c r="K37" t="n">
-        <v>269.3250272027671</v>
+        <v>269.3250272027672</v>
       </c>
       <c r="L37" t="n">
         <v>344.6433094580638</v>
       </c>
       <c r="M37" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658306</v>
       </c>
       <c r="N37" t="n">
         <v>354.7377294917201</v>
       </c>
       <c r="O37" t="n">
-        <v>327.6577091509096</v>
+        <v>327.6577091509097</v>
       </c>
       <c r="P37" t="n">
         <v>280.3677747969963</v>
@@ -33839,16 +33839,16 @@
         <v>194.1121146764232</v>
       </c>
       <c r="R37" t="n">
-        <v>104.2317358798815</v>
+        <v>104.2317358798816</v>
       </c>
       <c r="S37" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041507</v>
       </c>
       <c r="T37" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541514</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1264436747430833</v>
+        <v>0.1264436747430834</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.167882183804401</v>
+        <v>5.167882183804402</v>
       </c>
       <c r="H38" t="n">
-        <v>52.92557341488683</v>
+        <v>52.92557341488684</v>
       </c>
       <c r="I38" t="n">
         <v>199.2347778911194</v>
       </c>
       <c r="J38" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976693</v>
       </c>
       <c r="K38" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381097</v>
       </c>
       <c r="L38" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207139</v>
       </c>
       <c r="M38" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069453</v>
       </c>
       <c r="N38" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616797</v>
       </c>
       <c r="O38" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964746</v>
       </c>
       <c r="P38" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838033</v>
       </c>
       <c r="Q38" t="n">
-        <v>558.0731371763079</v>
+        <v>558.073137176308</v>
       </c>
       <c r="R38" t="n">
-        <v>324.6269792284035</v>
+        <v>324.6269792284036</v>
       </c>
       <c r="S38" t="n">
         <v>117.7631152634429</v>
@@ -33927,7 +33927,7 @@
         <v>22.62240425960378</v>
       </c>
       <c r="U38" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043521</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>2.765060736362895</v>
       </c>
       <c r="H39" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276797</v>
       </c>
       <c r="I39" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459969</v>
       </c>
       <c r="J39" t="n">
-        <v>261.2376022894435</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>600.3698761124786</v>
+        <v>600.3698761124787</v>
       </c>
       <c r="M39" t="n">
-        <v>700.6033278056333</v>
+        <v>700.6033278056334</v>
       </c>
       <c r="N39" t="n">
-        <v>719.1462131823829</v>
+        <v>719.146213182383</v>
       </c>
       <c r="O39" t="n">
-        <v>657.8782884450787</v>
+        <v>657.8782884450789</v>
       </c>
       <c r="P39" t="n">
-        <v>370.7299772171547</v>
+        <v>479.1331419619954</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>171.6763148418998</v>
       </c>
       <c r="S39" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200374</v>
       </c>
       <c r="T39" t="n">
-        <v>11.14513516104166</v>
+        <v>11.14513516104167</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1819118905501905</v>
+        <v>0.1819118905501906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34055,19 +34055,19 @@
         <v>163.8920764128263</v>
       </c>
       <c r="K40" t="n">
-        <v>269.3250272027671</v>
+        <v>269.3250272027672</v>
       </c>
       <c r="L40" t="n">
         <v>344.6433094580638</v>
       </c>
       <c r="M40" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658306</v>
       </c>
       <c r="N40" t="n">
         <v>354.7377294917201</v>
       </c>
       <c r="O40" t="n">
-        <v>327.6577091509096</v>
+        <v>327.6577091509097</v>
       </c>
       <c r="P40" t="n">
         <v>280.3677747969963</v>
@@ -34076,16 +34076,16 @@
         <v>194.1121146764232</v>
       </c>
       <c r="R40" t="n">
-        <v>104.2317358798815</v>
+        <v>104.2317358798816</v>
       </c>
       <c r="S40" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041507</v>
       </c>
       <c r="T40" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541514</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1264436747430833</v>
+        <v>0.1264436747430834</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.167882183804401</v>
+        <v>5.167882183804402</v>
       </c>
       <c r="H41" t="n">
-        <v>52.92557341488683</v>
+        <v>52.92557341488684</v>
       </c>
       <c r="I41" t="n">
         <v>199.2347778911194</v>
       </c>
       <c r="J41" t="n">
-        <v>438.6175404976692</v>
+        <v>438.6175404976693</v>
       </c>
       <c r="K41" t="n">
-        <v>657.3739933381096</v>
+        <v>657.3739933381097</v>
       </c>
       <c r="L41" t="n">
-        <v>815.5305677207137</v>
+        <v>815.5305677207139</v>
       </c>
       <c r="M41" t="n">
-        <v>907.4348925069452</v>
+        <v>907.4348925069453</v>
       </c>
       <c r="N41" t="n">
-        <v>922.1181377616795</v>
+        <v>922.1181377616797</v>
       </c>
       <c r="O41" t="n">
-        <v>870.7300092964745</v>
+        <v>870.7300092964746</v>
       </c>
       <c r="P41" t="n">
-        <v>743.1479178838032</v>
+        <v>743.1479178838033</v>
       </c>
       <c r="Q41" t="n">
-        <v>558.0731371763079</v>
+        <v>558.073137176308</v>
       </c>
       <c r="R41" t="n">
-        <v>324.6269792284035</v>
+        <v>324.6269792284036</v>
       </c>
       <c r="S41" t="n">
         <v>117.7631152634429</v>
@@ -34164,7 +34164,7 @@
         <v>22.62240425960378</v>
       </c>
       <c r="U41" t="n">
-        <v>0.413430574704352</v>
+        <v>0.4134305747043521</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>2.765060736362895</v>
       </c>
       <c r="H42" t="n">
-        <v>26.70466553276796</v>
+        <v>26.70466553276797</v>
       </c>
       <c r="I42" t="n">
-        <v>95.20055605459967</v>
+        <v>95.20055605459969</v>
       </c>
       <c r="J42" t="n">
         <v>261.2376022894435</v>
@@ -34216,34 +34216,34 @@
         <v>446.4966716257575</v>
       </c>
       <c r="L42" t="n">
-        <v>600.3698761124786</v>
+        <v>600.3698761124787</v>
       </c>
       <c r="M42" t="n">
-        <v>234.6727463197769</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>719.1462131823829</v>
+        <v>572.7123112833769</v>
       </c>
       <c r="O42" t="n">
-        <v>657.8782884450787</v>
+        <v>657.8782884450789</v>
       </c>
       <c r="P42" t="n">
-        <v>528.0053260516128</v>
+        <v>528.0053260516129</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>352.9575775048496</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>171.6763148418998</v>
       </c>
       <c r="S42" t="n">
-        <v>51.35979043200373</v>
+        <v>51.35979043200374</v>
       </c>
       <c r="T42" t="n">
-        <v>11.14513516104166</v>
+        <v>11.14513516104167</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1819118905501905</v>
+        <v>0.1819118905501906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34292,19 +34292,19 @@
         <v>163.8920764128263</v>
       </c>
       <c r="K43" t="n">
-        <v>269.3250272027671</v>
+        <v>269.3250272027672</v>
       </c>
       <c r="L43" t="n">
         <v>344.6433094580638</v>
       </c>
       <c r="M43" t="n">
-        <v>363.3780472658305</v>
+        <v>363.3780472658306</v>
       </c>
       <c r="N43" t="n">
         <v>354.7377294917201</v>
       </c>
       <c r="O43" t="n">
-        <v>327.6577091509096</v>
+        <v>327.6577091509097</v>
       </c>
       <c r="P43" t="n">
         <v>280.3677747969963</v>
@@ -34313,16 +34313,16 @@
         <v>194.1121146764232</v>
       </c>
       <c r="R43" t="n">
-        <v>104.2317358798815</v>
+        <v>104.2317358798816</v>
       </c>
       <c r="S43" t="n">
-        <v>40.39875408041506</v>
+        <v>40.39875408041507</v>
       </c>
       <c r="T43" t="n">
-        <v>9.904754521541513</v>
+        <v>9.904754521541514</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1264436747430833</v>
+        <v>0.1264436747430834</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.1678821838044</v>
+        <v>5.167882183804402</v>
       </c>
       <c r="H44" t="n">
-        <v>52.92557341488683</v>
+        <v>52.92557341488684</v>
       </c>
       <c r="I44" t="n">
-        <v>199.2347778911193</v>
+        <v>199.2347778911194</v>
       </c>
       <c r="J44" t="n">
-        <v>438.6175404976691</v>
+        <v>438.6175404976693</v>
       </c>
       <c r="K44" t="n">
-        <v>657.3739933381095</v>
+        <v>657.3739933381097</v>
       </c>
       <c r="L44" t="n">
-        <v>815.5305677207135</v>
+        <v>815.5305677207139</v>
       </c>
       <c r="M44" t="n">
-        <v>907.4348925069451</v>
+        <v>907.4348925069453</v>
       </c>
       <c r="N44" t="n">
-        <v>922.1181377616793</v>
+        <v>922.1181377616797</v>
       </c>
       <c r="O44" t="n">
-        <v>870.7300092964742</v>
+        <v>870.7300092964746</v>
       </c>
       <c r="P44" t="n">
-        <v>743.1479178838031</v>
+        <v>743.1479178838033</v>
       </c>
       <c r="Q44" t="n">
-        <v>558.0731371763078</v>
+        <v>558.073137176308</v>
       </c>
       <c r="R44" t="n">
-        <v>324.6269792284035</v>
+        <v>324.6269792284036</v>
       </c>
       <c r="S44" t="n">
         <v>117.7631152634429</v>
       </c>
       <c r="T44" t="n">
-        <v>22.62240425960377</v>
+        <v>22.62240425960378</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4134305747043519</v>
+        <v>0.4134305747043521</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.765060736362894</v>
+        <v>2.765060736362895</v>
       </c>
       <c r="H45" t="n">
-        <v>26.70466553276795</v>
+        <v>26.70466553276797</v>
       </c>
       <c r="I45" t="n">
-        <v>95.20055605459966</v>
+        <v>95.20055605459969</v>
       </c>
       <c r="J45" t="n">
         <v>261.2376022894435</v>
       </c>
       <c r="K45" t="n">
-        <v>446.4966716257574</v>
+        <v>446.4966716257575</v>
       </c>
       <c r="L45" t="n">
-        <v>600.3698761124784</v>
+        <v>600.3698761124787</v>
       </c>
       <c r="M45" t="n">
-        <v>700.6033278056332</v>
+        <v>628.7036649570589</v>
       </c>
       <c r="N45" t="n">
-        <v>719.1462131823828</v>
+        <v>719.146213182383</v>
       </c>
       <c r="O45" t="n">
-        <v>585.978625596505</v>
+        <v>657.8782884450789</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>51.35979043200372</v>
+        <v>51.35979043200374</v>
       </c>
       <c r="T45" t="n">
-        <v>11.14513516104166</v>
+        <v>11.14513516104167</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1819118905501905</v>
+        <v>0.1819118905501906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.318134036956524</v>
+        <v>2.318134036956525</v>
       </c>
       <c r="H46" t="n">
         <v>20.61031898312257</v>
       </c>
       <c r="I46" t="n">
-        <v>69.71261267501987</v>
+        <v>69.71261267501988</v>
       </c>
       <c r="J46" t="n">
         <v>163.8920764128263</v>
       </c>
       <c r="K46" t="n">
-        <v>269.325027202767</v>
+        <v>269.3250272027672</v>
       </c>
       <c r="L46" t="n">
-        <v>344.6433094580637</v>
+        <v>344.6433094580638</v>
       </c>
       <c r="M46" t="n">
-        <v>363.3780472658304</v>
+        <v>363.3780472658306</v>
       </c>
       <c r="N46" t="n">
-        <v>354.73772949172</v>
+        <v>354.7377294917201</v>
       </c>
       <c r="O46" t="n">
-        <v>327.6577091509096</v>
+        <v>327.6577091509097</v>
       </c>
       <c r="P46" t="n">
-        <v>280.3677747969962</v>
+        <v>280.3677747969963</v>
       </c>
       <c r="Q46" t="n">
         <v>194.1121146764232</v>
       </c>
       <c r="R46" t="n">
-        <v>104.2317358798815</v>
+        <v>104.2317358798816</v>
       </c>
       <c r="S46" t="n">
-        <v>40.39875408041505</v>
+        <v>40.39875408041507</v>
       </c>
       <c r="T46" t="n">
-        <v>9.904754521541511</v>
+        <v>9.904754521541514</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1264436747430833</v>
+        <v>0.1264436747430834</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867967</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788321</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
         <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915973</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065964</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781461</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
         <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855685</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076499</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646072</v>
+        <v>12.15921574646066</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061146</v>
+        <v>16.11138312061144</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520818</v>
+        <v>23.66518529520815</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400467</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525807</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004584</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525807</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>257.5716359709829</v>
+        <v>257.571635970983</v>
       </c>
       <c r="K23" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931292</v>
       </c>
       <c r="L23" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507267</v>
       </c>
       <c r="M23" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796726</v>
       </c>
       <c r="N23" t="n">
-        <v>692.7050741650885</v>
+        <v>692.7050741650887</v>
       </c>
       <c r="O23" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747878</v>
       </c>
       <c r="P23" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285338</v>
       </c>
       <c r="Q23" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018585</v>
       </c>
       <c r="R23" t="n">
         <v>109.0414414142714</v>
@@ -36439,25 +36439,25 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K24" t="n">
-        <v>188.2181416303293</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>461.8154963326044</v>
+        <v>461.8154963326045</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>558.4692938836151</v>
       </c>
       <c r="N24" t="n">
-        <v>587.8045010990496</v>
+        <v>587.8045010990497</v>
       </c>
       <c r="O24" t="n">
-        <v>515.2820440006343</v>
+        <v>515.2820440006344</v>
       </c>
       <c r="P24" t="n">
-        <v>394.0309186372825</v>
+        <v>236.7555698028244</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.975803418828</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.53289629615352</v>
+        <v>70.53289629615355</v>
       </c>
       <c r="K25" t="n">
         <v>247.0555353768843</v>
       </c>
       <c r="L25" t="n">
-        <v>372.2333347183799</v>
+        <v>372.23333471838</v>
       </c>
       <c r="M25" t="n">
         <v>402.9619242276711</v>
       </c>
       <c r="N25" t="n">
-        <v>398.8699018709486</v>
+        <v>398.8699018709488</v>
       </c>
       <c r="O25" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649494</v>
       </c>
       <c r="P25" t="n">
         <v>277.6463340618898</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>257.5716359709829</v>
+        <v>257.571635970983</v>
       </c>
       <c r="K26" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931292</v>
       </c>
       <c r="L26" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507267</v>
       </c>
       <c r="M26" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796726</v>
       </c>
       <c r="N26" t="n">
-        <v>692.7050741650885</v>
+        <v>692.7050741650887</v>
       </c>
       <c r="O26" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747878</v>
       </c>
       <c r="P26" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285338</v>
       </c>
       <c r="Q26" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018585</v>
       </c>
       <c r="R26" t="n">
         <v>109.0414414142714</v>
@@ -36676,25 +36676,25 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K27" t="n">
-        <v>308.6552326513985</v>
+        <v>236.755569802824</v>
       </c>
       <c r="L27" t="n">
-        <v>461.8154963326044</v>
+        <v>461.8154963326045</v>
       </c>
       <c r="M27" t="n">
-        <v>558.4692938836149</v>
+        <v>558.4692938836151</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>587.8045010990497</v>
       </c>
       <c r="O27" t="n">
-        <v>515.2820440006343</v>
+        <v>515.2820440006344</v>
       </c>
       <c r="P27" t="n">
-        <v>394.0309186372825</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>121.8739196131932</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>70.53289629615352</v>
+        <v>70.53289629615355</v>
       </c>
       <c r="K28" t="n">
         <v>247.0555353768843</v>
       </c>
       <c r="L28" t="n">
-        <v>372.2333347183799</v>
+        <v>372.23333471838</v>
       </c>
       <c r="M28" t="n">
         <v>402.9619242276711</v>
       </c>
       <c r="N28" t="n">
-        <v>398.8699018709486</v>
+        <v>398.8699018709488</v>
       </c>
       <c r="O28" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649494</v>
       </c>
       <c r="P28" t="n">
         <v>277.6463340618898</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>257.5716359709829</v>
+        <v>257.571635970983</v>
       </c>
       <c r="K29" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931292</v>
       </c>
       <c r="L29" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507267</v>
       </c>
       <c r="M29" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796726</v>
       </c>
       <c r="N29" t="n">
-        <v>692.7050741650885</v>
+        <v>692.7050741650887</v>
       </c>
       <c r="O29" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747878</v>
       </c>
       <c r="P29" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285338</v>
       </c>
       <c r="Q29" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018585</v>
       </c>
       <c r="R29" t="n">
         <v>109.0414414142714</v>
@@ -36913,22 +36913,22 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>308.6552326513985</v>
       </c>
       <c r="L30" t="n">
-        <v>461.8154963326044</v>
+        <v>461.8154963326045</v>
       </c>
       <c r="M30" t="n">
-        <v>558.4692938836149</v>
+        <v>486.5696310350406</v>
       </c>
       <c r="N30" t="n">
-        <v>587.8045010990496</v>
+        <v>587.8045010990497</v>
       </c>
       <c r="O30" t="n">
-        <v>515.2820440006343</v>
+        <v>515.2820440006344</v>
       </c>
       <c r="P30" t="n">
-        <v>236.7555698028244</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>70.53289629615352</v>
+        <v>70.53289629615355</v>
       </c>
       <c r="K31" t="n">
         <v>247.0555353768843</v>
       </c>
       <c r="L31" t="n">
-        <v>372.2333347183799</v>
+        <v>372.23333471838</v>
       </c>
       <c r="M31" t="n">
         <v>402.9619242276711</v>
       </c>
       <c r="N31" t="n">
-        <v>398.8699018709486</v>
+        <v>398.8699018709488</v>
       </c>
       <c r="O31" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649494</v>
       </c>
       <c r="P31" t="n">
         <v>277.6463340618898</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>257.5716359709829</v>
+        <v>257.571635970983</v>
       </c>
       <c r="K32" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931292</v>
       </c>
       <c r="L32" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507267</v>
       </c>
       <c r="M32" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796726</v>
       </c>
       <c r="N32" t="n">
-        <v>692.7050741650885</v>
+        <v>692.7050741650887</v>
       </c>
       <c r="O32" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747878</v>
       </c>
       <c r="P32" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285338</v>
       </c>
       <c r="Q32" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018585</v>
       </c>
       <c r="R32" t="n">
         <v>109.0414414142714</v>
@@ -37150,22 +37150,22 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>308.6552326513985</v>
       </c>
       <c r="L33" t="n">
-        <v>461.8154963326044</v>
+        <v>461.8154963326045</v>
       </c>
       <c r="M33" t="n">
-        <v>558.4692938836149</v>
+        <v>558.4692938836151</v>
       </c>
       <c r="N33" t="n">
-        <v>587.8045010990496</v>
+        <v>515.9048382504752</v>
       </c>
       <c r="O33" t="n">
-        <v>515.2820440006343</v>
+        <v>515.2820440006344</v>
       </c>
       <c r="P33" t="n">
-        <v>236.7555698028244</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70.53289629615352</v>
+        <v>70.53289629615355</v>
       </c>
       <c r="K34" t="n">
         <v>247.0555353768843</v>
       </c>
       <c r="L34" t="n">
-        <v>372.2333347183799</v>
+        <v>372.23333471838</v>
       </c>
       <c r="M34" t="n">
         <v>402.9619242276711</v>
       </c>
       <c r="N34" t="n">
-        <v>398.8699018709486</v>
+        <v>398.8699018709488</v>
       </c>
       <c r="O34" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649494</v>
       </c>
       <c r="P34" t="n">
         <v>277.6463340618898</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>257.5716359709829</v>
+        <v>257.571635970983</v>
       </c>
       <c r="K35" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931292</v>
       </c>
       <c r="L35" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507267</v>
       </c>
       <c r="M35" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796726</v>
       </c>
       <c r="N35" t="n">
-        <v>692.7050741650885</v>
+        <v>692.7050741650887</v>
       </c>
       <c r="O35" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747878</v>
       </c>
       <c r="P35" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285338</v>
       </c>
       <c r="Q35" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018585</v>
       </c>
       <c r="R35" t="n">
         <v>109.0414414142714</v>
@@ -37387,22 +37387,22 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>308.6552326513985</v>
       </c>
       <c r="L36" t="n">
-        <v>304.5401474981466</v>
+        <v>461.8154963326045</v>
       </c>
       <c r="M36" t="n">
-        <v>558.4692938836149</v>
+        <v>558.4692938836151</v>
       </c>
       <c r="N36" t="n">
-        <v>587.8045010990496</v>
+        <v>515.9048382504752</v>
       </c>
       <c r="O36" t="n">
-        <v>515.2820440006343</v>
+        <v>515.2820440006344</v>
       </c>
       <c r="P36" t="n">
-        <v>394.0309186372825</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>70.53289629615352</v>
+        <v>70.53289629615355</v>
       </c>
       <c r="K37" t="n">
         <v>247.0555353768843</v>
       </c>
       <c r="L37" t="n">
-        <v>372.2333347183799</v>
+        <v>372.23333471838</v>
       </c>
       <c r="M37" t="n">
         <v>402.9619242276711</v>
       </c>
       <c r="N37" t="n">
-        <v>398.8699018709486</v>
+        <v>398.8699018709488</v>
       </c>
       <c r="O37" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649494</v>
       </c>
       <c r="P37" t="n">
         <v>277.6463340618898</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>257.5716359709829</v>
+        <v>257.571635970983</v>
       </c>
       <c r="K38" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931292</v>
       </c>
       <c r="L38" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507267</v>
       </c>
       <c r="M38" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796726</v>
       </c>
       <c r="N38" t="n">
-        <v>692.7050741650885</v>
+        <v>692.7050741650887</v>
       </c>
       <c r="O38" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747878</v>
       </c>
       <c r="P38" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285338</v>
       </c>
       <c r="Q38" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018585</v>
       </c>
       <c r="R38" t="n">
         <v>109.0414414142714</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>134.3999756227769</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>461.8154963326044</v>
+        <v>461.8154963326045</v>
       </c>
       <c r="M39" t="n">
-        <v>558.4692938836149</v>
+        <v>558.4692938836151</v>
       </c>
       <c r="N39" t="n">
-        <v>587.8045010990496</v>
+        <v>587.8045010990497</v>
       </c>
       <c r="O39" t="n">
-        <v>515.2820440006343</v>
+        <v>515.2820440006344</v>
       </c>
       <c r="P39" t="n">
-        <v>236.7555698028244</v>
+        <v>345.1587345476651</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.99681087793587</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.53289629615352</v>
+        <v>70.53289629615355</v>
       </c>
       <c r="K40" t="n">
         <v>247.0555353768843</v>
       </c>
       <c r="L40" t="n">
-        <v>372.2333347183799</v>
+        <v>372.23333471838</v>
       </c>
       <c r="M40" t="n">
         <v>402.9619242276711</v>
       </c>
       <c r="N40" t="n">
-        <v>398.8699018709486</v>
+        <v>398.8699018709488</v>
       </c>
       <c r="O40" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649494</v>
       </c>
       <c r="P40" t="n">
         <v>277.6463340618898</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>257.5716359709829</v>
+        <v>257.571635970983</v>
       </c>
       <c r="K41" t="n">
-        <v>437.284142293129</v>
+        <v>437.2841422931292</v>
       </c>
       <c r="L41" t="n">
-        <v>579.7641527507265</v>
+        <v>579.7641527507267</v>
       </c>
       <c r="M41" t="n">
-        <v>677.0886592796725</v>
+        <v>677.0886592796726</v>
       </c>
       <c r="N41" t="n">
-        <v>692.7050741650885</v>
+        <v>692.7050741650887</v>
       </c>
       <c r="O41" t="n">
-        <v>640.6317978747877</v>
+        <v>640.6317978747878</v>
       </c>
       <c r="P41" t="n">
-        <v>511.9149221285336</v>
+        <v>511.9149221285338</v>
       </c>
       <c r="Q41" t="n">
-        <v>335.7674473018584</v>
+        <v>335.7674473018585</v>
       </c>
       <c r="R41" t="n">
         <v>109.0414414142714</v>
@@ -37864,25 +37864,25 @@
         <v>308.6552326513985</v>
       </c>
       <c r="L42" t="n">
-        <v>461.8154963326044</v>
+        <v>461.8154963326045</v>
       </c>
       <c r="M42" t="n">
-        <v>92.5387123977586</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>587.8045010990496</v>
+        <v>441.3705992000436</v>
       </c>
       <c r="O42" t="n">
-        <v>515.2820440006343</v>
+        <v>515.2820440006344</v>
       </c>
       <c r="P42" t="n">
-        <v>394.0309186372825</v>
+        <v>394.0309186372826</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>212.9758034188281</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.99681087793587</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>70.53289629615352</v>
+        <v>70.53289629615355</v>
       </c>
       <c r="K43" t="n">
         <v>247.0555353768843</v>
       </c>
       <c r="L43" t="n">
-        <v>372.2333347183799</v>
+        <v>372.23333471838</v>
       </c>
       <c r="M43" t="n">
         <v>402.9619242276711</v>
       </c>
       <c r="N43" t="n">
-        <v>398.8699018709486</v>
+        <v>398.8699018709488</v>
       </c>
       <c r="O43" t="n">
-        <v>352.2428370649493</v>
+        <v>352.2428370649494</v>
       </c>
       <c r="P43" t="n">
         <v>277.6463340618898</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>257.5716359709828</v>
+        <v>257.571635970983</v>
       </c>
       <c r="K44" t="n">
-        <v>437.2841422931289</v>
+        <v>437.2841422931292</v>
       </c>
       <c r="L44" t="n">
-        <v>579.7641527507262</v>
+        <v>579.7641527507267</v>
       </c>
       <c r="M44" t="n">
-        <v>677.0886592796724</v>
+        <v>677.0886592796726</v>
       </c>
       <c r="N44" t="n">
-        <v>692.7050741650885</v>
+        <v>692.7050741650887</v>
       </c>
       <c r="O44" t="n">
-        <v>640.6317978747875</v>
+        <v>640.6317978747878</v>
       </c>
       <c r="P44" t="n">
-        <v>511.9149221285335</v>
+        <v>511.9149221285338</v>
       </c>
       <c r="Q44" t="n">
-        <v>335.7674473018583</v>
+        <v>335.7674473018585</v>
       </c>
       <c r="R44" t="n">
-        <v>109.0414414142713</v>
+        <v>109.0414414142714</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>134.3999756227768</v>
+        <v>134.3999756227769</v>
       </c>
       <c r="K45" t="n">
-        <v>308.6552326513984</v>
+        <v>308.6552326513985</v>
       </c>
       <c r="L45" t="n">
-        <v>461.8154963326043</v>
+        <v>461.8154963326045</v>
       </c>
       <c r="M45" t="n">
-        <v>558.4692938836149</v>
+        <v>486.5696310350406</v>
       </c>
       <c r="N45" t="n">
-        <v>587.8045010990495</v>
+        <v>587.8045010990497</v>
       </c>
       <c r="O45" t="n">
-        <v>443.3823811520606</v>
+        <v>515.2820440006344</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>70.5328962961535</v>
+        <v>70.53289629615355</v>
       </c>
       <c r="K46" t="n">
-        <v>247.0555353768842</v>
+        <v>247.0555353768843</v>
       </c>
       <c r="L46" t="n">
-        <v>372.2333347183799</v>
+        <v>372.23333471838</v>
       </c>
       <c r="M46" t="n">
-        <v>402.961924227671</v>
+        <v>402.9619242276711</v>
       </c>
       <c r="N46" t="n">
-        <v>398.8699018709486</v>
+        <v>398.8699018709488</v>
       </c>
       <c r="O46" t="n">
-        <v>352.2428370649492</v>
+        <v>352.2428370649494</v>
       </c>
       <c r="P46" t="n">
-        <v>277.6463340618897</v>
+        <v>277.6463340618898</v>
       </c>
       <c r="Q46" t="n">
         <v>107.9500714247288</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_25_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1501076.152844</v>
+        <v>1512727.187433948</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>187.5255871663197</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>150.1450882057755</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>77.08171901666384</v>
       </c>
       <c r="S2" t="n">
-        <v>68.11693918766092</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>53.53696330591193</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409151</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846323</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>112.2740341843614</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>38.1116363604056</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.00402729331152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>158.9209832102728</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>96.86671316392764</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>25.52097501220041</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>185.6028078378925</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.00402729331168</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.10430989402857</v>
@@ -1098,7 +1098,7 @@
         <v>18.10760906709392</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>20.00402729331169</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>187.5255871663198</v>
-      </c>
-      <c r="V8" t="n">
-        <v>187.5255871663198</v>
-      </c>
-      <c r="W8" t="n">
-        <v>68.11693918766106</v>
       </c>
       <c r="X8" t="n">
         <v>187.5255871663198</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>68.11693918766106</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>187.5255871663198</v>
       </c>
-      <c r="W9" t="n">
-        <v>187.5255871663198</v>
-      </c>
-      <c r="X9" t="n">
-        <v>186.1649406925467</v>
-      </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>185.6028078378924</v>
       </c>
     </row>
     <row r="10">
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>52.21594625443417</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>300.8742255835443</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>320.169642633447</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492377</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>391.6047407685666</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>279.3364594141746</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>105.7015762176807</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>163.2704070622393</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>317.9226464802981</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>150.9837267223824</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744764</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192036</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>283.9746808062648</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>122.063823392386</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>145.6911677128812</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>325.3908643743045</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2335,10 +2335,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I23" t="n">
-        <v>11.24111167928652</v>
+        <v>11.24111167928649</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>200.4734453045276</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9322223331321</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>252.2532247056837</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2414,10 +2414,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H24" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372849</v>
       </c>
       <c r="I24" t="n">
-        <v>4.321823945400311</v>
+        <v>4.321823945400297</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>63.84899867479311</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.20040458826995</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.6728453215022</v>
@@ -2496,7 +2496,7 @@
         <v>141.616853524317</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.73786225223839</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>218.04083490674</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1925856817478</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>303.2355298012971</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>286.5492287008803</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>11.24111167928649</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>91.25695432280241</v>
+        <v>91.2569543228024</v>
       </c>
       <c r="T26" t="n">
         <v>200.4734453045276</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9322223331321</v>
+        <v>182.48498063016</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,10 +2651,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H27" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372849</v>
       </c>
       <c r="I27" t="n">
-        <v>4.321823945400311</v>
+        <v>4.321823945400297</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6728453215022</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>73.06165549728792</v>
       </c>
       <c r="S28" t="n">
-        <v>183.6178439565572</v>
+        <v>153.1889102855134</v>
       </c>
       <c r="T28" t="n">
         <v>218.04083490674</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>280.2471290528094</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,10 +2809,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H29" t="n">
-        <v>286.5492287008803</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>11.24111167928652</v>
+        <v>11.24111167928649</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>91.2569543228024</v>
       </c>
       <c r="T29" t="n">
-        <v>200.4734453045276</v>
+        <v>69.3344635850226</v>
       </c>
       <c r="U29" t="n">
         <v>250.9322223331321</v>
       </c>
       <c r="V29" t="n">
-        <v>1.321002372550502</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2888,10 +2888,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H30" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372849</v>
       </c>
       <c r="I30" t="n">
-        <v>4.321823945400311</v>
+        <v>4.321823945400297</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>128.4291065727008</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1925856817478</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>107.662406063473</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>330.3185230141028</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>286.5492287008803</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>11.24111167928649</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>91.25695432280241</v>
+        <v>91.2569543228024</v>
       </c>
       <c r="T32" t="n">
         <v>200.4734453045276</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.9322223331321</v>
       </c>
       <c r="V32" t="n">
-        <v>172.2373820621666</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3125,10 +3125,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H33" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372849</v>
       </c>
       <c r="I33" t="n">
-        <v>4.321823945400311</v>
+        <v>4.321823945400297</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>4.538038607542599</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>17.71447358714193</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>73.06165549728792</v>
       </c>
       <c r="S34" t="n">
         <v>183.6178439565572</v>
@@ -3246,7 +3246,7 @@
         <v>286.1925856817478</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H35" t="n">
-        <v>286.5492287008803</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.24111167928652</v>
+        <v>11.24111167928649</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>200.4734453045276</v>
+        <v>160.5914179078253</v>
       </c>
       <c r="U35" t="n">
         <v>250.9322223331321</v>
       </c>
       <c r="V35" t="n">
-        <v>1.321002372551402</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H36" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372849</v>
       </c>
       <c r="I36" t="n">
-        <v>4.321823945400311</v>
+        <v>4.321823945400297</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3477,13 +3477,13 @@
         <v>183.6178439565572</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>175.8517927759005</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.93819730435672</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H38" t="n">
-        <v>160.5914179078233</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>11.24111167928652</v>
+        <v>11.24111167928649</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>160.5914179078244</v>
       </c>
       <c r="U38" t="n">
         <v>250.9322223331321</v>
@@ -3599,10 +3599,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H39" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372849</v>
       </c>
       <c r="I39" t="n">
-        <v>4.321823945400311</v>
+        <v>4.321823945400297</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>113.4482162202281</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>52.05432113575533</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>141.616853524317</v>
       </c>
       <c r="I40" t="n">
-        <v>85.7378622522384</v>
+        <v>85.73786225223839</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>73.06165549728792</v>
       </c>
       <c r="S40" t="n">
         <v>183.6178439565572</v>
@@ -3717,7 +3717,7 @@
         <v>218.04083490674</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>119.7932406136273</v>
       </c>
       <c r="I41" t="n">
-        <v>11.24111167928652</v>
+        <v>11.24111167928649</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>91.25695432280241</v>
+        <v>91.2569543228024</v>
       </c>
       <c r="T41" t="n">
         <v>200.4734453045276</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9322223331321</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>196.6132767506294</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3836,10 +3836,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H42" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372849</v>
       </c>
       <c r="I42" t="n">
-        <v>4.321823945400311</v>
+        <v>4.321823945400297</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>48.02179426221839</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>43.56905650785448</v>
       </c>
       <c r="G43" t="n">
         <v>165.6728453215022</v>
@@ -3918,7 +3918,7 @@
         <v>141.616853524317</v>
       </c>
       <c r="I43" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.6178439565572</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>218.04083490674</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>410.1348553313306</v>
       </c>
       <c r="H44" t="n">
-        <v>286.5492287008803</v>
+        <v>171.8325295871116</v>
       </c>
       <c r="I44" t="n">
-        <v>11.24111167928652</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>91.25695432280241</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>169.0231735401938</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.5784564268477</v>
       </c>
       <c r="H45" t="n">
-        <v>85.5307787037285</v>
+        <v>85.53077870372849</v>
       </c>
       <c r="I45" t="n">
-        <v>4.321823945400311</v>
+        <v>4.321823945400297</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>158.0341642761331</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4155,7 +4155,7 @@
         <v>141.616853524317</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.73786225223839</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>69.12313868382702</v>
+        <v>73.06165549728792</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>218.04083490674</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.5974673148098</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832527</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832527</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832527</v>
+        <v>482.8222414097399</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912179</v>
+        <v>293.4024563932553</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330558</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
         <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.874309407919</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O2" t="n">
         <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602026</v>
+        <v>734.4611726020258</v>
       </c>
       <c r="Q2" t="n">
         <v>750.1023486652789</v>
@@ -4357,25 +4357,25 @@
         <v>672.2420264262245</v>
       </c>
       <c r="S2" t="n">
-        <v>603.4370373477791</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="T2" t="n">
-        <v>603.4370373477791</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="U2" t="n">
-        <v>414.0172523312945</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="V2" t="n">
-        <v>414.0172523312945</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="W2" t="n">
-        <v>414.0172523312945</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="X2" t="n">
-        <v>224.5974673148098</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.5974673148098</v>
+        <v>672.2420264262245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>392.4672266287262</v>
+        <v>374.1099072722037</v>
       </c>
       <c r="C3" t="n">
-        <v>218.0141973475992</v>
+        <v>374.1099072722037</v>
       </c>
       <c r="D3" t="n">
-        <v>69.07978768634794</v>
+        <v>374.1099072722037</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330558</v>
+        <v>374.1099072722037</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330558</v>
+        <v>227.5753492990887</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330558</v>
+        <v>90.03616812153786</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330558</v>
+        <v>90.03616812153786</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="J3" t="n">
         <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546597</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476342</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017056</v>
+        <v>739.5989987017055</v>
       </c>
       <c r="Q3" t="n">
         <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652789</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652789</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652789</v>
+        <v>676.9378076264271</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652789</v>
+        <v>487.5180226099425</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652789</v>
+        <v>374.1099072722037</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652789</v>
+        <v>374.1099072722037</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652789</v>
+        <v>374.1099072722037</v>
       </c>
       <c r="Y3" t="n">
-        <v>560.6825636487943</v>
+        <v>374.1099072722037</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404153</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404153</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404153</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404153</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404153</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404153</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404153</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404153</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404153</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="K4" t="n">
         <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230163</v>
+        <v>27.03967056230169</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170695</v>
+        <v>42.98993985170704</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396302</v>
+        <v>66.41847329396313</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910367</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910367</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910367</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910367</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910367</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910367</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910367</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910367</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910367</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404153</v>
+        <v>67.7454270282896</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>351.3361714764005</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="C5" t="n">
-        <v>351.3361714764005</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="D5" t="n">
-        <v>351.3361714764005</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E5" t="n">
-        <v>161.9163864599159</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F5" t="n">
-        <v>154.9708857107125</v>
+        <v>28.23218154912179</v>
       </c>
       <c r="G5" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I5" t="n">
         <v>15.00204697330558</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058916</v>
       </c>
       <c r="L5" t="n">
-        <v>191.874309407919</v>
+        <v>191.874309407918</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644748</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123831</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985577</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020261</v>
+        <v>734.4611726020258</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262247</v>
+        <v>672.2420264262245</v>
       </c>
       <c r="S5" t="n">
-        <v>511.8624171433428</v>
+        <v>511.8624171433426</v>
       </c>
       <c r="T5" t="n">
-        <v>351.3361714764005</v>
+        <v>322.442632126858</v>
       </c>
       <c r="U5" t="n">
-        <v>351.3361714764005</v>
+        <v>322.442632126858</v>
       </c>
       <c r="V5" t="n">
-        <v>351.3361714764005</v>
+        <v>322.442632126858</v>
       </c>
       <c r="W5" t="n">
-        <v>351.3361714764005</v>
+        <v>322.442632126858</v>
       </c>
       <c r="X5" t="n">
-        <v>351.3361714764005</v>
+        <v>224.5974673148098</v>
       </c>
       <c r="Y5" t="n">
-        <v>351.3361714764005</v>
+        <v>35.17768229832527</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750.1023486652791</v>
+        <v>204.9896429540876</v>
       </c>
       <c r="C6" t="n">
-        <v>575.6493193841521</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="D6" t="n">
-        <v>426.7149097229009</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="E6" t="n">
-        <v>400.9361470843146</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="F6" t="n">
-        <v>254.4015891111996</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="G6" t="n">
-        <v>116.8624079336487</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="J6" t="n">
         <v>15.00204697330558</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024203</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017057</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652791</v>
+        <v>750.102348665279</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652791</v>
+        <v>750.102348665279</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652791</v>
+        <v>750.102348665279</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652791</v>
+        <v>750.102348665279</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652791</v>
+        <v>750.102348665279</v>
       </c>
       <c r="V6" t="n">
-        <v>750.1023486652791</v>
+        <v>560.6825636487945</v>
       </c>
       <c r="W6" t="n">
-        <v>750.1023486652791</v>
+        <v>560.6825636487945</v>
       </c>
       <c r="X6" t="n">
-        <v>750.1023486652791</v>
+        <v>373.2049799741556</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.1023486652791</v>
+        <v>373.2049799741556</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="C7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="D7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="E7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="F7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="G7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="H7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="I7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="J7" t="n">
-        <v>29.24882464404152</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="K7" t="n">
         <v>15.00204697330558</v>
@@ -4746,31 +4746,31 @@
         <v>49.45491281910382</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="R7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="S7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="T7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="U7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="V7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="W7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="X7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
       <c r="Y7" t="n">
-        <v>49.45491281910382</v>
+        <v>29.24882464404151</v>
       </c>
     </row>
     <row r="8">
@@ -4804,22 +4804,22 @@
         <v>15.00204697330558</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058984</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>191.874309407919</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123831</v>
+        <v>509.4952041123829</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P8" t="n">
         <v>734.4611726020261</v>
@@ -4837,19 +4837,19 @@
         <v>672.2420264262247</v>
       </c>
       <c r="U8" t="n">
+        <v>672.2420264262247</v>
+      </c>
+      <c r="V8" t="n">
+        <v>672.2420264262247</v>
+      </c>
+      <c r="W8" t="n">
         <v>482.8222414097401</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>293.4024563932554</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>224.5974673148099</v>
-      </c>
-      <c r="X8" t="n">
-        <v>35.17768229832527</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>35.17768229832527</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330558</v>
+        <v>204.9896429540876</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296057</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296057</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296057</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296057</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296057</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296057</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330558</v>
+        <v>30.53661367296057</v>
       </c>
       <c r="J9" t="n">
         <v>15.00204697330558</v>
@@ -4919,16 +4919,16 @@
         <v>750.102348665279</v>
       </c>
       <c r="V9" t="n">
+        <v>750.102348665279</v>
+      </c>
+      <c r="W9" t="n">
+        <v>750.102348665279</v>
+      </c>
+      <c r="X9" t="n">
         <v>560.6825636487944</v>
       </c>
-      <c r="W9" t="n">
-        <v>371.2627786323097</v>
-      </c>
-      <c r="X9" t="n">
-        <v>183.2173839933736</v>
-      </c>
       <c r="Y9" t="n">
-        <v>183.2173839933736</v>
+        <v>373.2049799741556</v>
       </c>
     </row>
     <row r="10">
@@ -4941,25 +4941,25 @@
         <v>67.7454270282896</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330558</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330558</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330558</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330558</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330558</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330558</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330558</v>
+        <v>67.7454270282896</v>
       </c>
       <c r="J10" t="n">
         <v>15.00204697330558</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1944.904841306683</v>
+        <v>2196.097994299123</v>
       </c>
       <c r="C11" t="n">
-        <v>1575.942324366272</v>
+        <v>1827.135477358712</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1468.869778751961</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1083.081526153717</v>
       </c>
       <c r="F11" t="n">
         <v>779.1681669784198</v>
@@ -5035,25 +5035,25 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.542934265602</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2641.774278995487</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.308520734407</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="Y11" t="n">
-        <v>1944.904841306683</v>
+        <v>2582.697834363245</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218345</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1914.669427940027</v>
+        <v>1914.669427940026</v>
       </c>
       <c r="C14" t="n">
-        <v>1545.706910999616</v>
+        <v>1545.706910999615</v>
       </c>
       <c r="D14" t="n">
-        <v>1187.441212392865</v>
+        <v>1187.441212392864</v>
       </c>
       <c r="E14" t="n">
-        <v>801.6529597946208</v>
+        <v>801.6529597946198</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839474</v>
+        <v>390.6670550050123</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839474</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5299,13 +5299,13 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
         <v>3009.337405520489</v>
@@ -5314,16 +5314,16 @@
         <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2678.274518176919</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W14" t="n">
-        <v>2678.274518176919</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X14" t="n">
-        <v>2304.808759915839</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y14" t="n">
-        <v>1914.669427940027</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031464</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215812</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992583</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>567.6136494308324</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C16" t="n">
-        <v>567.6136494308324</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D16" t="n">
-        <v>417.4970100184967</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E16" t="n">
-        <v>417.4970100184967</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F16" t="n">
-        <v>270.6070625205863</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>270.6070625205863</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
         <v>1927.294548088493</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046023</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W16" t="n">
-        <v>970.0546934046023</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X16" t="n">
-        <v>970.0546934046023</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y16" t="n">
-        <v>749.2621142610722</v>
+        <v>701.1808689801002</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1523.222118183415</v>
+        <v>2209.232076102166</v>
       </c>
       <c r="C17" t="n">
-        <v>1523.222118183415</v>
+        <v>1840.269559161754</v>
       </c>
       <c r="D17" t="n">
-        <v>1164.956419576664</v>
+        <v>1482.003860555003</v>
       </c>
       <c r="E17" t="n">
-        <v>779.1681669784198</v>
+        <v>1096.215607956759</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>685.2297031671517</v>
       </c>
       <c r="G17" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5527,40 +5527,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993395</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.628073993395</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2788.565186649824</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2435.796531379709</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X17" t="n">
-        <v>2062.33077311863</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y17" t="n">
-        <v>1909.821958247536</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031481</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,7 +5700,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T19" t="n">
         <v>1530.147236421175</v>
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1261.532988317206</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C20" t="n">
-        <v>892.5704713767946</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D20" t="n">
-        <v>892.5704713767946</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>764.341133147311</v>
       </c>
       <c r="F20" t="n">
-        <v>481.584566587187</v>
+        <v>353.3552283577034</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
@@ -5770,34 +5770,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993395</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267231</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.03470992366</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W20" t="n">
-        <v>2411.73791861822</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X20" t="n">
-        <v>2038.27216035714</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y20" t="n">
-        <v>1648.132828381328</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,43 +5886,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>363.7915515140961</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C22" t="n">
-        <v>363.7915515140961</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D22" t="n">
-        <v>213.6749121017604</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E22" t="n">
-        <v>213.6749121017604</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F22" t="n">
-        <v>213.6749121017604</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5937,25 +5937,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>1101.990851592604</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W22" t="n">
-        <v>812.5736815556436</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X22" t="n">
-        <v>584.5841306576262</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y22" t="n">
-        <v>363.7915515140961</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1995.050839348631</v>
+        <v>2324.779380861342</v>
       </c>
       <c r="C23" t="n">
-        <v>1666.373198566506</v>
+        <v>1955.81686392093</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.107499959755</v>
+        <v>1597.55116531418</v>
       </c>
       <c r="E23" t="n">
-        <v>922.3192473615109</v>
+        <v>1211.762912715935</v>
       </c>
       <c r="F23" t="n">
-        <v>511.3333425719033</v>
+        <v>800.7770079263279</v>
       </c>
       <c r="G23" t="n">
-        <v>97.05571092409458</v>
+        <v>386.4993762785192</v>
       </c>
       <c r="H23" t="n">
-        <v>97.05571092409458</v>
+        <v>97.05571092409456</v>
       </c>
       <c r="I23" t="n">
         <v>85.70105266218901</v>
       </c>
       <c r="J23" t="n">
-        <v>340.696972273463</v>
+        <v>340.6969722734624</v>
       </c>
       <c r="K23" t="n">
-        <v>773.6082731436609</v>
+        <v>773.6082731436603</v>
       </c>
       <c r="L23" t="n">
-        <v>1347.57478436688</v>
+        <v>1347.574784366879</v>
       </c>
       <c r="M23" t="n">
-        <v>2017.892557053756</v>
+        <v>2017.892557053755</v>
       </c>
       <c r="N23" t="n">
-        <v>2703.670580477194</v>
+        <v>2703.670580477193</v>
       </c>
       <c r="O23" t="n">
-        <v>3337.896060373234</v>
+        <v>3337.896060373233</v>
       </c>
       <c r="P23" t="n">
         <v>3844.691833280482</v>
       </c>
       <c r="Q23" t="n">
-        <v>4177.101606109322</v>
+        <v>4177.101606109321</v>
       </c>
       <c r="R23" t="n">
         <v>4285.052633109451</v>
@@ -6022,19 +6022,19 @@
         <v>4082.554203508918</v>
       </c>
       <c r="U23" t="n">
-        <v>3829.08731226333</v>
+        <v>4082.554203508918</v>
       </c>
       <c r="V23" t="n">
-        <v>3498.024424919759</v>
+        <v>3827.75296643247</v>
       </c>
       <c r="W23" t="n">
-        <v>3145.255769649645</v>
+        <v>3474.984311162355</v>
       </c>
       <c r="X23" t="n">
-        <v>2771.790011388565</v>
+        <v>3101.518552901276</v>
       </c>
       <c r="Y23" t="n">
-        <v>2381.650679412753</v>
+        <v>2711.379220925464</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H24" t="n">
-        <v>90.06653139491659</v>
+        <v>90.06653139491658</v>
       </c>
       <c r="I24" t="n">
         <v>85.70105266218901</v>
@@ -6071,19 +6071,19 @@
         <v>218.7570285287381</v>
       </c>
       <c r="K24" t="n">
-        <v>218.7570285287381</v>
+        <v>524.3257088536227</v>
       </c>
       <c r="L24" t="n">
-        <v>675.9543698980165</v>
+        <v>981.5230502229012</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.838970842795</v>
+        <v>1534.40765116768</v>
       </c>
       <c r="N24" t="n">
-        <v>1810.765426930855</v>
+        <v>2045.153441035651</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.894650491482</v>
+        <v>2555.282664596279</v>
       </c>
       <c r="P24" t="n">
         <v>2555.282664596279</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>609.040018775625</v>
+        <v>1010.93175118843</v>
       </c>
       <c r="C25" t="n">
-        <v>609.040018775625</v>
+        <v>841.9955682605236</v>
       </c>
       <c r="D25" t="n">
-        <v>458.9233793632892</v>
+        <v>777.501630205177</v>
       </c>
       <c r="E25" t="n">
-        <v>458.9233793632892</v>
+        <v>629.5885366227839</v>
       </c>
       <c r="F25" t="n">
-        <v>396.0946878599862</v>
+        <v>482.6985891248735</v>
       </c>
       <c r="G25" t="n">
-        <v>228.7483794544284</v>
+        <v>315.3522807193157</v>
       </c>
       <c r="H25" t="n">
-        <v>85.70105266218901</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="I25" t="n">
         <v>85.70105266218901</v>
       </c>
       <c r="J25" t="n">
-        <v>155.528619995381</v>
+        <v>155.5286199953811</v>
       </c>
       <c r="K25" t="n">
-        <v>400.1136000184965</v>
+        <v>400.1136000184966</v>
       </c>
       <c r="L25" t="n">
         <v>768.6246013896928</v>
@@ -6162,7 +6162,7 @@
         <v>1562.438109227327</v>
       </c>
       <c r="O25" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921627</v>
       </c>
       <c r="P25" t="n">
         <v>2186.028388642897</v>
@@ -6177,22 +6177,22 @@
         <v>2292.898959353379</v>
       </c>
       <c r="T25" t="n">
-        <v>2072.655691770813</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="U25" t="n">
-        <v>1783.57227189026</v>
+        <v>2003.815539472826</v>
       </c>
       <c r="V25" t="n">
-        <v>1528.887783684373</v>
+        <v>1749.131051266939</v>
       </c>
       <c r="W25" t="n">
-        <v>1239.470613647412</v>
+        <v>1459.713881229978</v>
       </c>
       <c r="X25" t="n">
-        <v>1011.481062749395</v>
+        <v>1231.724330331961</v>
       </c>
       <c r="Y25" t="n">
-        <v>790.6884836058647</v>
+        <v>1010.93175118843</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2233.934984951997</v>
+        <v>2324.779380861342</v>
       </c>
       <c r="C26" t="n">
-        <v>1864.972468011586</v>
+        <v>1955.81686392093</v>
       </c>
       <c r="D26" t="n">
-        <v>1506.706769404835</v>
+        <v>1597.55116531418</v>
       </c>
       <c r="E26" t="n">
-        <v>1200.40825445403</v>
+        <v>1211.762912715935</v>
       </c>
       <c r="F26" t="n">
-        <v>789.4223496644223</v>
+        <v>800.7770079263279</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1447180166136</v>
+        <v>386.4993762785192</v>
       </c>
       <c r="H26" t="n">
-        <v>85.70105266218901</v>
+        <v>97.05571092409457</v>
       </c>
       <c r="I26" t="n">
-        <v>85.70105266218901</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J26" t="n">
         <v>340.6969722734621</v>
       </c>
       <c r="K26" t="n">
-        <v>773.6082731436595</v>
+        <v>773.6082731436602</v>
       </c>
       <c r="L26" t="n">
-        <v>1347.574784366879</v>
+        <v>1347.57478436688</v>
       </c>
       <c r="M26" t="n">
-        <v>2017.892557053755</v>
+        <v>2017.892557053756</v>
       </c>
       <c r="N26" t="n">
-        <v>2703.670580477193</v>
+        <v>2703.670580477194</v>
       </c>
       <c r="O26" t="n">
-        <v>3337.896060373233</v>
+        <v>3337.896060373234</v>
       </c>
       <c r="P26" t="n">
-        <v>3844.691833280481</v>
+        <v>3844.691833280483</v>
       </c>
       <c r="Q26" t="n">
         <v>4177.101606109322</v>
       </c>
       <c r="R26" t="n">
-        <v>4285.052633109451</v>
+        <v>4285.052633109452</v>
       </c>
       <c r="S26" t="n">
-        <v>4192.873891369246</v>
+        <v>4192.873891369247</v>
       </c>
       <c r="T26" t="n">
-        <v>3990.375461768713</v>
+        <v>3990.375461768714</v>
       </c>
       <c r="U26" t="n">
-        <v>3736.908570523125</v>
+        <v>3806.047198505926</v>
       </c>
       <c r="V26" t="n">
-        <v>3736.908570523125</v>
+        <v>3474.984311162355</v>
       </c>
       <c r="W26" t="n">
-        <v>3384.139915253011</v>
+        <v>3474.984311162355</v>
       </c>
       <c r="X26" t="n">
-        <v>3010.674156991931</v>
+        <v>3101.518552901276</v>
       </c>
       <c r="Y26" t="n">
-        <v>2620.534825016119</v>
+        <v>2711.379220925464</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>90.06653139491659</v>
       </c>
       <c r="I27" t="n">
-        <v>85.70105266218901</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J27" t="n">
-        <v>218.7570285287381</v>
+        <v>218.7570285287382</v>
       </c>
       <c r="K27" t="n">
-        <v>453.1450426335339</v>
+        <v>524.3257088536228</v>
       </c>
       <c r="L27" t="n">
-        <v>910.3423840028123</v>
+        <v>981.5230502229014</v>
       </c>
       <c r="M27" t="n">
-        <v>1463.226984947591</v>
+        <v>1534.407651167681</v>
       </c>
       <c r="N27" t="n">
-        <v>2045.153441035651</v>
+        <v>2116.33410725574</v>
       </c>
       <c r="O27" t="n">
         <v>2555.282664596279</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.9901309058998</v>
+        <v>380.5040937424925</v>
       </c>
       <c r="C28" t="n">
-        <v>550.0539479779929</v>
+        <v>380.5040937424925</v>
       </c>
       <c r="D28" t="n">
-        <v>399.9373085656572</v>
+        <v>380.5040937424925</v>
       </c>
       <c r="E28" t="n">
-        <v>399.9373085656572</v>
+        <v>232.5910001600994</v>
       </c>
       <c r="F28" t="n">
-        <v>253.0473610677468</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="G28" t="n">
-        <v>85.70105266218901</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="H28" t="n">
-        <v>85.70105266218901</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="I28" t="n">
-        <v>85.70105266218901</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J28" t="n">
-        <v>155.528619995381</v>
+        <v>155.5286199953811</v>
       </c>
       <c r="K28" t="n">
-        <v>400.1136000184965</v>
+        <v>400.1136000184966</v>
       </c>
       <c r="L28" t="n">
         <v>768.6246013896928</v>
@@ -6399,7 +6399,7 @@
         <v>1562.438109227327</v>
       </c>
       <c r="O28" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921627</v>
       </c>
       <c r="P28" t="n">
         <v>2186.028388642897</v>
@@ -6408,28 +6408,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R28" t="n">
-        <v>2292.898959353379</v>
+        <v>2219.099307335916</v>
       </c>
       <c r="S28" t="n">
-        <v>2107.426389700291</v>
+        <v>2064.363034320246</v>
       </c>
       <c r="T28" t="n">
-        <v>1887.183122117725</v>
+        <v>1844.11976673768</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.183122117725</v>
+        <v>1555.036346857127</v>
       </c>
       <c r="V28" t="n">
-        <v>1632.498633911838</v>
+        <v>1300.35185865124</v>
       </c>
       <c r="W28" t="n">
-        <v>1349.420725777687</v>
+        <v>1010.93468861428</v>
       </c>
       <c r="X28" t="n">
-        <v>1121.43117487967</v>
+        <v>782.9451377162624</v>
       </c>
       <c r="Y28" t="n">
-        <v>900.6385957361396</v>
+        <v>562.1525585727322</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2324.779380861342</v>
+        <v>2035.335715506917</v>
       </c>
       <c r="C29" t="n">
-        <v>1955.81686392093</v>
+        <v>1666.373198566506</v>
       </c>
       <c r="D29" t="n">
-        <v>1597.55116531418</v>
+        <v>1308.107499959755</v>
       </c>
       <c r="E29" t="n">
-        <v>1211.762912715935</v>
+        <v>922.3192473615109</v>
       </c>
       <c r="F29" t="n">
-        <v>800.7770079263279</v>
+        <v>511.3333425719033</v>
       </c>
       <c r="G29" t="n">
-        <v>386.4993762785192</v>
+        <v>97.05571092409457</v>
       </c>
       <c r="H29" t="n">
         <v>97.05571092409457</v>
       </c>
       <c r="I29" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J29" t="n">
-        <v>340.6969722734623</v>
+        <v>340.6969722734621</v>
       </c>
       <c r="K29" t="n">
-        <v>773.6082731436601</v>
+        <v>773.6082731436595</v>
       </c>
       <c r="L29" t="n">
-        <v>1347.574784366879</v>
+        <v>1347.57478436688</v>
       </c>
       <c r="M29" t="n">
-        <v>2017.892557053754</v>
+        <v>2017.892557053756</v>
       </c>
       <c r="N29" t="n">
-        <v>2703.670580477192</v>
+        <v>2703.670580477194</v>
       </c>
       <c r="O29" t="n">
         <v>3337.896060373233</v>
       </c>
       <c r="P29" t="n">
-        <v>3844.691833280481</v>
+        <v>3844.691833280482</v>
       </c>
       <c r="Q29" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109322</v>
       </c>
       <c r="R29" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109452</v>
       </c>
       <c r="S29" t="n">
-        <v>4285.05263310945</v>
+        <v>4192.873891369247</v>
       </c>
       <c r="T29" t="n">
-        <v>4082.554203508917</v>
+        <v>4122.839079667204</v>
       </c>
       <c r="U29" t="n">
-        <v>3829.087312263329</v>
+        <v>3869.372188421616</v>
       </c>
       <c r="V29" t="n">
-        <v>3827.75296643247</v>
+        <v>3538.309301078045</v>
       </c>
       <c r="W29" t="n">
-        <v>3474.984311162355</v>
+        <v>3185.540645807931</v>
       </c>
       <c r="X29" t="n">
-        <v>3101.518552901276</v>
+        <v>2812.074887546851</v>
       </c>
       <c r="Y29" t="n">
-        <v>2711.379220925464</v>
+        <v>2421.935555571039</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H30" t="n">
-        <v>90.06653139491658</v>
+        <v>90.06653139491659</v>
       </c>
       <c r="I30" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J30" t="n">
-        <v>218.7570285287381</v>
+        <v>218.7570285287382</v>
       </c>
       <c r="K30" t="n">
-        <v>524.3257088536227</v>
+        <v>524.3257088536228</v>
       </c>
       <c r="L30" t="n">
-        <v>981.5230502229011</v>
+        <v>524.3257088536228</v>
       </c>
       <c r="M30" t="n">
-        <v>1463.226984947591</v>
+        <v>1077.210309798402</v>
       </c>
       <c r="N30" t="n">
-        <v>2045.153441035651</v>
+        <v>1659.136765886461</v>
       </c>
       <c r="O30" t="n">
-        <v>2555.282664596279</v>
+        <v>2169.26598944709</v>
       </c>
       <c r="P30" t="n">
-        <v>2555.282664596279</v>
+        <v>2529.545821827122</v>
       </c>
       <c r="Q30" t="n">
-        <v>2555.282664596279</v>
+        <v>2529.545821827122</v>
       </c>
       <c r="R30" t="n">
         <v>2555.282664596279</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>699.5569160827351</v>
+        <v>1009.950551280532</v>
       </c>
       <c r="C31" t="n">
-        <v>530.6207331548283</v>
+        <v>841.0143683526255</v>
       </c>
       <c r="D31" t="n">
-        <v>380.5040937424925</v>
+        <v>690.8977289402898</v>
       </c>
       <c r="E31" t="n">
-        <v>232.5910001600994</v>
+        <v>542.9846353578967</v>
       </c>
       <c r="F31" t="n">
-        <v>85.701052662189</v>
+        <v>396.0946878599863</v>
       </c>
       <c r="G31" t="n">
-        <v>85.701052662189</v>
+        <v>228.7483794544284</v>
       </c>
       <c r="H31" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="I31" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J31" t="n">
-        <v>155.528619995381</v>
+        <v>155.5286199953811</v>
       </c>
       <c r="K31" t="n">
-        <v>400.1136000184965</v>
+        <v>400.1136000184966</v>
       </c>
       <c r="L31" t="n">
-        <v>768.6246013896927</v>
+        <v>768.6246013896928</v>
       </c>
       <c r="M31" t="n">
         <v>1167.556906375087</v>
       </c>
       <c r="N31" t="n">
-        <v>1562.438109227326</v>
+        <v>1562.438109227327</v>
       </c>
       <c r="O31" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921627</v>
       </c>
       <c r="P31" t="n">
         <v>2186.028388642897</v>
@@ -6651,22 +6651,22 @@
         <v>2292.898959353379</v>
       </c>
       <c r="T31" t="n">
-        <v>2163.172589077923</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="U31" t="n">
-        <v>1874.08916919737</v>
+        <v>2003.815539472826</v>
       </c>
       <c r="V31" t="n">
-        <v>1619.404680991483</v>
+        <v>1749.131051266939</v>
       </c>
       <c r="W31" t="n">
-        <v>1329.987510954522</v>
+        <v>1640.381146152319</v>
       </c>
       <c r="X31" t="n">
-        <v>1101.997960056505</v>
+        <v>1412.391595254302</v>
       </c>
       <c r="Y31" t="n">
-        <v>881.2053809129749</v>
+        <v>1191.599016110772</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2313.424722599436</v>
+        <v>2289.471937672549</v>
       </c>
       <c r="C32" t="n">
-        <v>1944.462205659025</v>
+        <v>1955.81686392093</v>
       </c>
       <c r="D32" t="n">
-        <v>1586.196507052274</v>
+        <v>1597.55116531418</v>
       </c>
       <c r="E32" t="n">
-        <v>1200.40825445403</v>
+        <v>1211.762912715935</v>
       </c>
       <c r="F32" t="n">
-        <v>789.4223496644223</v>
+        <v>800.7770079263279</v>
       </c>
       <c r="G32" t="n">
-        <v>375.1447180166136</v>
+        <v>386.4993762785192</v>
       </c>
       <c r="H32" t="n">
-        <v>85.701052662189</v>
+        <v>97.05571092409457</v>
       </c>
       <c r="I32" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J32" t="n">
-        <v>340.6969722734623</v>
+        <v>340.696972273463</v>
       </c>
       <c r="K32" t="n">
-        <v>773.6082731436601</v>
+        <v>773.6082731436609</v>
       </c>
       <c r="L32" t="n">
-        <v>1347.574784366879</v>
+        <v>1347.57478436688</v>
       </c>
       <c r="M32" t="n">
-        <v>2017.892557053754</v>
+        <v>2017.892557053756</v>
       </c>
       <c r="N32" t="n">
-        <v>2703.670580477192</v>
+        <v>2703.670580477194</v>
       </c>
       <c r="O32" t="n">
-        <v>3337.896060373233</v>
+        <v>3337.896060373235</v>
       </c>
       <c r="P32" t="n">
-        <v>3844.691833280481</v>
+        <v>3844.691833280483</v>
       </c>
       <c r="Q32" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109322</v>
       </c>
       <c r="R32" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109452</v>
       </c>
       <c r="S32" t="n">
-        <v>4192.873891369245</v>
+        <v>4192.873891369247</v>
       </c>
       <c r="T32" t="n">
-        <v>3990.375461768712</v>
+        <v>3990.375461768714</v>
       </c>
       <c r="U32" t="n">
-        <v>3990.375461768712</v>
+        <v>3736.908570523126</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.398308170564</v>
+        <v>3405.845683179555</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.62965290045</v>
+        <v>3053.077027909441</v>
       </c>
       <c r="X32" t="n">
-        <v>3090.16389463937</v>
+        <v>2679.611269648361</v>
       </c>
       <c r="Y32" t="n">
-        <v>2700.024562663558</v>
+        <v>2289.471937672549</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H33" t="n">
-        <v>90.06653139491658</v>
+        <v>90.06653139491659</v>
       </c>
       <c r="I33" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J33" t="n">
-        <v>218.7570285287381</v>
+        <v>218.7570285287382</v>
       </c>
       <c r="K33" t="n">
-        <v>524.3257088536227</v>
+        <v>524.3257088536228</v>
       </c>
       <c r="L33" t="n">
-        <v>981.5230502229011</v>
+        <v>981.5230502229014</v>
       </c>
       <c r="M33" t="n">
-        <v>1534.40765116768</v>
+        <v>1534.407651167681</v>
       </c>
       <c r="N33" t="n">
-        <v>2045.153441035651</v>
+        <v>2116.33410725574</v>
       </c>
       <c r="O33" t="n">
         <v>2555.282664596279</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>678.2519373284238</v>
+        <v>570.5603762486045</v>
       </c>
       <c r="C34" t="n">
-        <v>673.6680599470676</v>
+        <v>401.6241933206976</v>
       </c>
       <c r="D34" t="n">
-        <v>523.5514205347318</v>
+        <v>251.5075539083619</v>
       </c>
       <c r="E34" t="n">
-        <v>375.6383269523387</v>
+        <v>103.5944603259688</v>
       </c>
       <c r="F34" t="n">
-        <v>228.7483794544284</v>
+        <v>103.5944603259688</v>
       </c>
       <c r="G34" t="n">
-        <v>228.7483794544284</v>
+        <v>103.5944603259688</v>
       </c>
       <c r="H34" t="n">
-        <v>85.701052662189</v>
+        <v>103.5944603259688</v>
       </c>
       <c r="I34" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J34" t="n">
-        <v>155.528619995381</v>
+        <v>155.5286199953811</v>
       </c>
       <c r="K34" t="n">
-        <v>400.1136000184965</v>
+        <v>400.1136000184966</v>
       </c>
       <c r="L34" t="n">
-        <v>768.6246013896927</v>
+        <v>768.6246013896928</v>
       </c>
       <c r="M34" t="n">
         <v>1167.556906375087</v>
       </c>
       <c r="N34" t="n">
-        <v>1562.438109227326</v>
+        <v>1562.438109227327</v>
       </c>
       <c r="O34" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921627</v>
       </c>
       <c r="P34" t="n">
         <v>2186.028388642897</v>
@@ -6882,28 +6882,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R34" t="n">
-        <v>2292.898959353379</v>
+        <v>2219.099307335916</v>
       </c>
       <c r="S34" t="n">
-        <v>2107.426389700291</v>
+        <v>2033.626737682828</v>
       </c>
       <c r="T34" t="n">
-        <v>1887.183122117725</v>
+        <v>1813.383470100262</v>
       </c>
       <c r="U34" t="n">
-        <v>1598.099702237172</v>
+        <v>1524.300050219709</v>
       </c>
       <c r="V34" t="n">
-        <v>1598.099702237172</v>
+        <v>1269.615562013822</v>
       </c>
       <c r="W34" t="n">
-        <v>1308.682532200211</v>
+        <v>980.1983919768616</v>
       </c>
       <c r="X34" t="n">
-        <v>1080.692981302194</v>
+        <v>752.2088410788442</v>
       </c>
       <c r="Y34" t="n">
-        <v>859.9004021586635</v>
+        <v>752.2088410788442</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2324.779380861342</v>
+        <v>2035.335715506917</v>
       </c>
       <c r="C35" t="n">
-        <v>1955.81686392093</v>
+        <v>1666.373198566506</v>
       </c>
       <c r="D35" t="n">
-        <v>1597.55116531418</v>
+        <v>1308.107499959755</v>
       </c>
       <c r="E35" t="n">
-        <v>1211.762912715935</v>
+        <v>922.3192473615109</v>
       </c>
       <c r="F35" t="n">
-        <v>800.7770079263279</v>
+        <v>511.3333425719033</v>
       </c>
       <c r="G35" t="n">
-        <v>386.4993762785192</v>
+        <v>97.05571092409457</v>
       </c>
       <c r="H35" t="n">
-        <v>97.05571092409458</v>
+        <v>97.05571092409457</v>
       </c>
       <c r="I35" t="n">
-        <v>85.70105266218901</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J35" t="n">
         <v>340.6969722734621</v>
@@ -6943,46 +6943,46 @@
         <v>773.6082731436595</v>
       </c>
       <c r="L35" t="n">
-        <v>1347.574784366879</v>
+        <v>1347.57478436688</v>
       </c>
       <c r="M35" t="n">
-        <v>2017.892557053755</v>
+        <v>2017.892557053756</v>
       </c>
       <c r="N35" t="n">
-        <v>2703.670580477193</v>
+        <v>2703.670580477194</v>
       </c>
       <c r="O35" t="n">
         <v>3337.896060373233</v>
       </c>
       <c r="P35" t="n">
-        <v>3844.691833280481</v>
+        <v>3844.691833280482</v>
       </c>
       <c r="Q35" t="n">
         <v>4177.101606109322</v>
       </c>
       <c r="R35" t="n">
-        <v>4285.052633109451</v>
+        <v>4285.052633109452</v>
       </c>
       <c r="S35" t="n">
-        <v>4285.052633109451</v>
+        <v>4285.052633109452</v>
       </c>
       <c r="T35" t="n">
-        <v>4082.554203508918</v>
+        <v>4122.839079667204</v>
       </c>
       <c r="U35" t="n">
-        <v>3829.08731226333</v>
+        <v>3869.372188421616</v>
       </c>
       <c r="V35" t="n">
-        <v>3827.75296643247</v>
+        <v>3538.309301078045</v>
       </c>
       <c r="W35" t="n">
-        <v>3474.984311162355</v>
+        <v>3185.540645807931</v>
       </c>
       <c r="X35" t="n">
-        <v>3101.518552901276</v>
+        <v>2812.074887546851</v>
       </c>
       <c r="Y35" t="n">
-        <v>2711.379220925464</v>
+        <v>2421.935555571039</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>90.06653139491659</v>
       </c>
       <c r="I36" t="n">
-        <v>85.70105266218901</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J36" t="n">
-        <v>218.7570285287381</v>
+        <v>218.7570285287382</v>
       </c>
       <c r="K36" t="n">
-        <v>524.3257088536227</v>
+        <v>524.3257088536228</v>
       </c>
       <c r="L36" t="n">
-        <v>981.5230502229011</v>
+        <v>981.5230502229014</v>
       </c>
       <c r="M36" t="n">
-        <v>1534.40765116768</v>
+        <v>1534.407651167681</v>
       </c>
       <c r="N36" t="n">
-        <v>2045.153441035651</v>
+        <v>2116.33410725574</v>
       </c>
       <c r="O36" t="n">
         <v>2555.282664596279</v>
@@ -7074,31 +7074,31 @@
         <v>1009.950551280532</v>
       </c>
       <c r="C37" t="n">
-        <v>841.0143683526254</v>
+        <v>841.0143683526255</v>
       </c>
       <c r="D37" t="n">
-        <v>690.8977289402897</v>
+        <v>690.8977289402898</v>
       </c>
       <c r="E37" t="n">
-        <v>542.9846353578965</v>
+        <v>542.9846353578967</v>
       </c>
       <c r="F37" t="n">
-        <v>396.0946878599862</v>
+        <v>396.0946878599863</v>
       </c>
       <c r="G37" t="n">
         <v>228.7483794544284</v>
       </c>
       <c r="H37" t="n">
-        <v>85.70105266218901</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="I37" t="n">
-        <v>85.70105266218901</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J37" t="n">
-        <v>155.528619995381</v>
+        <v>155.5286199953811</v>
       </c>
       <c r="K37" t="n">
-        <v>400.1136000184965</v>
+        <v>400.1136000184966</v>
       </c>
       <c r="L37" t="n">
         <v>768.6246013896928</v>
@@ -7110,7 +7110,7 @@
         <v>1562.438109227327</v>
       </c>
       <c r="O37" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921627</v>
       </c>
       <c r="P37" t="n">
         <v>2186.028388642897</v>
@@ -7125,22 +7125,22 @@
         <v>2107.426389700291</v>
       </c>
       <c r="T37" t="n">
-        <v>2107.426389700291</v>
+        <v>1929.79831618928</v>
       </c>
       <c r="U37" t="n">
-        <v>1818.342969819737</v>
+        <v>1929.79831618928</v>
       </c>
       <c r="V37" t="n">
-        <v>1563.65848161385</v>
+        <v>1929.79831618928</v>
       </c>
       <c r="W37" t="n">
-        <v>1274.24131157689</v>
+        <v>1640.381146152319</v>
       </c>
       <c r="X37" t="n">
-        <v>1046.251760678872</v>
+        <v>1412.391595254302</v>
       </c>
       <c r="Y37" t="n">
-        <v>1009.950551280532</v>
+        <v>1191.599016110772</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2197.549268949163</v>
+        <v>2035.335715506917</v>
       </c>
       <c r="C38" t="n">
-        <v>1828.586752008751</v>
+        <v>1666.373198566506</v>
       </c>
       <c r="D38" t="n">
-        <v>1470.321053402001</v>
+        <v>1308.107499959755</v>
       </c>
       <c r="E38" t="n">
-        <v>1084.532800803757</v>
+        <v>922.3192473615109</v>
       </c>
       <c r="F38" t="n">
-        <v>673.5468960141491</v>
+        <v>511.3333425719033</v>
       </c>
       <c r="G38" t="n">
-        <v>259.2692643663403</v>
+        <v>97.05571092409456</v>
       </c>
       <c r="H38" t="n">
-        <v>97.05571092409457</v>
+        <v>97.05571092409456</v>
       </c>
       <c r="I38" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J38" t="n">
-        <v>340.6969722734623</v>
+        <v>340.6969722734624</v>
       </c>
       <c r="K38" t="n">
-        <v>773.6082731436601</v>
+        <v>773.6082731436603</v>
       </c>
       <c r="L38" t="n">
         <v>1347.574784366879</v>
       </c>
       <c r="M38" t="n">
-        <v>2017.892557053754</v>
+        <v>2017.892557053755</v>
       </c>
       <c r="N38" t="n">
-        <v>2703.670580477192</v>
+        <v>2703.670580477193</v>
       </c>
       <c r="O38" t="n">
         <v>3337.896060373233</v>
       </c>
       <c r="P38" t="n">
-        <v>3844.691833280481</v>
+        <v>3844.691833280482</v>
       </c>
       <c r="Q38" t="n">
         <v>4177.101606109321</v>
       </c>
       <c r="R38" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="S38" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109451</v>
       </c>
       <c r="T38" t="n">
-        <v>4285.05263310945</v>
+        <v>4122.839079667204</v>
       </c>
       <c r="U38" t="n">
-        <v>4031.585741863862</v>
+        <v>3869.372188421616</v>
       </c>
       <c r="V38" t="n">
-        <v>3700.522854520291</v>
+        <v>3538.309301078045</v>
       </c>
       <c r="W38" t="n">
-        <v>3347.754199250176</v>
+        <v>3185.540645807931</v>
       </c>
       <c r="X38" t="n">
-        <v>2974.288440989097</v>
+        <v>2812.074887546851</v>
       </c>
       <c r="Y38" t="n">
-        <v>2584.149109013285</v>
+        <v>2421.935555571039</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>90.06653139491658</v>
       </c>
       <c r="I39" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J39" t="n">
-        <v>85.701052662189</v>
+        <v>218.7570285287381</v>
       </c>
       <c r="K39" t="n">
-        <v>85.701052662189</v>
+        <v>524.3257088536227</v>
       </c>
       <c r="L39" t="n">
-        <v>542.8983940314674</v>
+        <v>836.5534873428848</v>
       </c>
       <c r="M39" t="n">
-        <v>1095.782994976246</v>
+        <v>836.5534873428848</v>
       </c>
       <c r="N39" t="n">
-        <v>1677.709451064306</v>
+        <v>1418.479943430944</v>
       </c>
       <c r="O39" t="n">
-        <v>2187.838674624933</v>
+        <v>1928.609166991572</v>
       </c>
       <c r="P39" t="n">
-        <v>2529.545821827122</v>
+        <v>2318.699776442482</v>
       </c>
       <c r="Q39" t="n">
         <v>2529.545821827122</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>779.7051760351196</v>
+        <v>980.1983919768616</v>
       </c>
       <c r="C40" t="n">
-        <v>779.7051760351196</v>
+        <v>927.6182696175127</v>
       </c>
       <c r="D40" t="n">
-        <v>629.5885366227839</v>
+        <v>777.501630205177</v>
       </c>
       <c r="E40" t="n">
         <v>629.5885366227839</v>
@@ -7329,25 +7329,25 @@
         <v>172.3049539270763</v>
       </c>
       <c r="I40" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218901</v>
       </c>
       <c r="J40" t="n">
-        <v>155.528619995381</v>
+        <v>155.5286199953811</v>
       </c>
       <c r="K40" t="n">
-        <v>400.1136000184965</v>
+        <v>400.1136000184966</v>
       </c>
       <c r="L40" t="n">
-        <v>768.6246013896927</v>
+        <v>768.6246013896928</v>
       </c>
       <c r="M40" t="n">
         <v>1167.556906375087</v>
       </c>
       <c r="N40" t="n">
-        <v>1562.438109227326</v>
+        <v>1562.438109227327</v>
       </c>
       <c r="O40" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921627</v>
       </c>
       <c r="P40" t="n">
         <v>2186.028388642897</v>
@@ -7356,28 +7356,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R40" t="n">
-        <v>2292.898959353379</v>
+        <v>2219.099307335916</v>
       </c>
       <c r="S40" t="n">
-        <v>2107.426389700291</v>
+        <v>2033.626737682828</v>
       </c>
       <c r="T40" t="n">
-        <v>1887.183122117725</v>
+        <v>1813.383470100262</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.183122117725</v>
+        <v>1524.300050219709</v>
       </c>
       <c r="V40" t="n">
-        <v>1632.498633911838</v>
+        <v>1269.615562013822</v>
       </c>
       <c r="W40" t="n">
-        <v>1343.081463874877</v>
+        <v>980.1983919768616</v>
       </c>
       <c r="X40" t="n">
-        <v>1115.09191297686</v>
+        <v>980.1983919768616</v>
       </c>
       <c r="Y40" t="n">
-        <v>894.2993338333298</v>
+        <v>980.1983919768616</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2035.335715506917</v>
+        <v>2156.338988854015</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.373198566506</v>
+        <v>1787.376471913604</v>
       </c>
       <c r="D41" t="n">
-        <v>1308.107499959755</v>
+        <v>1429.110773306853</v>
       </c>
       <c r="E41" t="n">
-        <v>922.3192473615109</v>
+        <v>1043.322520708609</v>
       </c>
       <c r="F41" t="n">
-        <v>511.3333425719033</v>
+        <v>632.3366159190016</v>
       </c>
       <c r="G41" t="n">
-        <v>97.05571092409458</v>
+        <v>218.0589842711929</v>
       </c>
       <c r="H41" t="n">
-        <v>97.05571092409458</v>
+        <v>97.05571092409457</v>
       </c>
       <c r="I41" t="n">
-        <v>85.70105266218901</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J41" t="n">
         <v>340.6969722734621</v>
       </c>
       <c r="K41" t="n">
-        <v>773.6082731436595</v>
+        <v>773.6082731436604</v>
       </c>
       <c r="L41" t="n">
-        <v>1347.574784366879</v>
+        <v>1347.57478436688</v>
       </c>
       <c r="M41" t="n">
-        <v>2017.892557053755</v>
+        <v>2017.892557053756</v>
       </c>
       <c r="N41" t="n">
-        <v>2703.670580477193</v>
+        <v>2703.670580477194</v>
       </c>
       <c r="O41" t="n">
-        <v>3337.896060373233</v>
+        <v>3337.896060373234</v>
       </c>
       <c r="P41" t="n">
-        <v>3844.691833280481</v>
+        <v>3844.691833280483</v>
       </c>
       <c r="Q41" t="n">
         <v>4177.101606109322</v>
       </c>
       <c r="R41" t="n">
-        <v>4285.052633109451</v>
+        <v>4285.052633109452</v>
       </c>
       <c r="S41" t="n">
-        <v>4192.873891369246</v>
+        <v>4192.873891369247</v>
       </c>
       <c r="T41" t="n">
-        <v>3990.375461768713</v>
+        <v>3990.375461768714</v>
       </c>
       <c r="U41" t="n">
-        <v>3736.908570523125</v>
+        <v>3990.375461768714</v>
       </c>
       <c r="V41" t="n">
-        <v>3538.309301078045</v>
+        <v>3659.312574425143</v>
       </c>
       <c r="W41" t="n">
-        <v>3185.540645807931</v>
+        <v>3306.543919155029</v>
       </c>
       <c r="X41" t="n">
-        <v>2812.074887546851</v>
+        <v>2933.078160893949</v>
       </c>
       <c r="Y41" t="n">
-        <v>2421.935555571039</v>
+        <v>2542.938828918137</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>90.06653139491659</v>
       </c>
       <c r="I42" t="n">
-        <v>85.70105266218901</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J42" t="n">
-        <v>218.7570285287381</v>
+        <v>218.7570285287382</v>
       </c>
       <c r="K42" t="n">
-        <v>524.3257088536227</v>
+        <v>218.7570285287382</v>
       </c>
       <c r="L42" t="n">
-        <v>981.5230502229011</v>
+        <v>283.6688863981055</v>
       </c>
       <c r="M42" t="n">
-        <v>981.5230502229011</v>
+        <v>836.5534873428848</v>
       </c>
       <c r="N42" t="n">
         <v>1418.479943430944</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>826.0084930963067</v>
+        <v>609.040018775625</v>
       </c>
       <c r="C43" t="n">
-        <v>826.0084930963067</v>
+        <v>440.1038358477181</v>
       </c>
       <c r="D43" t="n">
-        <v>777.501630205177</v>
+        <v>440.1038358477181</v>
       </c>
       <c r="E43" t="n">
-        <v>629.5885366227839</v>
+        <v>440.1038358477181</v>
       </c>
       <c r="F43" t="n">
-        <v>482.6985891248735</v>
+        <v>396.0946878599863</v>
       </c>
       <c r="G43" t="n">
-        <v>315.3522807193157</v>
+        <v>228.7483794544284</v>
       </c>
       <c r="H43" t="n">
-        <v>172.3049539270763</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="I43" t="n">
-        <v>85.70105266218901</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J43" t="n">
-        <v>155.528619995381</v>
+        <v>155.5286199953811</v>
       </c>
       <c r="K43" t="n">
-        <v>400.1136000184965</v>
+        <v>400.1136000184966</v>
       </c>
       <c r="L43" t="n">
         <v>768.6246013896928</v>
@@ -7584,7 +7584,7 @@
         <v>1562.438109227327</v>
       </c>
       <c r="O43" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921627</v>
       </c>
       <c r="P43" t="n">
         <v>2186.028388642897</v>
@@ -7596,25 +7596,25 @@
         <v>2292.898959353379</v>
       </c>
       <c r="S43" t="n">
-        <v>2107.426389700291</v>
+        <v>2292.898959353379</v>
       </c>
       <c r="T43" t="n">
-        <v>1887.183122117725</v>
+        <v>2072.655691770813</v>
       </c>
       <c r="U43" t="n">
-        <v>1598.099702237172</v>
+        <v>1783.57227189026</v>
       </c>
       <c r="V43" t="n">
-        <v>1343.415214031285</v>
+        <v>1528.887783684373</v>
       </c>
       <c r="W43" t="n">
-        <v>1053.998043994324</v>
+        <v>1239.470613647412</v>
       </c>
       <c r="X43" t="n">
-        <v>826.0084930963067</v>
+        <v>1011.481062749395</v>
       </c>
       <c r="Y43" t="n">
-        <v>826.0084930963067</v>
+        <v>790.6884836058647</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2324.779380861342</v>
+        <v>2197.549268949165</v>
       </c>
       <c r="C44" t="n">
-        <v>1955.81686392093</v>
+        <v>1828.586752008753</v>
       </c>
       <c r="D44" t="n">
-        <v>1597.55116531418</v>
+        <v>1470.321053402003</v>
       </c>
       <c r="E44" t="n">
-        <v>1211.762912715935</v>
+        <v>1084.532800803758</v>
       </c>
       <c r="F44" t="n">
-        <v>800.7770079263279</v>
+        <v>673.5468960141509</v>
       </c>
       <c r="G44" t="n">
-        <v>386.4993762785192</v>
+        <v>259.2692643663422</v>
       </c>
       <c r="H44" t="n">
-        <v>97.05571092409457</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="I44" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J44" t="n">
-        <v>340.6969722734623</v>
+        <v>340.6969722734621</v>
       </c>
       <c r="K44" t="n">
-        <v>773.6082731436601</v>
+        <v>773.6082731436609</v>
       </c>
       <c r="L44" t="n">
-        <v>1347.574784366879</v>
+        <v>1347.57478436688</v>
       </c>
       <c r="M44" t="n">
-        <v>2017.892557053754</v>
+        <v>2017.892557053756</v>
       </c>
       <c r="N44" t="n">
-        <v>2703.670580477192</v>
+        <v>2703.670580477194</v>
       </c>
       <c r="O44" t="n">
-        <v>3337.896060373233</v>
+        <v>3337.896060373234</v>
       </c>
       <c r="P44" t="n">
-        <v>3844.691833280481</v>
+        <v>3844.691833280483</v>
       </c>
       <c r="Q44" t="n">
-        <v>4177.101606109321</v>
+        <v>4177.101606109322</v>
       </c>
       <c r="R44" t="n">
-        <v>4285.05263310945</v>
+        <v>4285.052633109452</v>
       </c>
       <c r="S44" t="n">
-        <v>4192.873891369245</v>
+        <v>4285.052633109452</v>
       </c>
       <c r="T44" t="n">
-        <v>4192.873891369245</v>
+        <v>4285.052633109452</v>
       </c>
       <c r="U44" t="n">
-        <v>3939.407000123657</v>
+        <v>4031.585741863863</v>
       </c>
       <c r="V44" t="n">
-        <v>3608.344112780086</v>
+        <v>3700.522854520293</v>
       </c>
       <c r="W44" t="n">
-        <v>3255.575457509972</v>
+        <v>3347.754199250178</v>
       </c>
       <c r="X44" t="n">
-        <v>2882.109699248892</v>
+        <v>2974.288440989098</v>
       </c>
       <c r="Y44" t="n">
-        <v>2711.379220925464</v>
+        <v>2584.149109013287</v>
       </c>
     </row>
     <row r="45">
@@ -7721,19 +7721,19 @@
         <v>176.4612573582787</v>
       </c>
       <c r="H45" t="n">
-        <v>90.06653139491658</v>
+        <v>90.06653139491659</v>
       </c>
       <c r="I45" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J45" t="n">
-        <v>218.7570285287381</v>
+        <v>218.7570285287382</v>
       </c>
       <c r="K45" t="n">
-        <v>524.3257088536227</v>
+        <v>453.1450426335333</v>
       </c>
       <c r="L45" t="n">
-        <v>981.5230502229011</v>
+        <v>910.3423840028119</v>
       </c>
       <c r="M45" t="n">
         <v>1463.226984947591</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1009.950551280532</v>
+        <v>937.132099170968</v>
       </c>
       <c r="C46" t="n">
-        <v>841.0143683526254</v>
+        <v>777.501630205177</v>
       </c>
       <c r="D46" t="n">
-        <v>690.8977289402897</v>
+        <v>777.501630205177</v>
       </c>
       <c r="E46" t="n">
-        <v>542.9846353578965</v>
+        <v>629.5885366227839</v>
       </c>
       <c r="F46" t="n">
-        <v>396.0946878599862</v>
+        <v>482.6985891248735</v>
       </c>
       <c r="G46" t="n">
-        <v>228.7483794544284</v>
+        <v>315.3522807193157</v>
       </c>
       <c r="H46" t="n">
-        <v>85.701052662189</v>
+        <v>172.3049539270763</v>
       </c>
       <c r="I46" t="n">
-        <v>85.701052662189</v>
+        <v>85.70105266218903</v>
       </c>
       <c r="J46" t="n">
-        <v>155.528619995381</v>
+        <v>155.5286199953811</v>
       </c>
       <c r="K46" t="n">
-        <v>400.1136000184965</v>
+        <v>400.1136000184966</v>
       </c>
       <c r="L46" t="n">
-        <v>768.6246013896927</v>
+        <v>768.6246013896928</v>
       </c>
       <c r="M46" t="n">
         <v>1167.556906375087</v>
       </c>
       <c r="N46" t="n">
-        <v>1562.438109227326</v>
+        <v>1562.438109227327</v>
       </c>
       <c r="O46" t="n">
-        <v>1911.158517921626</v>
+        <v>1911.158517921627</v>
       </c>
       <c r="P46" t="n">
         <v>2186.028388642897</v>
@@ -7830,28 +7830,28 @@
         <v>2292.898959353379</v>
       </c>
       <c r="R46" t="n">
-        <v>2223.077607147493</v>
+        <v>2219.099307335916</v>
       </c>
       <c r="S46" t="n">
-        <v>2223.077607147493</v>
+        <v>2219.099307335916</v>
       </c>
       <c r="T46" t="n">
-        <v>2002.834339564927</v>
+        <v>2219.099307335916</v>
       </c>
       <c r="U46" t="n">
-        <v>2002.834339564927</v>
+        <v>1930.015887455363</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.14985135904</v>
+        <v>1675.331399249476</v>
       </c>
       <c r="W46" t="n">
-        <v>1458.73268132208</v>
+        <v>1385.914229212515</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.743130424062</v>
+        <v>1157.924678314498</v>
       </c>
       <c r="Y46" t="n">
-        <v>1009.950551280532</v>
+        <v>937.132099170968</v>
       </c>
     </row>
   </sheetData>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>106.0018201581672</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>66.0682960226066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>3.55697697365656</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>15.27130497314482</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>131.5852662392788</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>39.05343869664006</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>55.31424628985545</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>92.99907917315534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>235.2542119336712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23940,10 +23940,10 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696548</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.14213605696563</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>126.9470448471886</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>227.1771453250271</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>20.33464054614706</v>
+        <v>91.26811680410444</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>39.88202739670305</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.5492287008803</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>91.25695432280241</v>
+        <v>91.2569543228024</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.9322223331321</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>75.49903376445124</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>84.76647434341925</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.2206434346613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.06165549728793</v>
+        <v>73.06165549728792</v>
       </c>
       <c r="S25" t="n">
         <v>183.6178439565572</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>218.04083490674</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>78.69484027096468</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>11.24111167928652</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>68.44724170297212</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6728453215022</v>
       </c>
       <c r="H28" t="n">
         <v>141.616853524317</v>
       </c>
       <c r="I28" t="n">
-        <v>85.7378622522384</v>
+        <v>85.73786225223839</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.06165549728793</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>30.42893367104378</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>6.275869283781617</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>91.25695432280241</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>131.138981719505</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>326.4312560975844</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6728453215022</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.616853524317</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.7378622522384</v>
+        <v>85.73786225223839</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>73.06165549728793</v>
+        <v>73.06165549728792</v>
       </c>
       <c r="S31" t="n">
         <v>183.6178439565572</v>
       </c>
       <c r="T31" t="n">
-        <v>89.61172833403919</v>
+        <v>218.04083490674</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>178.860592273118</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>34.95436875690473</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>11.24111167928652</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9322223331321</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>155.5148764079683</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>162.7087824910852</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.6728453215022</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.616853524317</v>
       </c>
       <c r="I34" t="n">
-        <v>85.7378622522384</v>
+        <v>68.02338866509646</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>73.06165549728793</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>91.25695432280241</v>
+        <v>91.2569543228024</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>39.88202739670228</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>326.4312560975835</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.7378622522384</v>
+        <v>85.73786225223839</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>73.06165549728793</v>
+        <v>73.06165549728792</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>218.04083490674</v>
+        <v>42.18904213083948</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1925856817478</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>182.6464560477381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>125.957810793057</v>
+        <v>286.5492287008803</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>91.25695432280241</v>
+        <v>91.2569543228024</v>
       </c>
       <c r="T38" t="n">
-        <v>200.4734453045276</v>
+        <v>39.88202739670319</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.38376396170923</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>115.1924999628725</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>73.06165549728793</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.5492287008803</v>
+        <v>166.755988087253</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.9322223331321</v>
       </c>
       <c r="V41" t="n">
-        <v>131.1389817195056</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>100.593678755994</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>101.8519915150768</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.73786225223839</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>73.06165549728793</v>
+        <v>73.06165549728792</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.6178439565572</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>114.7166991137687</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>11.24111167928649</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>91.2569543228024</v>
       </c>
       <c r="T44" t="n">
         <v>200.4734453045276</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>217.2147651158598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>9.21265682249475</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.7378622522384</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.938516813460907</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>183.6178439565572</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>218.04083490674</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1925856817478</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>765442.2168613336</v>
+        <v>765442.2168613335</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>765442.2168613335</v>
+        <v>765442.2168613336</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>765442.2168613335</v>
+        <v>765442.2168613336</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>765442.2168613337</v>
+        <v>765442.2168613336</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862303.7502450219</v>
+        <v>862303.750245022</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862303.750245022</v>
+        <v>862303.7502450219</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862303.7502450218</v>
+        <v>862303.750245022</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862303.750245022</v>
+        <v>862303.7502450221</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862303.750245022</v>
+        <v>862303.7502450219</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862303.750245022</v>
+        <v>862303.7502450219</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862303.7502450218</v>
+        <v>862303.750245022</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.150411784</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117841</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117838</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
+        <v>443296.2286621969</v>
+      </c>
+      <c r="F2" t="n">
+        <v>443296.2286621968</v>
+      </c>
+      <c r="G2" t="n">
         <v>443296.228662197</v>
       </c>
-      <c r="F2" t="n">
-        <v>443296.228662197</v>
-      </c>
-      <c r="G2" t="n">
-        <v>443296.2286621972</v>
-      </c>
       <c r="H2" t="n">
-        <v>443296.2286621972</v>
+        <v>443296.2286621969</v>
       </c>
       <c r="I2" t="n">
         <v>500532.5892980128</v>
@@ -26343,19 +26343,19 @@
         <v>500532.5892980128</v>
       </c>
       <c r="L2" t="n">
-        <v>500532.589298013</v>
+        <v>500532.5892980129</v>
       </c>
       <c r="M2" t="n">
-        <v>500532.589298013</v>
+        <v>500532.5892980129</v>
       </c>
       <c r="N2" t="n">
+        <v>500532.5892980128</v>
+      </c>
+      <c r="O2" t="n">
+        <v>500532.5892980128</v>
+      </c>
+      <c r="P2" t="n">
         <v>500532.5892980129</v>
-      </c>
-      <c r="O2" t="n">
-        <v>500532.589298013</v>
-      </c>
-      <c r="P2" t="n">
-        <v>500532.5892980127</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208451</v>
+        <v>591356.9025208452</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.643633668</v>
+        <v>627134.6436336677</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>211122.8311070115</v>
+        <v>211122.8311070118</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678776</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161355</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
         <v>56985.80041161356</v>
@@ -26478,40 +26478,40 @@
         <v>56985.80041161356</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.34056139331</v>
       </c>
-      <c r="F5" t="n">
-        <v>74306.34056139333</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139333</v>
-      </c>
       <c r="H5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>93156.93313548899</v>
+        <v>93156.933135489</v>
       </c>
       <c r="J5" t="n">
-        <v>93156.93313548899</v>
+        <v>93156.933135489</v>
       </c>
       <c r="K5" t="n">
-        <v>93156.93313548897</v>
+        <v>93156.933135489</v>
       </c>
       <c r="L5" t="n">
-        <v>93156.93313548897</v>
+        <v>93156.933135489</v>
       </c>
       <c r="M5" t="n">
-        <v>93156.93313548899</v>
+        <v>93156.933135489</v>
       </c>
       <c r="N5" t="n">
-        <v>93156.93313548897</v>
+        <v>93156.933135489</v>
       </c>
       <c r="O5" t="n">
-        <v>93156.93313548899</v>
+        <v>93156.933135489</v>
       </c>
       <c r="P5" t="n">
-        <v>93156.93313548897</v>
+        <v>93156.933135489</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393202.1173548045</v>
+        <v>-393202.1173548048</v>
       </c>
       <c r="C6" t="n">
-        <v>198154.7851660404</v>
+        <v>198154.7851660406</v>
       </c>
       <c r="D6" t="n">
         <v>198154.7851660406</v>
       </c>
       <c r="E6" t="n">
-        <v>-277490.78758314</v>
+        <v>-274362.2172148848</v>
       </c>
       <c r="F6" t="n">
-        <v>349643.8560505277</v>
+        <v>352772.4264187829</v>
       </c>
       <c r="G6" t="n">
-        <v>349643.8560505285</v>
+        <v>352772.4264187829</v>
       </c>
       <c r="H6" t="n">
-        <v>349643.8560505282</v>
+        <v>352772.4264187831</v>
       </c>
       <c r="I6" t="n">
-        <v>178984.0542152423</v>
+        <v>180131.3659461033</v>
       </c>
       <c r="J6" t="n">
-        <v>341041.9405937093</v>
+        <v>342189.2523245706</v>
       </c>
       <c r="K6" t="n">
-        <v>390106.8853222537</v>
+        <v>391254.1970531151</v>
       </c>
       <c r="L6" t="n">
-        <v>390106.8853222539</v>
+        <v>391254.1970531151</v>
       </c>
       <c r="M6" t="n">
-        <v>229650.4434543763</v>
+        <v>230797.7551852376</v>
       </c>
       <c r="N6" t="n">
-        <v>390106.8853222538</v>
+        <v>391254.1970531151</v>
       </c>
       <c r="O6" t="n">
-        <v>390106.8853222539</v>
+        <v>391254.1970531151</v>
       </c>
       <c r="P6" t="n">
-        <v>390106.8853222537</v>
+        <v>391254.1970531151</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
         <v>548.4699409129043</v>
@@ -26749,13 +26749,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1285.510693221346</v>
@@ -26792,22 +26792,22 @@
         <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="D4" t="n">
         <v>187.5255871663198</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>1071.263158277363</v>
@@ -26816,22 +26816,22 @@
         <v>1071.263158277363</v>
       </c>
       <c r="K4" t="n">
-        <v>1071.263158277362</v>
+        <v>1071.263158277363</v>
       </c>
       <c r="L4" t="n">
-        <v>1071.263158277362</v>
+        <v>1071.263158277363</v>
       </c>
       <c r="M4" t="n">
         <v>1071.263158277363</v>
       </c>
       <c r="N4" t="n">
-        <v>1071.263158277362</v>
+        <v>1071.263158277363</v>
       </c>
       <c r="O4" t="n">
         <v>1071.263158277363</v>
       </c>
       <c r="P4" t="n">
-        <v>1071.263158277362</v>
+        <v>1071.263158277363</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541.306759680394</v>
+        <v>541.3067596803937</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>195.7339926280474</v>
+        <v>195.7339926280479</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359733</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>239.8617028750696</v>
+        <v>239.8617028750698</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359735</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359733</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046878</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059421</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>219.3504585753917</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>262.9527450242825</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>90.65887400239224</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871061</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121493</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>104.108117149489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27514,10 +27514,10 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437712</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>120.5265529650638</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098464</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>18.9583632678486</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709392</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159729</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.5806260587833</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>194.404782905942</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>54.52289784593395</v>
+        <v>25.91829388988705</v>
       </c>
       <c r="U5" t="n">
         <v>251.1692605650303</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>272.8643875145414</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="6">
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>132.1241054432005</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
         <v>58.90455890409151</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265844</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27754,13 +27754,13 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310554</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>20.170177365585</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27797,7 +27797,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>37.06597233494253</v>
+        <v>57.06999962825421</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159729</v>
+        <v>48.6820132582856</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971608</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27909,19 +27909,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871055</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>140.2266713038151</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>281.124029529752</v>
+        <v>161.7153815510932</v>
       </c>
       <c r="X8" t="n">
         <v>182.2055135121493</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>318.1209994683925</v>
       </c>
     </row>
     <row r="9">
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27955,7 +27955,7 @@
         <v>58.90455890409151</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265844</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27991,16 +27991,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310549</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459982</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>19.60804451093074</v>
+        <v>18.24739803715769</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>20.079887939412</v>
       </c>
     </row>
     <row r="10">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>115.0308748441937</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825421</v>
+        <v>4.854053373820037</v>
       </c>
       <c r="K10" t="n">
         <v>14.10430989402857</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
         <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U2" t="n">
         <v>0.17639234280616</v>
@@ -31126,43 +31126,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
         <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I4" t="n">
         <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353141</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32703,7 +32703,7 @@
         <v>5.167882183804402</v>
       </c>
       <c r="H23" t="n">
-        <v>52.92557341488684</v>
+        <v>52.92557341488686</v>
       </c>
       <c r="I23" t="n">
         <v>199.2347778911194</v>
@@ -32712,25 +32712,25 @@
         <v>438.6175404976693</v>
       </c>
       <c r="K23" t="n">
-        <v>657.3739933381097</v>
+        <v>657.3739933381098</v>
       </c>
       <c r="L23" t="n">
-        <v>815.5305677207139</v>
+        <v>815.530567720714</v>
       </c>
       <c r="M23" t="n">
-        <v>907.4348925069453</v>
+        <v>907.4348925069455</v>
       </c>
       <c r="N23" t="n">
-        <v>922.1181377616797</v>
+        <v>922.1181377616798</v>
       </c>
       <c r="O23" t="n">
-        <v>870.7300092964746</v>
+        <v>870.7300092964748</v>
       </c>
       <c r="P23" t="n">
-        <v>743.1479178838033</v>
+        <v>743.1479178838034</v>
       </c>
       <c r="Q23" t="n">
-        <v>558.073137176308</v>
+        <v>558.0731371763081</v>
       </c>
       <c r="R23" t="n">
         <v>324.6269792284036</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362896</v>
       </c>
       <c r="H24" t="n">
         <v>26.70466553276797</v>
       </c>
       <c r="I24" t="n">
-        <v>95.20055605459969</v>
+        <v>95.2005560545997</v>
       </c>
       <c r="J24" t="n">
-        <v>261.2376022894435</v>
+        <v>261.2376022894436</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>446.4966716257576</v>
       </c>
       <c r="L24" t="n">
-        <v>600.3698761124787</v>
+        <v>600.3698761124788</v>
       </c>
       <c r="M24" t="n">
-        <v>700.6033278056334</v>
+        <v>700.6033278056336</v>
       </c>
       <c r="N24" t="n">
-        <v>719.146213182383</v>
+        <v>647.2465503338083</v>
       </c>
       <c r="O24" t="n">
-        <v>657.8782884450789</v>
+        <v>657.878288445079</v>
       </c>
       <c r="P24" t="n">
-        <v>370.7299772171547</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.35979043200374</v>
+        <v>51.35979043200375</v>
       </c>
       <c r="T24" t="n">
         <v>11.14513516104167</v>
@@ -32858,37 +32858,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956526</v>
       </c>
       <c r="H25" t="n">
-        <v>20.61031898312257</v>
+        <v>20.61031898312258</v>
       </c>
       <c r="I25" t="n">
-        <v>69.71261267501988</v>
+        <v>69.7126126750199</v>
       </c>
       <c r="J25" t="n">
-        <v>163.8920764128263</v>
+        <v>163.8920764128264</v>
       </c>
       <c r="K25" t="n">
         <v>269.3250272027672</v>
       </c>
       <c r="L25" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580639</v>
       </c>
       <c r="M25" t="n">
         <v>363.3780472658306</v>
       </c>
       <c r="N25" t="n">
-        <v>354.7377294917201</v>
+        <v>354.7377294917202</v>
       </c>
       <c r="O25" t="n">
         <v>327.6577091509097</v>
       </c>
       <c r="P25" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969964</v>
       </c>
       <c r="Q25" t="n">
-        <v>194.1121146764232</v>
+        <v>194.1121146764233</v>
       </c>
       <c r="R25" t="n">
         <v>104.2317358798816</v>
@@ -32897,7 +32897,7 @@
         <v>40.39875408041507</v>
       </c>
       <c r="T25" t="n">
-        <v>9.904754521541514</v>
+        <v>9.904754521541516</v>
       </c>
       <c r="U25" t="n">
         <v>0.1264436747430834</v>
@@ -32940,7 +32940,7 @@
         <v>5.167882183804402</v>
       </c>
       <c r="H26" t="n">
-        <v>52.92557341488684</v>
+        <v>52.92557341488686</v>
       </c>
       <c r="I26" t="n">
         <v>199.2347778911194</v>
@@ -32949,25 +32949,25 @@
         <v>438.6175404976693</v>
       </c>
       <c r="K26" t="n">
-        <v>657.3739933381097</v>
+        <v>657.3739933381098</v>
       </c>
       <c r="L26" t="n">
-        <v>815.5305677207139</v>
+        <v>815.530567720714</v>
       </c>
       <c r="M26" t="n">
-        <v>907.4348925069453</v>
+        <v>907.4348925069455</v>
       </c>
       <c r="N26" t="n">
-        <v>922.1181377616797</v>
+        <v>922.1181377616798</v>
       </c>
       <c r="O26" t="n">
-        <v>870.7300092964746</v>
+        <v>870.7300092964748</v>
       </c>
       <c r="P26" t="n">
-        <v>743.1479178838033</v>
+        <v>743.1479178838034</v>
       </c>
       <c r="Q26" t="n">
-        <v>558.073137176308</v>
+        <v>558.0731371763081</v>
       </c>
       <c r="R26" t="n">
         <v>324.6269792284036</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362896</v>
       </c>
       <c r="H27" t="n">
         <v>26.70466553276797</v>
       </c>
       <c r="I27" t="n">
-        <v>95.20055605459969</v>
+        <v>95.2005560545997</v>
       </c>
       <c r="J27" t="n">
-        <v>261.2376022894435</v>
+        <v>261.2376022894436</v>
       </c>
       <c r="K27" t="n">
-        <v>374.597008777183</v>
+        <v>446.4966716257576</v>
       </c>
       <c r="L27" t="n">
-        <v>600.3698761124787</v>
+        <v>600.3698761124788</v>
       </c>
       <c r="M27" t="n">
-        <v>700.6033278056334</v>
+        <v>700.6033278056336</v>
       </c>
       <c r="N27" t="n">
-        <v>719.146213182383</v>
+        <v>719.1462131823831</v>
       </c>
       <c r="O27" t="n">
-        <v>657.8782884450789</v>
+        <v>585.9786255965037</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>51.35979043200374</v>
+        <v>51.35979043200375</v>
       </c>
       <c r="T27" t="n">
         <v>11.14513516104167</v>
@@ -33095,37 +33095,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956526</v>
       </c>
       <c r="H28" t="n">
-        <v>20.61031898312257</v>
+        <v>20.61031898312258</v>
       </c>
       <c r="I28" t="n">
-        <v>69.71261267501988</v>
+        <v>69.7126126750199</v>
       </c>
       <c r="J28" t="n">
-        <v>163.8920764128263</v>
+        <v>163.8920764128264</v>
       </c>
       <c r="K28" t="n">
         <v>269.3250272027672</v>
       </c>
       <c r="L28" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580639</v>
       </c>
       <c r="M28" t="n">
         <v>363.3780472658306</v>
       </c>
       <c r="N28" t="n">
-        <v>354.7377294917201</v>
+        <v>354.7377294917202</v>
       </c>
       <c r="O28" t="n">
         <v>327.6577091509097</v>
       </c>
       <c r="P28" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969964</v>
       </c>
       <c r="Q28" t="n">
-        <v>194.1121146764232</v>
+        <v>194.1121146764233</v>
       </c>
       <c r="R28" t="n">
         <v>104.2317358798816</v>
@@ -33134,7 +33134,7 @@
         <v>40.39875408041507</v>
       </c>
       <c r="T28" t="n">
-        <v>9.904754521541514</v>
+        <v>9.904754521541516</v>
       </c>
       <c r="U28" t="n">
         <v>0.1264436747430834</v>
@@ -33177,7 +33177,7 @@
         <v>5.167882183804402</v>
       </c>
       <c r="H29" t="n">
-        <v>52.92557341488684</v>
+        <v>52.92557341488686</v>
       </c>
       <c r="I29" t="n">
         <v>199.2347778911194</v>
@@ -33186,25 +33186,25 @@
         <v>438.6175404976693</v>
       </c>
       <c r="K29" t="n">
-        <v>657.3739933381097</v>
+        <v>657.3739933381098</v>
       </c>
       <c r="L29" t="n">
-        <v>815.5305677207139</v>
+        <v>815.530567720714</v>
       </c>
       <c r="M29" t="n">
-        <v>907.4348925069453</v>
+        <v>907.4348925069455</v>
       </c>
       <c r="N29" t="n">
-        <v>922.1181377616797</v>
+        <v>922.1181377616798</v>
       </c>
       <c r="O29" t="n">
-        <v>870.7300092964746</v>
+        <v>870.7300092964748</v>
       </c>
       <c r="P29" t="n">
-        <v>743.1479178838033</v>
+        <v>743.1479178838034</v>
       </c>
       <c r="Q29" t="n">
-        <v>558.073137176308</v>
+        <v>558.0731371763081</v>
       </c>
       <c r="R29" t="n">
         <v>324.6269792284036</v>
@@ -33253,43 +33253,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362896</v>
       </c>
       <c r="H30" t="n">
         <v>26.70466553276797</v>
       </c>
       <c r="I30" t="n">
-        <v>95.20055605459969</v>
+        <v>95.2005560545997</v>
       </c>
       <c r="J30" t="n">
-        <v>261.2376022894435</v>
+        <v>261.2376022894436</v>
       </c>
       <c r="K30" t="n">
-        <v>446.4966716257575</v>
+        <v>446.4966716257576</v>
       </c>
       <c r="L30" t="n">
-        <v>600.3698761124787</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>628.7036649570589</v>
+        <v>700.6033278056336</v>
       </c>
       <c r="N30" t="n">
-        <v>719.146213182383</v>
+        <v>719.1462131823831</v>
       </c>
       <c r="O30" t="n">
-        <v>657.8782884450789</v>
+        <v>657.878288445079</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>497.8934300204232</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>171.6763148418999</v>
       </c>
       <c r="S30" t="n">
-        <v>51.35979043200374</v>
+        <v>51.35979043200375</v>
       </c>
       <c r="T30" t="n">
         <v>11.14513516104167</v>
@@ -33332,37 +33332,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956526</v>
       </c>
       <c r="H31" t="n">
-        <v>20.61031898312257</v>
+        <v>20.61031898312258</v>
       </c>
       <c r="I31" t="n">
-        <v>69.71261267501988</v>
+        <v>69.7126126750199</v>
       </c>
       <c r="J31" t="n">
-        <v>163.8920764128263</v>
+        <v>163.8920764128264</v>
       </c>
       <c r="K31" t="n">
         <v>269.3250272027672</v>
       </c>
       <c r="L31" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580639</v>
       </c>
       <c r="M31" t="n">
         <v>363.3780472658306</v>
       </c>
       <c r="N31" t="n">
-        <v>354.7377294917201</v>
+        <v>354.7377294917202</v>
       </c>
       <c r="O31" t="n">
         <v>327.6577091509097</v>
       </c>
       <c r="P31" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969964</v>
       </c>
       <c r="Q31" t="n">
-        <v>194.1121146764232</v>
+        <v>194.1121146764233</v>
       </c>
       <c r="R31" t="n">
         <v>104.2317358798816</v>
@@ -33371,7 +33371,7 @@
         <v>40.39875408041507</v>
       </c>
       <c r="T31" t="n">
-        <v>9.904754521541514</v>
+        <v>9.904754521541516</v>
       </c>
       <c r="U31" t="n">
         <v>0.1264436747430834</v>
@@ -33414,7 +33414,7 @@
         <v>5.167882183804402</v>
       </c>
       <c r="H32" t="n">
-        <v>52.92557341488684</v>
+        <v>52.92557341488686</v>
       </c>
       <c r="I32" t="n">
         <v>199.2347778911194</v>
@@ -33423,25 +33423,25 @@
         <v>438.6175404976693</v>
       </c>
       <c r="K32" t="n">
-        <v>657.3739933381097</v>
+        <v>657.3739933381098</v>
       </c>
       <c r="L32" t="n">
-        <v>815.5305677207139</v>
+        <v>815.530567720714</v>
       </c>
       <c r="M32" t="n">
-        <v>907.4348925069453</v>
+        <v>907.4348925069455</v>
       </c>
       <c r="N32" t="n">
-        <v>922.1181377616797</v>
+        <v>922.1181377616798</v>
       </c>
       <c r="O32" t="n">
-        <v>870.7300092964746</v>
+        <v>870.7300092964748</v>
       </c>
       <c r="P32" t="n">
-        <v>743.1479178838033</v>
+        <v>743.1479178838034</v>
       </c>
       <c r="Q32" t="n">
-        <v>558.073137176308</v>
+        <v>558.0731371763081</v>
       </c>
       <c r="R32" t="n">
         <v>324.6269792284036</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362896</v>
       </c>
       <c r="H33" t="n">
         <v>26.70466553276797</v>
       </c>
       <c r="I33" t="n">
-        <v>95.20055605459969</v>
+        <v>95.2005560545997</v>
       </c>
       <c r="J33" t="n">
-        <v>261.2376022894435</v>
+        <v>261.2376022894436</v>
       </c>
       <c r="K33" t="n">
-        <v>446.4966716257575</v>
+        <v>446.4966716257576</v>
       </c>
       <c r="L33" t="n">
-        <v>600.3698761124787</v>
+        <v>600.3698761124788</v>
       </c>
       <c r="M33" t="n">
-        <v>700.6033278056334</v>
+        <v>700.6033278056336</v>
       </c>
       <c r="N33" t="n">
-        <v>647.2465503338085</v>
+        <v>719.1462131823831</v>
       </c>
       <c r="O33" t="n">
-        <v>657.8782884450789</v>
+        <v>585.9786255965037</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>51.35979043200374</v>
+        <v>51.35979043200375</v>
       </c>
       <c r="T33" t="n">
         <v>11.14513516104167</v>
@@ -33569,37 +33569,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956526</v>
       </c>
       <c r="H34" t="n">
-        <v>20.61031898312257</v>
+        <v>20.61031898312258</v>
       </c>
       <c r="I34" t="n">
-        <v>69.71261267501988</v>
+        <v>69.7126126750199</v>
       </c>
       <c r="J34" t="n">
-        <v>163.8920764128263</v>
+        <v>163.8920764128264</v>
       </c>
       <c r="K34" t="n">
         <v>269.3250272027672</v>
       </c>
       <c r="L34" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580639</v>
       </c>
       <c r="M34" t="n">
         <v>363.3780472658306</v>
       </c>
       <c r="N34" t="n">
-        <v>354.7377294917201</v>
+        <v>354.7377294917202</v>
       </c>
       <c r="O34" t="n">
         <v>327.6577091509097</v>
       </c>
       <c r="P34" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969964</v>
       </c>
       <c r="Q34" t="n">
-        <v>194.1121146764232</v>
+        <v>194.1121146764233</v>
       </c>
       <c r="R34" t="n">
         <v>104.2317358798816</v>
@@ -33608,7 +33608,7 @@
         <v>40.39875408041507</v>
       </c>
       <c r="T34" t="n">
-        <v>9.904754521541514</v>
+        <v>9.904754521541516</v>
       </c>
       <c r="U34" t="n">
         <v>0.1264436747430834</v>
@@ -33651,7 +33651,7 @@
         <v>5.167882183804402</v>
       </c>
       <c r="H35" t="n">
-        <v>52.92557341488684</v>
+        <v>52.92557341488686</v>
       </c>
       <c r="I35" t="n">
         <v>199.2347778911194</v>
@@ -33660,25 +33660,25 @@
         <v>438.6175404976693</v>
       </c>
       <c r="K35" t="n">
-        <v>657.3739933381097</v>
+        <v>657.3739933381098</v>
       </c>
       <c r="L35" t="n">
-        <v>815.5305677207139</v>
+        <v>815.530567720714</v>
       </c>
       <c r="M35" t="n">
-        <v>907.4348925069453</v>
+        <v>907.4348925069455</v>
       </c>
       <c r="N35" t="n">
-        <v>922.1181377616797</v>
+        <v>922.1181377616798</v>
       </c>
       <c r="O35" t="n">
-        <v>870.7300092964746</v>
+        <v>870.7300092964748</v>
       </c>
       <c r="P35" t="n">
-        <v>743.1479178838033</v>
+        <v>743.1479178838034</v>
       </c>
       <c r="Q35" t="n">
-        <v>558.073137176308</v>
+        <v>558.0731371763081</v>
       </c>
       <c r="R35" t="n">
         <v>324.6269792284036</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362896</v>
       </c>
       <c r="H36" t="n">
         <v>26.70466553276797</v>
       </c>
       <c r="I36" t="n">
-        <v>95.20055605459969</v>
+        <v>95.2005560545997</v>
       </c>
       <c r="J36" t="n">
-        <v>261.2376022894435</v>
+        <v>261.2376022894436</v>
       </c>
       <c r="K36" t="n">
-        <v>446.4966716257575</v>
+        <v>446.4966716257576</v>
       </c>
       <c r="L36" t="n">
-        <v>600.3698761124787</v>
+        <v>600.3698761124788</v>
       </c>
       <c r="M36" t="n">
-        <v>700.6033278056334</v>
+        <v>700.6033278056336</v>
       </c>
       <c r="N36" t="n">
-        <v>647.2465503338085</v>
+        <v>719.1462131823831</v>
       </c>
       <c r="O36" t="n">
-        <v>657.8782884450789</v>
+        <v>585.9786255965037</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>51.35979043200374</v>
+        <v>51.35979043200375</v>
       </c>
       <c r="T36" t="n">
         <v>11.14513516104167</v>
@@ -33806,37 +33806,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956526</v>
       </c>
       <c r="H37" t="n">
-        <v>20.61031898312257</v>
+        <v>20.61031898312258</v>
       </c>
       <c r="I37" t="n">
-        <v>69.71261267501988</v>
+        <v>69.7126126750199</v>
       </c>
       <c r="J37" t="n">
-        <v>163.8920764128263</v>
+        <v>163.8920764128264</v>
       </c>
       <c r="K37" t="n">
         <v>269.3250272027672</v>
       </c>
       <c r="L37" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580639</v>
       </c>
       <c r="M37" t="n">
         <v>363.3780472658306</v>
       </c>
       <c r="N37" t="n">
-        <v>354.7377294917201</v>
+        <v>354.7377294917202</v>
       </c>
       <c r="O37" t="n">
         <v>327.6577091509097</v>
       </c>
       <c r="P37" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969964</v>
       </c>
       <c r="Q37" t="n">
-        <v>194.1121146764232</v>
+        <v>194.1121146764233</v>
       </c>
       <c r="R37" t="n">
         <v>104.2317358798816</v>
@@ -33845,7 +33845,7 @@
         <v>40.39875408041507</v>
       </c>
       <c r="T37" t="n">
-        <v>9.904754521541514</v>
+        <v>9.904754521541516</v>
       </c>
       <c r="U37" t="n">
         <v>0.1264436747430834</v>
@@ -33888,7 +33888,7 @@
         <v>5.167882183804402</v>
       </c>
       <c r="H38" t="n">
-        <v>52.92557341488684</v>
+        <v>52.92557341488686</v>
       </c>
       <c r="I38" t="n">
         <v>199.2347778911194</v>
@@ -33897,25 +33897,25 @@
         <v>438.6175404976693</v>
       </c>
       <c r="K38" t="n">
-        <v>657.3739933381097</v>
+        <v>657.3739933381098</v>
       </c>
       <c r="L38" t="n">
-        <v>815.5305677207139</v>
+        <v>815.530567720714</v>
       </c>
       <c r="M38" t="n">
-        <v>907.4348925069453</v>
+        <v>907.4348925069455</v>
       </c>
       <c r="N38" t="n">
-        <v>922.1181377616797</v>
+        <v>922.1181377616798</v>
       </c>
       <c r="O38" t="n">
-        <v>870.7300092964746</v>
+        <v>870.7300092964748</v>
       </c>
       <c r="P38" t="n">
-        <v>743.1479178838033</v>
+        <v>743.1479178838034</v>
       </c>
       <c r="Q38" t="n">
-        <v>558.073137176308</v>
+        <v>558.0731371763081</v>
       </c>
       <c r="R38" t="n">
         <v>324.6269792284036</v>
@@ -33964,43 +33964,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362896</v>
       </c>
       <c r="H39" t="n">
         <v>26.70466553276797</v>
       </c>
       <c r="I39" t="n">
-        <v>95.20055605459969</v>
+        <v>95.2005560545997</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>261.2376022894436</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>446.4966716257576</v>
       </c>
       <c r="L39" t="n">
-        <v>600.3698761124787</v>
+        <v>453.9359742134722</v>
       </c>
       <c r="M39" t="n">
-        <v>700.6033278056334</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>719.146213182383</v>
+        <v>719.1462131823831</v>
       </c>
       <c r="O39" t="n">
-        <v>657.8782884450789</v>
+        <v>657.878288445079</v>
       </c>
       <c r="P39" t="n">
-        <v>479.1331419619954</v>
+        <v>528.005326051613</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>352.9575775048497</v>
       </c>
       <c r="R39" t="n">
-        <v>171.6763148418998</v>
+        <v>171.6763148418999</v>
       </c>
       <c r="S39" t="n">
-        <v>51.35979043200374</v>
+        <v>51.35979043200375</v>
       </c>
       <c r="T39" t="n">
         <v>11.14513516104167</v>
@@ -34043,37 +34043,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956526</v>
       </c>
       <c r="H40" t="n">
-        <v>20.61031898312257</v>
+        <v>20.61031898312258</v>
       </c>
       <c r="I40" t="n">
-        <v>69.71261267501988</v>
+        <v>69.7126126750199</v>
       </c>
       <c r="J40" t="n">
-        <v>163.8920764128263</v>
+        <v>163.8920764128264</v>
       </c>
       <c r="K40" t="n">
         <v>269.3250272027672</v>
       </c>
       <c r="L40" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580639</v>
       </c>
       <c r="M40" t="n">
         <v>363.3780472658306</v>
       </c>
       <c r="N40" t="n">
-        <v>354.7377294917201</v>
+        <v>354.7377294917202</v>
       </c>
       <c r="O40" t="n">
         <v>327.6577091509097</v>
       </c>
       <c r="P40" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969964</v>
       </c>
       <c r="Q40" t="n">
-        <v>194.1121146764232</v>
+        <v>194.1121146764233</v>
       </c>
       <c r="R40" t="n">
         <v>104.2317358798816</v>
@@ -34082,7 +34082,7 @@
         <v>40.39875408041507</v>
       </c>
       <c r="T40" t="n">
-        <v>9.904754521541514</v>
+        <v>9.904754521541516</v>
       </c>
       <c r="U40" t="n">
         <v>0.1264436747430834</v>
@@ -34125,7 +34125,7 @@
         <v>5.167882183804402</v>
       </c>
       <c r="H41" t="n">
-        <v>52.92557341488684</v>
+        <v>52.92557341488686</v>
       </c>
       <c r="I41" t="n">
         <v>199.2347778911194</v>
@@ -34134,25 +34134,25 @@
         <v>438.6175404976693</v>
       </c>
       <c r="K41" t="n">
-        <v>657.3739933381097</v>
+        <v>657.3739933381098</v>
       </c>
       <c r="L41" t="n">
-        <v>815.5305677207139</v>
+        <v>815.530567720714</v>
       </c>
       <c r="M41" t="n">
-        <v>907.4348925069453</v>
+        <v>907.4348925069455</v>
       </c>
       <c r="N41" t="n">
-        <v>922.1181377616797</v>
+        <v>922.1181377616798</v>
       </c>
       <c r="O41" t="n">
-        <v>870.7300092964746</v>
+        <v>870.7300092964748</v>
       </c>
       <c r="P41" t="n">
-        <v>743.1479178838033</v>
+        <v>743.1479178838034</v>
       </c>
       <c r="Q41" t="n">
-        <v>558.073137176308</v>
+        <v>558.0731371763081</v>
       </c>
       <c r="R41" t="n">
         <v>324.6269792284036</v>
@@ -34201,43 +34201,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362896</v>
       </c>
       <c r="H42" t="n">
         <v>26.70466553276797</v>
       </c>
       <c r="I42" t="n">
-        <v>95.20055605459969</v>
+        <v>95.2005560545997</v>
       </c>
       <c r="J42" t="n">
-        <v>261.2376022894435</v>
+        <v>261.2376022894436</v>
       </c>
       <c r="K42" t="n">
-        <v>446.4966716257575</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>600.3698761124787</v>
+        <v>204.1219129812554</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>700.6033278056336</v>
       </c>
       <c r="N42" t="n">
-        <v>572.7123112833769</v>
+        <v>719.1462131823831</v>
       </c>
       <c r="O42" t="n">
-        <v>657.8782884450789</v>
+        <v>657.878288445079</v>
       </c>
       <c r="P42" t="n">
-        <v>528.0053260516129</v>
+        <v>528.005326051613</v>
       </c>
       <c r="Q42" t="n">
-        <v>352.9575775048496</v>
+        <v>352.9575775048497</v>
       </c>
       <c r="R42" t="n">
-        <v>171.6763148418998</v>
+        <v>171.6763148418999</v>
       </c>
       <c r="S42" t="n">
-        <v>51.35979043200374</v>
+        <v>51.35979043200375</v>
       </c>
       <c r="T42" t="n">
         <v>11.14513516104167</v>
@@ -34280,37 +34280,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956526</v>
       </c>
       <c r="H43" t="n">
-        <v>20.61031898312257</v>
+        <v>20.61031898312258</v>
       </c>
       <c r="I43" t="n">
-        <v>69.71261267501988</v>
+        <v>69.7126126750199</v>
       </c>
       <c r="J43" t="n">
-        <v>163.8920764128263</v>
+        <v>163.8920764128264</v>
       </c>
       <c r="K43" t="n">
         <v>269.3250272027672</v>
       </c>
       <c r="L43" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580639</v>
       </c>
       <c r="M43" t="n">
         <v>363.3780472658306</v>
       </c>
       <c r="N43" t="n">
-        <v>354.7377294917201</v>
+        <v>354.7377294917202</v>
       </c>
       <c r="O43" t="n">
         <v>327.6577091509097</v>
       </c>
       <c r="P43" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969964</v>
       </c>
       <c r="Q43" t="n">
-        <v>194.1121146764232</v>
+        <v>194.1121146764233</v>
       </c>
       <c r="R43" t="n">
         <v>104.2317358798816</v>
@@ -34319,7 +34319,7 @@
         <v>40.39875408041507</v>
       </c>
       <c r="T43" t="n">
-        <v>9.904754521541514</v>
+        <v>9.904754521541516</v>
       </c>
       <c r="U43" t="n">
         <v>0.1264436747430834</v>
@@ -34362,7 +34362,7 @@
         <v>5.167882183804402</v>
       </c>
       <c r="H44" t="n">
-        <v>52.92557341488684</v>
+        <v>52.92557341488686</v>
       </c>
       <c r="I44" t="n">
         <v>199.2347778911194</v>
@@ -34371,25 +34371,25 @@
         <v>438.6175404976693</v>
       </c>
       <c r="K44" t="n">
-        <v>657.3739933381097</v>
+        <v>657.3739933381098</v>
       </c>
       <c r="L44" t="n">
-        <v>815.5305677207139</v>
+        <v>815.530567720714</v>
       </c>
       <c r="M44" t="n">
-        <v>907.4348925069453</v>
+        <v>907.4348925069455</v>
       </c>
       <c r="N44" t="n">
-        <v>922.1181377616797</v>
+        <v>922.1181377616798</v>
       </c>
       <c r="O44" t="n">
-        <v>870.7300092964746</v>
+        <v>870.7300092964748</v>
       </c>
       <c r="P44" t="n">
-        <v>743.1479178838033</v>
+        <v>743.1479178838034</v>
       </c>
       <c r="Q44" t="n">
-        <v>558.073137176308</v>
+        <v>558.0731371763081</v>
       </c>
       <c r="R44" t="n">
         <v>324.6269792284036</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.765060736362895</v>
+        <v>2.765060736362896</v>
       </c>
       <c r="H45" t="n">
         <v>26.70466553276797</v>
       </c>
       <c r="I45" t="n">
-        <v>95.20055605459969</v>
+        <v>95.2005560545997</v>
       </c>
       <c r="J45" t="n">
-        <v>261.2376022894435</v>
+        <v>261.2376022894436</v>
       </c>
       <c r="K45" t="n">
-        <v>446.4966716257575</v>
+        <v>374.5970087771824</v>
       </c>
       <c r="L45" t="n">
-        <v>600.3698761124787</v>
+        <v>600.3698761124788</v>
       </c>
       <c r="M45" t="n">
-        <v>628.7036649570589</v>
+        <v>700.6033278056336</v>
       </c>
       <c r="N45" t="n">
-        <v>719.146213182383</v>
+        <v>719.1462131823831</v>
       </c>
       <c r="O45" t="n">
-        <v>657.8782884450789</v>
+        <v>657.878288445079</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,7 +34474,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>51.35979043200374</v>
+        <v>51.35979043200375</v>
       </c>
       <c r="T45" t="n">
         <v>11.14513516104167</v>
@@ -34517,37 +34517,37 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.318134036956525</v>
+        <v>2.318134036956526</v>
       </c>
       <c r="H46" t="n">
-        <v>20.61031898312257</v>
+        <v>20.61031898312258</v>
       </c>
       <c r="I46" t="n">
-        <v>69.71261267501988</v>
+        <v>69.7126126750199</v>
       </c>
       <c r="J46" t="n">
-        <v>163.8920764128263</v>
+        <v>163.8920764128264</v>
       </c>
       <c r="K46" t="n">
         <v>269.3250272027672</v>
       </c>
       <c r="L46" t="n">
-        <v>344.6433094580638</v>
+        <v>344.6433094580639</v>
       </c>
       <c r="M46" t="n">
         <v>363.3780472658306</v>
       </c>
       <c r="N46" t="n">
-        <v>354.7377294917201</v>
+        <v>354.7377294917202</v>
       </c>
       <c r="O46" t="n">
         <v>327.6577091509097</v>
       </c>
       <c r="P46" t="n">
-        <v>280.3677747969963</v>
+        <v>280.3677747969964</v>
       </c>
       <c r="Q46" t="n">
-        <v>194.1121146764232</v>
+        <v>194.1121146764233</v>
       </c>
       <c r="R46" t="n">
         <v>104.2317358798816</v>
@@ -34556,7 +34556,7 @@
         <v>40.39875408041507</v>
       </c>
       <c r="T46" t="n">
-        <v>9.904754521541514</v>
+        <v>9.904754521541516</v>
       </c>
       <c r="U46" t="n">
         <v>0.1264436747430834</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
         <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
         <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646072</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061146</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520818</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400467</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609551</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>257.571635970983</v>
       </c>
       <c r="K23" t="n">
-        <v>437.2841422931292</v>
+        <v>437.2841422931293</v>
       </c>
       <c r="L23" t="n">
         <v>579.7641527507267</v>
       </c>
       <c r="M23" t="n">
-        <v>677.0886592796726</v>
+        <v>677.0886592796728</v>
       </c>
       <c r="N23" t="n">
-        <v>692.7050741650887</v>
+        <v>692.7050741650889</v>
       </c>
       <c r="O23" t="n">
-        <v>640.6317978747878</v>
+        <v>640.631797874788</v>
       </c>
       <c r="P23" t="n">
-        <v>511.9149221285338</v>
+        <v>511.9149221285339</v>
       </c>
       <c r="Q23" t="n">
-        <v>335.7674473018585</v>
+        <v>335.7674473018586</v>
       </c>
       <c r="R23" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142715</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>308.6552326513986</v>
       </c>
       <c r="L24" t="n">
-        <v>461.8154963326045</v>
+        <v>461.8154963326046</v>
       </c>
       <c r="M24" t="n">
-        <v>558.4692938836151</v>
+        <v>558.4692938836154</v>
       </c>
       <c r="N24" t="n">
-        <v>587.8045010990497</v>
+        <v>515.904838250475</v>
       </c>
       <c r="O24" t="n">
-        <v>515.2820440006344</v>
+        <v>515.2820440006345</v>
       </c>
       <c r="P24" t="n">
-        <v>236.7555698028244</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.53289629615355</v>
+        <v>70.53289629615358</v>
       </c>
       <c r="K25" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768844</v>
       </c>
       <c r="L25" t="n">
         <v>372.23333471838</v>
       </c>
       <c r="M25" t="n">
-        <v>402.9619242276711</v>
+        <v>402.9619242276712</v>
       </c>
       <c r="N25" t="n">
         <v>398.8699018709488</v>
@@ -36533,10 +36533,10 @@
         <v>352.2428370649494</v>
       </c>
       <c r="P25" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618899</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.9500714247288</v>
+        <v>107.9500714247289</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>257.571635970983</v>
       </c>
       <c r="K26" t="n">
-        <v>437.2841422931292</v>
+        <v>437.2841422931293</v>
       </c>
       <c r="L26" t="n">
         <v>579.7641527507267</v>
       </c>
       <c r="M26" t="n">
-        <v>677.0886592796726</v>
+        <v>677.0886592796728</v>
       </c>
       <c r="N26" t="n">
-        <v>692.7050741650887</v>
+        <v>692.7050741650889</v>
       </c>
       <c r="O26" t="n">
-        <v>640.6317978747878</v>
+        <v>640.631797874788</v>
       </c>
       <c r="P26" t="n">
-        <v>511.9149221285338</v>
+        <v>511.9149221285339</v>
       </c>
       <c r="Q26" t="n">
-        <v>335.7674473018585</v>
+        <v>335.7674473018586</v>
       </c>
       <c r="R26" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142715</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K27" t="n">
-        <v>236.755569802824</v>
+        <v>308.6552326513986</v>
       </c>
       <c r="L27" t="n">
-        <v>461.8154963326045</v>
+        <v>461.8154963326046</v>
       </c>
       <c r="M27" t="n">
-        <v>558.4692938836151</v>
+        <v>558.4692938836154</v>
       </c>
       <c r="N27" t="n">
-        <v>587.8045010990497</v>
+        <v>587.8045010990498</v>
       </c>
       <c r="O27" t="n">
-        <v>515.2820440006344</v>
+        <v>443.3823811520592</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>70.53289629615355</v>
+        <v>70.53289629615358</v>
       </c>
       <c r="K28" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768844</v>
       </c>
       <c r="L28" t="n">
         <v>372.23333471838</v>
       </c>
       <c r="M28" t="n">
-        <v>402.9619242276711</v>
+        <v>402.9619242276712</v>
       </c>
       <c r="N28" t="n">
         <v>398.8699018709488</v>
@@ -36770,10 +36770,10 @@
         <v>352.2428370649494</v>
       </c>
       <c r="P28" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618899</v>
       </c>
       <c r="Q28" t="n">
-        <v>107.9500714247288</v>
+        <v>107.9500714247289</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>257.571635970983</v>
       </c>
       <c r="K29" t="n">
-        <v>437.2841422931292</v>
+        <v>437.2841422931293</v>
       </c>
       <c r="L29" t="n">
         <v>579.7641527507267</v>
       </c>
       <c r="M29" t="n">
-        <v>677.0886592796726</v>
+        <v>677.0886592796728</v>
       </c>
       <c r="N29" t="n">
-        <v>692.7050741650887</v>
+        <v>692.7050741650889</v>
       </c>
       <c r="O29" t="n">
-        <v>640.6317978747878</v>
+        <v>640.631797874788</v>
       </c>
       <c r="P29" t="n">
-        <v>511.9149221285338</v>
+        <v>511.9149221285339</v>
       </c>
       <c r="Q29" t="n">
-        <v>335.7674473018585</v>
+        <v>335.7674473018586</v>
       </c>
       <c r="R29" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142715</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K30" t="n">
-        <v>308.6552326513985</v>
+        <v>308.6552326513986</v>
       </c>
       <c r="L30" t="n">
-        <v>461.8154963326045</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>486.5696310350406</v>
+        <v>558.4692938836154</v>
       </c>
       <c r="N30" t="n">
-        <v>587.8045010990497</v>
+        <v>587.8045010990498</v>
       </c>
       <c r="O30" t="n">
-        <v>515.2820440006344</v>
+        <v>515.2820440006345</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>363.919022606093</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.9968108779359</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>70.53289629615355</v>
+        <v>70.53289629615358</v>
       </c>
       <c r="K31" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768844</v>
       </c>
       <c r="L31" t="n">
         <v>372.23333471838</v>
       </c>
       <c r="M31" t="n">
-        <v>402.9619242276711</v>
+        <v>402.9619242276712</v>
       </c>
       <c r="N31" t="n">
         <v>398.8699018709488</v>
@@ -37007,10 +37007,10 @@
         <v>352.2428370649494</v>
       </c>
       <c r="P31" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618899</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.9500714247288</v>
+        <v>107.9500714247289</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>257.571635970983</v>
       </c>
       <c r="K32" t="n">
-        <v>437.2841422931292</v>
+        <v>437.2841422931293</v>
       </c>
       <c r="L32" t="n">
         <v>579.7641527507267</v>
       </c>
       <c r="M32" t="n">
-        <v>677.0886592796726</v>
+        <v>677.0886592796728</v>
       </c>
       <c r="N32" t="n">
-        <v>692.7050741650887</v>
+        <v>692.7050741650889</v>
       </c>
       <c r="O32" t="n">
-        <v>640.6317978747878</v>
+        <v>640.631797874788</v>
       </c>
       <c r="P32" t="n">
-        <v>511.9149221285338</v>
+        <v>511.9149221285339</v>
       </c>
       <c r="Q32" t="n">
-        <v>335.7674473018585</v>
+        <v>335.7674473018586</v>
       </c>
       <c r="R32" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142715</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K33" t="n">
-        <v>308.6552326513985</v>
+        <v>308.6552326513986</v>
       </c>
       <c r="L33" t="n">
-        <v>461.8154963326045</v>
+        <v>461.8154963326046</v>
       </c>
       <c r="M33" t="n">
-        <v>558.4692938836151</v>
+        <v>558.4692938836154</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9048382504752</v>
+        <v>587.8045010990498</v>
       </c>
       <c r="O33" t="n">
-        <v>515.2820440006344</v>
+        <v>443.3823811520592</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>70.53289629615355</v>
+        <v>70.53289629615358</v>
       </c>
       <c r="K34" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768844</v>
       </c>
       <c r="L34" t="n">
         <v>372.23333471838</v>
       </c>
       <c r="M34" t="n">
-        <v>402.9619242276711</v>
+        <v>402.9619242276712</v>
       </c>
       <c r="N34" t="n">
         <v>398.8699018709488</v>
@@ -37244,10 +37244,10 @@
         <v>352.2428370649494</v>
       </c>
       <c r="P34" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618899</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.9500714247288</v>
+        <v>107.9500714247289</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>257.571635970983</v>
       </c>
       <c r="K35" t="n">
-        <v>437.2841422931292</v>
+        <v>437.2841422931293</v>
       </c>
       <c r="L35" t="n">
         <v>579.7641527507267</v>
       </c>
       <c r="M35" t="n">
-        <v>677.0886592796726</v>
+        <v>677.0886592796728</v>
       </c>
       <c r="N35" t="n">
-        <v>692.7050741650887</v>
+        <v>692.7050741650889</v>
       </c>
       <c r="O35" t="n">
-        <v>640.6317978747878</v>
+        <v>640.631797874788</v>
       </c>
       <c r="P35" t="n">
-        <v>511.9149221285338</v>
+        <v>511.9149221285339</v>
       </c>
       <c r="Q35" t="n">
-        <v>335.7674473018585</v>
+        <v>335.7674473018586</v>
       </c>
       <c r="R35" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142715</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,19 +37387,19 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K36" t="n">
-        <v>308.6552326513985</v>
+        <v>308.6552326513986</v>
       </c>
       <c r="L36" t="n">
-        <v>461.8154963326045</v>
+        <v>461.8154963326046</v>
       </c>
       <c r="M36" t="n">
-        <v>558.4692938836151</v>
+        <v>558.4692938836154</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9048382504752</v>
+        <v>587.8045010990498</v>
       </c>
       <c r="O36" t="n">
-        <v>515.2820440006344</v>
+        <v>443.3823811520592</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>70.53289629615355</v>
+        <v>70.53289629615358</v>
       </c>
       <c r="K37" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768844</v>
       </c>
       <c r="L37" t="n">
         <v>372.23333471838</v>
       </c>
       <c r="M37" t="n">
-        <v>402.9619242276711</v>
+        <v>402.9619242276712</v>
       </c>
       <c r="N37" t="n">
         <v>398.8699018709488</v>
@@ -37481,10 +37481,10 @@
         <v>352.2428370649494</v>
       </c>
       <c r="P37" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618899</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.9500714247288</v>
+        <v>107.9500714247289</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>257.571635970983</v>
       </c>
       <c r="K38" t="n">
-        <v>437.2841422931292</v>
+        <v>437.2841422931293</v>
       </c>
       <c r="L38" t="n">
         <v>579.7641527507267</v>
       </c>
       <c r="M38" t="n">
-        <v>677.0886592796726</v>
+        <v>677.0886592796728</v>
       </c>
       <c r="N38" t="n">
-        <v>692.7050741650887</v>
+        <v>692.7050741650889</v>
       </c>
       <c r="O38" t="n">
-        <v>640.6317978747878</v>
+        <v>640.631797874788</v>
       </c>
       <c r="P38" t="n">
-        <v>511.9149221285338</v>
+        <v>511.9149221285339</v>
       </c>
       <c r="Q38" t="n">
-        <v>335.7674473018585</v>
+        <v>335.7674473018586</v>
       </c>
       <c r="R38" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142715</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.3999756227769</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>308.6552326513986</v>
       </c>
       <c r="L39" t="n">
-        <v>461.8154963326045</v>
+        <v>315.381594433598</v>
       </c>
       <c r="M39" t="n">
-        <v>558.4692938836151</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>587.8045010990497</v>
+        <v>587.8045010990498</v>
       </c>
       <c r="O39" t="n">
-        <v>515.2820440006344</v>
+        <v>515.2820440006345</v>
       </c>
       <c r="P39" t="n">
-        <v>345.1587345476651</v>
+        <v>394.0309186372828</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>212.9758034188281</v>
       </c>
       <c r="R39" t="n">
-        <v>25.99681087793587</v>
+        <v>25.9968108779359</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>70.53289629615355</v>
+        <v>70.53289629615358</v>
       </c>
       <c r="K40" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768844</v>
       </c>
       <c r="L40" t="n">
         <v>372.23333471838</v>
       </c>
       <c r="M40" t="n">
-        <v>402.9619242276711</v>
+        <v>402.9619242276712</v>
       </c>
       <c r="N40" t="n">
         <v>398.8699018709488</v>
@@ -37718,10 +37718,10 @@
         <v>352.2428370649494</v>
       </c>
       <c r="P40" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618899</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.9500714247288</v>
+        <v>107.9500714247289</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>257.571635970983</v>
       </c>
       <c r="K41" t="n">
-        <v>437.2841422931292</v>
+        <v>437.2841422931293</v>
       </c>
       <c r="L41" t="n">
         <v>579.7641527507267</v>
       </c>
       <c r="M41" t="n">
-        <v>677.0886592796726</v>
+        <v>677.0886592796728</v>
       </c>
       <c r="N41" t="n">
-        <v>692.7050741650887</v>
+        <v>692.7050741650889</v>
       </c>
       <c r="O41" t="n">
-        <v>640.6317978747878</v>
+        <v>640.631797874788</v>
       </c>
       <c r="P41" t="n">
-        <v>511.9149221285338</v>
+        <v>511.9149221285339</v>
       </c>
       <c r="Q41" t="n">
-        <v>335.7674473018585</v>
+        <v>335.7674473018586</v>
       </c>
       <c r="R41" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142715</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K42" t="n">
-        <v>308.6552326513985</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>461.8154963326045</v>
+        <v>65.56753320138118</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>558.4692938836154</v>
       </c>
       <c r="N42" t="n">
-        <v>441.3705992000436</v>
+        <v>587.8045010990498</v>
       </c>
       <c r="O42" t="n">
-        <v>515.2820440006344</v>
+        <v>515.2820440006345</v>
       </c>
       <c r="P42" t="n">
-        <v>394.0309186372826</v>
+        <v>394.0309186372828</v>
       </c>
       <c r="Q42" t="n">
         <v>212.9758034188281</v>
       </c>
       <c r="R42" t="n">
-        <v>25.99681087793587</v>
+        <v>25.9968108779359</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>70.53289629615355</v>
+        <v>70.53289629615358</v>
       </c>
       <c r="K43" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768844</v>
       </c>
       <c r="L43" t="n">
         <v>372.23333471838</v>
       </c>
       <c r="M43" t="n">
-        <v>402.9619242276711</v>
+        <v>402.9619242276712</v>
       </c>
       <c r="N43" t="n">
         <v>398.8699018709488</v>
@@ -37955,10 +37955,10 @@
         <v>352.2428370649494</v>
       </c>
       <c r="P43" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618899</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.9500714247288</v>
+        <v>107.9500714247289</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>257.571635970983</v>
       </c>
       <c r="K44" t="n">
-        <v>437.2841422931292</v>
+        <v>437.2841422931293</v>
       </c>
       <c r="L44" t="n">
         <v>579.7641527507267</v>
       </c>
       <c r="M44" t="n">
-        <v>677.0886592796726</v>
+        <v>677.0886592796728</v>
       </c>
       <c r="N44" t="n">
-        <v>692.7050741650887</v>
+        <v>692.7050741650889</v>
       </c>
       <c r="O44" t="n">
-        <v>640.6317978747878</v>
+        <v>640.631797874788</v>
       </c>
       <c r="P44" t="n">
-        <v>511.9149221285338</v>
+        <v>511.9149221285339</v>
       </c>
       <c r="Q44" t="n">
-        <v>335.7674473018585</v>
+        <v>335.7674473018586</v>
       </c>
       <c r="R44" t="n">
-        <v>109.0414414142714</v>
+        <v>109.0414414142715</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>134.3999756227769</v>
       </c>
       <c r="K45" t="n">
-        <v>308.6552326513985</v>
+        <v>236.7555698028234</v>
       </c>
       <c r="L45" t="n">
-        <v>461.8154963326045</v>
+        <v>461.8154963326046</v>
       </c>
       <c r="M45" t="n">
-        <v>486.5696310350406</v>
+        <v>558.4692938836154</v>
       </c>
       <c r="N45" t="n">
-        <v>587.8045010990497</v>
+        <v>587.8045010990498</v>
       </c>
       <c r="O45" t="n">
-        <v>515.2820440006344</v>
+        <v>515.2820440006345</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>70.53289629615355</v>
+        <v>70.53289629615358</v>
       </c>
       <c r="K46" t="n">
-        <v>247.0555353768843</v>
+        <v>247.0555353768844</v>
       </c>
       <c r="L46" t="n">
         <v>372.23333471838</v>
       </c>
       <c r="M46" t="n">
-        <v>402.9619242276711</v>
+        <v>402.9619242276712</v>
       </c>
       <c r="N46" t="n">
         <v>398.8699018709488</v>
@@ -38192,10 +38192,10 @@
         <v>352.2428370649494</v>
       </c>
       <c r="P46" t="n">
-        <v>277.6463340618898</v>
+        <v>277.6463340618899</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.9500714247288</v>
+        <v>107.9500714247289</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
